--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="1354">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4032,6 +4032,88 @@
   </si>
   <si>
     <t>Done (Big Changes)</t>
+  </si>
+  <si>
+    <t>KC-833 Document Locks not removed when opening negotiations from action buttons
+KC-797 removed same as Kuali</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/award/document/AwardDocument.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/webapp/uh_processUHIMS.jsp</t>
+  </si>
+  <si>
+    <t>gitk ./main/webapp/uh_processUHIMS.jsp</t>
+  </si>
+  <si>
+    <t>gvimfix.sh /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/webapp/uh_processUHIMS.jsp</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/flushUhKcUsersCache.jsp</t>
+  </si>
+  <si>
+    <t>KC-709 myGRANT 5.1.1 too slow (Caused by our KC_USERS check)</t>
+  </si>
+  <si>
+    <t>KC-901 Add ability for help desk to run the uhims process on demand</t>
+  </si>
+  <si>
+    <t>KC-154: Override Award business object (through overlay) - extension is not getting persisted, so explicitly save it after the Award.
+KC-489 Project Ends Dates displayed incorrectly in Award Search results
+KC-819 Display UH Assigned To field on the Negotiations Attributes Tab and Default negotiator</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/award/home/Award.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/award/lookup/AwardLookupableHelperServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-650 Advanced Award Lookup behaves like a basic search</t>
+  </si>
+  <si>
+    <t>KC-669 fix duplicated warning msg from T&amp;M Direct/F&amp;A Funds</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/award/timeandmoney/AwardDirectFandADistributionRuleImpl.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-477  Award Persons are getting added with award_number 000000-00000 when created from IP or Funding Proposal
+KC-793 Correct wording for validation warnings exist message in PD and Award
+KC-821 Only allow one Negotiation per child award.
+KC-818 Default Agreement Type to "AWARD", then hide Anticipated Award Date, and Document Folder fields.
+KC-819 .... Changed the default negotiator from assigedTo to hard coded "ORS"
+</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/award/web/struts/action/AwardAction.java</t>
+  </si>
+  <si>
+    <t>KC-487 UH-RICE change, check isFaculty based our affiliation</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/framework/person/KcPerson.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-530 Lookup screens are too difficult for users, make searches easier by implementing search engine
+</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/framework/org/Organization.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/framework/sponsor/Sponsor.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/framework/unit/Unit.java</t>
+  </si>
+  <si>
+    <t>Review:This was a strange merge.   They cut a lot of validation checks…..wondering if we still need this
+KC-764 If the modular budget checkbox is checked, the proposal cannot be "submitted to sponsor" for non S2S</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/budget/framework/core/BudgetService.java</t>
   </si>
 </sst>
 </file>
@@ -4876,11 +4958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L319"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+      <pane ySplit="12" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -4914,7 +4996,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>COUNTIF($B$11:$B$251,B5)</f>
+        <f>COUNTIF($B$11:$B$252,B5)</f>
         <v>84</v>
       </c>
     </row>
@@ -4923,15 +5005,15 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f>COUNTIF($B$12:$B$251,B6)</f>
-        <v>62</v>
+        <f>COUNTIF($B$12:$B$252,B6)</f>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="5">
-        <f>COUNTA(I12:I221)-COUNTIF(I11:I221," ")</f>
-        <v>49</v>
+        <f>COUNTA(I12:I222)-COUNTIF(I11:I222," ")</f>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4939,15 +5021,15 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>COUNTIF($B$12:$B$251,B7)</f>
+        <f>COUNTIF($B$12:$B$252,B7)</f>
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="5" t="e">
         <f>F6/C10</f>
-        <v>0.4336283185840708</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4955,15 +5037,15 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <f>COUNTIF($B$12:$B$251,B8)</f>
+        <f>COUNTIF($B$12:$B$252,B8)</f>
         <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="5">
-        <f>COUNTIF(I12:I222,"REVIEW*")</f>
-        <v>3</v>
+        <f>COUNTIF(I12:I223,"REVIEW*")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4971,33 +5053,33 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f>COUNTIF($B$12:$B$251,B9)</f>
+        <f>COUNTIF($B$12:$B$252,B9)</f>
         <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="5" t="e">
         <f>F8/C10</f>
-        <v>2.6548672566371681E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <f>LOOKUP("TOTAL FILES",A13:A601,B13:B601)-SUM(C5:C9)</f>
-        <v>113</v>
+      <c r="C10" t="e">
+        <f>LOOKUP("TOTAL FILES",A13:A602,B13:B602)-SUM(C5:C9)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="e">
         <f>SUM(C5:C10)</f>
-        <v>305</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1">
@@ -5699,7 +5781,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="45">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -5731,7 +5813,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" ht="45">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5859,7 +5941,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="45">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -5923,7 +6005,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="30">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -5955,7 +6037,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="30">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -5987,7 +6069,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="30">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -6051,7 +6133,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="45">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -6275,7 +6357,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" ht="45">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -6339,7 +6421,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6371,7 +6453,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="45">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -6479,7 +6561,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" ht="60">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6501,17 +6583,23 @@
       <c r="G57" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" t="s">
-        <v>29</v>
+      <c r="H57" s="7">
+        <v>42018</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1331</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="180">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -6533,14 +6621,20 @@
       <c r="G58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H58" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" t="s">
-        <v>29</v>
+      <c r="H58" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1339</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6565,17 +6659,23 @@
       <c r="G59" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H59" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" t="s">
-        <v>29</v>
+      <c r="H59" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1340</v>
       </c>
       <c r="L59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -6597,17 +6697,23 @@
       <c r="G60" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" t="s">
-        <v>29</v>
+      <c r="H60" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1343</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="285">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -6629,17 +6735,23 @@
       <c r="G61" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="H61" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" t="s">
-        <v>29</v>
+      <c r="H61" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1345</v>
       </c>
       <c r="L61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="30">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -6661,17 +6773,23 @@
       <c r="G62" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H62" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" t="s">
-        <v>29</v>
+      <c r="H62" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1347</v>
       </c>
       <c r="L62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="75">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -6693,17 +6811,23 @@
       <c r="G63" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H63" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" t="s">
-        <v>29</v>
+      <c r="H63" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1349</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="75">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -6725,17 +6849,23 @@
       <c r="G64" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H64" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" t="s">
-        <v>29</v>
+      <c r="H64" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1350</v>
       </c>
       <c r="L64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="75">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6757,11 +6887,17 @@
       <c r="G65" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" t="s">
-        <v>29</v>
+      <c r="H65" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1351</v>
       </c>
       <c r="L65" t="s">
         <v>29</v>
@@ -6805,7 +6941,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" ht="120">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -6827,14 +6963,20 @@
       <c r="G67" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H67" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" t="s">
-        <v>29</v>
+      <c r="H67" s="7">
+        <v>42019</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1353</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -6856,7 +6998,7 @@
       <c r="G68" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I68" t="s">
@@ -10750,7 +10892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" ht="30">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -10766,43 +10908,49 @@
       <c r="G199" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="H199" t="s">
-        <v>29</v>
-      </c>
-      <c r="I199" t="s">
-        <v>29</v>
+      <c r="H199" s="7">
+        <v>42020</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K199" t="s">
+        <v>1335</v>
       </c>
       <c r="L199" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" ht="45">
       <c r="A200" t="s">
-        <v>789</v>
+        <v>46</v>
       </c>
       <c r="B200" t="s">
-        <v>747</v>
-      </c>
-      <c r="C200" t="s">
-        <v>790</v>
+        <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>791</v>
-      </c>
-      <c r="E200" t="s">
-        <v>750</v>
+        <v>1332</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>792</v>
+        <v>1333</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="H200" t="s">
-        <v>29</v>
-      </c>
-      <c r="I200" t="s">
-        <v>29</v>
+        <v>1334</v>
+      </c>
+      <c r="H200" s="7">
+        <v>42020</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K200" t="s">
+        <v>1335</v>
       </c>
       <c r="L200" t="s">
         <v>29</v>
@@ -10816,19 +10964,19 @@
         <v>747</v>
       </c>
       <c r="C201" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D201" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E201" t="s">
         <v>750</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H201" t="s">
         <v>29</v>
@@ -10848,19 +10996,19 @@
         <v>747</v>
       </c>
       <c r="C202" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D202" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E202" t="s">
         <v>750</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H202" t="s">
         <v>29</v>
@@ -10874,19 +11022,25 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>46</v>
+        <v>789</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>747</v>
+      </c>
+      <c r="C203" t="s">
+        <v>798</v>
       </c>
       <c r="D203" t="s">
-        <v>802</v>
+        <v>799</v>
+      </c>
+      <c r="E203" t="s">
+        <v>750</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H203" t="s">
         <v>29</v>
@@ -10900,25 +11054,19 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>789</v>
+        <v>46</v>
       </c>
       <c r="B204" t="s">
-        <v>747</v>
-      </c>
-      <c r="C204" t="s">
-        <v>805</v>
+        <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>806</v>
-      </c>
-      <c r="E204" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H204" t="s">
         <v>29</v>
@@ -10932,25 +11080,25 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="B205" t="s">
         <v>747</v>
       </c>
       <c r="C205" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D205" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E205" t="s">
         <v>750</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="H205" t="s">
         <v>29</v>
@@ -10964,19 +11112,25 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>46</v>
+        <v>746</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>747</v>
+      </c>
+      <c r="C206" t="s">
+        <v>809</v>
       </c>
       <c r="D206" t="s">
-        <v>813</v>
+        <v>810</v>
+      </c>
+      <c r="E206" t="s">
+        <v>750</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="H206" t="s">
         <v>29</v>
@@ -10996,13 +11150,13 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H207" t="s">
         <v>29</v>
@@ -11016,25 +11170,19 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" t="s">
-        <v>789</v>
+        <v>46</v>
       </c>
       <c r="B208" t="s">
-        <v>747</v>
-      </c>
-      <c r="C208" t="s">
-        <v>819</v>
+        <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>820</v>
-      </c>
-      <c r="E208" t="s">
-        <v>750</v>
+        <v>816</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H208" t="s">
         <v>29</v>
@@ -11048,22 +11196,25 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>789</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>747</v>
       </c>
       <c r="C209" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D209" t="s">
-        <v>824</v>
+        <v>820</v>
+      </c>
+      <c r="E209" t="s">
+        <v>750</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H209" t="s">
         <v>29</v>
@@ -11083,16 +11234,16 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D210" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H210" t="s">
         <v>29</v>
@@ -11106,19 +11257,22 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>827</v>
       </c>
       <c r="D211" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H211" t="s">
         <v>29</v>
@@ -11138,13 +11292,13 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H212" t="s">
         <v>29</v>
@@ -11164,13 +11318,13 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="H213" t="s">
         <v>29</v>
@@ -11184,22 +11338,19 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214" t="s">
-        <v>840</v>
+        <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H214" t="s">
         <v>29</v>
@@ -11213,19 +11364,22 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>840</v>
       </c>
       <c r="D215" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H215" t="s">
         <v>29</v>
@@ -11245,13 +11399,13 @@
         <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H216" t="s">
         <v>29</v>
@@ -11268,16 +11422,16 @@
         <v>46</v>
       </c>
       <c r="B217" t="s">
-        <v>850</v>
+        <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H217" t="s">
         <v>29</v>
@@ -11297,13 +11451,13 @@
         <v>850</v>
       </c>
       <c r="D218" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H218" t="s">
         <v>29</v>
@@ -11323,13 +11477,13 @@
         <v>850</v>
       </c>
       <c r="D219" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H219" t="s">
         <v>29</v>
@@ -11349,13 +11503,13 @@
         <v>850</v>
       </c>
       <c r="D220" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H220" t="s">
         <v>29</v>
@@ -11375,13 +11529,13 @@
         <v>850</v>
       </c>
       <c r="D221" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="H221" t="s">
         <v>29</v>
@@ -11401,13 +11555,13 @@
         <v>850</v>
       </c>
       <c r="D222" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H222" t="s">
         <v>29</v>
@@ -11427,13 +11581,13 @@
         <v>850</v>
       </c>
       <c r="D223" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H223" t="s">
         <v>29</v>
@@ -11453,13 +11607,13 @@
         <v>850</v>
       </c>
       <c r="D224" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="H224" t="s">
         <v>29</v>
@@ -11479,13 +11633,13 @@
         <v>850</v>
       </c>
       <c r="D225" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H225" t="s">
         <v>29</v>
@@ -11505,13 +11659,13 @@
         <v>850</v>
       </c>
       <c r="D226" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="H226" t="s">
         <v>29</v>
@@ -11531,13 +11685,13 @@
         <v>850</v>
       </c>
       <c r="D227" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H227" t="s">
         <v>29</v>
@@ -11557,13 +11711,13 @@
         <v>850</v>
       </c>
       <c r="D228" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H228" t="s">
         <v>29</v>
@@ -11583,13 +11737,13 @@
         <v>850</v>
       </c>
       <c r="D229" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H229" t="s">
         <v>29</v>
@@ -11609,13 +11763,13 @@
         <v>850</v>
       </c>
       <c r="D230" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H230" t="s">
         <v>29</v>
@@ -11635,13 +11789,13 @@
         <v>850</v>
       </c>
       <c r="D231" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="H231" t="s">
         <v>29</v>
@@ -11661,13 +11815,13 @@
         <v>850</v>
       </c>
       <c r="D232" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="H232" t="s">
         <v>29</v>
@@ -11687,13 +11841,13 @@
         <v>850</v>
       </c>
       <c r="D233" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H233" t="s">
         <v>29</v>
@@ -11713,13 +11867,13 @@
         <v>850</v>
       </c>
       <c r="D234" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H234" t="s">
         <v>29</v>
@@ -11739,13 +11893,13 @@
         <v>850</v>
       </c>
       <c r="D235" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H235" t="s">
         <v>29</v>
@@ -11762,16 +11916,16 @@
         <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="D236" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="H236" t="s">
         <v>29</v>
@@ -11791,13 +11945,13 @@
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="H237" t="s">
         <v>29</v>
@@ -11811,22 +11965,19 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
-      </c>
-      <c r="C238" t="s">
-        <v>914</v>
+        <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="H238" t="s">
         <v>29</v>
@@ -11840,19 +11991,22 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>914</v>
       </c>
       <c r="D239" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H239" t="s">
         <v>29</v>
@@ -11866,22 +12020,19 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
-      </c>
-      <c r="C240" t="s">
-        <v>921</v>
+        <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="H240" t="s">
         <v>29</v>
@@ -11901,16 +12052,16 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D241" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="H241" t="s">
         <v>29</v>
@@ -11930,16 +12081,16 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D242" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H242" t="s">
         <v>29</v>
@@ -11959,16 +12110,16 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D243" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="H243" t="s">
         <v>29</v>
@@ -11988,16 +12139,16 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D244" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="H244" t="s">
         <v>29</v>
@@ -12011,19 +12162,22 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>937</v>
       </c>
       <c r="D245" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H245" t="s">
         <v>29</v>
@@ -12037,22 +12191,19 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
-      </c>
-      <c r="C246" t="s">
-        <v>944</v>
+        <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H246" t="s">
         <v>29</v>
@@ -12066,19 +12217,22 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C247" t="s">
+        <v>944</v>
       </c>
       <c r="D247" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="H247" t="s">
         <v>29</v>
@@ -12092,22 +12246,19 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C248" t="s">
-        <v>951</v>
+        <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H248" t="s">
         <v>29</v>
@@ -12127,16 +12278,16 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D249" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="H249" t="s">
         <v>29</v>
@@ -12156,16 +12307,16 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D250" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="H250" t="s">
         <v>29</v>
@@ -12185,16 +12336,16 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D251" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H251" t="s">
         <v>29</v>
@@ -12214,16 +12365,16 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D252" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H252" t="s">
         <v>29</v>
@@ -12243,16 +12394,16 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D253" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="H253" t="s">
         <v>29</v>
@@ -12272,16 +12423,16 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D254" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H254" t="s">
         <v>29</v>
@@ -12301,16 +12452,16 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D255" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H255" t="s">
         <v>29</v>
@@ -12330,16 +12481,16 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D256" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="H256" t="s">
         <v>29</v>
@@ -12359,16 +12510,16 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D257" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="H257" t="s">
         <v>29</v>
@@ -12388,16 +12539,16 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D258" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="H258" t="s">
         <v>29</v>
@@ -12417,16 +12568,16 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D259" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="H259" t="s">
         <v>29</v>
@@ -12446,16 +12597,16 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D260" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="H260" t="s">
         <v>29</v>
@@ -12475,16 +12626,16 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D261" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="H261" t="s">
         <v>29</v>
@@ -12504,16 +12655,16 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D262" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="H262" t="s">
         <v>29</v>
@@ -12533,16 +12684,16 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D263" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H263" t="s">
         <v>29</v>
@@ -12556,25 +12707,22 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" t="s">
-        <v>789</v>
+        <v>223</v>
       </c>
       <c r="B264" t="s">
-        <v>747</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D264" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E264" t="s">
-        <v>750</v>
+        <v>1012</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="H264" t="s">
         <v>29</v>
@@ -12594,19 +12742,19 @@
         <v>747</v>
       </c>
       <c r="C265" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D265" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E265" t="s">
         <v>750</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="H265" t="s">
         <v>29</v>
@@ -12626,19 +12774,19 @@
         <v>747</v>
       </c>
       <c r="C266" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D266" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E266" t="s">
         <v>750</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H266" t="s">
         <v>29</v>
@@ -12658,19 +12806,19 @@
         <v>747</v>
       </c>
       <c r="C267" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D267" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E267" t="s">
         <v>750</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H267" t="s">
         <v>29</v>
@@ -12690,19 +12838,19 @@
         <v>747</v>
       </c>
       <c r="C268" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D268" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E268" t="s">
         <v>750</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="H268" t="s">
         <v>29</v>
@@ -12722,19 +12870,19 @@
         <v>747</v>
       </c>
       <c r="C269" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D269" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E269" t="s">
         <v>750</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="H269" t="s">
         <v>29</v>
@@ -12754,19 +12902,19 @@
         <v>747</v>
       </c>
       <c r="C270" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D270" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E270" t="s">
         <v>750</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="H270" t="s">
         <v>29</v>
@@ -12786,19 +12934,19 @@
         <v>747</v>
       </c>
       <c r="C271" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D271" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E271" t="s">
         <v>750</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="H271" t="s">
         <v>29</v>
@@ -12818,19 +12966,19 @@
         <v>747</v>
       </c>
       <c r="C272" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D272" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E272" t="s">
         <v>750</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="H272" t="s">
         <v>29</v>
@@ -12850,19 +12998,19 @@
         <v>747</v>
       </c>
       <c r="C273" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D273" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E273" t="s">
         <v>750</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="H273" t="s">
         <v>29</v>
@@ -12882,19 +13030,19 @@
         <v>747</v>
       </c>
       <c r="C274" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D274" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E274" t="s">
         <v>750</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="H274" t="s">
         <v>29</v>
@@ -12914,19 +13062,19 @@
         <v>747</v>
       </c>
       <c r="C275" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D275" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E275" t="s">
         <v>750</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="H275" t="s">
         <v>29</v>
@@ -12940,22 +13088,25 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" t="s">
-        <v>223</v>
+        <v>789</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>747</v>
       </c>
       <c r="C276" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D276" t="s">
-        <v>1064</v>
+        <v>1060</v>
+      </c>
+      <c r="E276" t="s">
+        <v>750</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="H276" t="s">
         <v>29</v>
@@ -12975,16 +13126,16 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D277" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H277" t="s">
         <v>29</v>
@@ -13004,16 +13155,16 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D278" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H278" t="s">
         <v>29</v>
@@ -13033,16 +13184,16 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D279" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H279" t="s">
         <v>29</v>
@@ -13062,16 +13213,16 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D280" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H280" t="s">
         <v>29</v>
@@ -13091,16 +13242,16 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D281" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="H281" t="s">
         <v>29</v>
@@ -13120,16 +13271,16 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D282" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="H282" t="s">
         <v>29</v>
@@ -13149,16 +13300,16 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D283" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="H283" t="s">
         <v>29</v>
@@ -13178,16 +13329,16 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D284" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="H284" t="s">
         <v>29</v>
@@ -13207,16 +13358,16 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D285" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H285" t="s">
         <v>29</v>
@@ -13236,16 +13387,16 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D286" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="H286" t="s">
         <v>29</v>
@@ -13265,16 +13416,16 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D287" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="H287" t="s">
         <v>29</v>
@@ -13294,16 +13445,16 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D288" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H288" t="s">
         <v>29</v>
@@ -13317,25 +13468,22 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" t="s">
-        <v>789</v>
+        <v>223</v>
       </c>
       <c r="B289" t="s">
-        <v>747</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D289" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E289" t="s">
-        <v>750</v>
+        <v>1112</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H289" t="s">
         <v>29</v>
@@ -13349,22 +13497,25 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" t="s">
-        <v>223</v>
+        <v>789</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>747</v>
       </c>
       <c r="C290" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D290" t="s">
-        <v>1120</v>
+        <v>1116</v>
+      </c>
+      <c r="E290" t="s">
+        <v>750</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H290" t="s">
         <v>29</v>
@@ -13378,19 +13529,22 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1119</v>
       </c>
       <c r="D291" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H291" t="s">
         <v>29</v>
@@ -13404,22 +13558,19 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1126</v>
+        <v>5</v>
       </c>
       <c r="D292" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="H292" t="s">
         <v>29</v>
@@ -13439,16 +13590,16 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D293" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="H293" t="s">
         <v>29</v>
@@ -13468,16 +13619,16 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D294" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H294" t="s">
         <v>29</v>
@@ -13497,16 +13648,16 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="D295" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H295" t="s">
         <v>29</v>
@@ -13526,16 +13677,16 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D296" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="H296" t="s">
         <v>29</v>
@@ -13555,16 +13706,16 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D297" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="H297" t="s">
         <v>29</v>
@@ -13578,19 +13729,22 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1146</v>
       </c>
       <c r="D298" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H298" t="s">
         <v>29</v>
@@ -13604,22 +13758,19 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1153</v>
+        <v>5</v>
       </c>
       <c r="D299" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="H299" t="s">
         <v>29</v>
@@ -13639,16 +13790,16 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D300" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="H300" t="s">
         <v>29</v>
@@ -13668,16 +13819,16 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D301" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H301" t="s">
         <v>29</v>
@@ -13697,16 +13848,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D302" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="H302" t="s">
         <v>29</v>
@@ -13720,25 +13871,22 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" t="s">
-        <v>789</v>
+        <v>223</v>
       </c>
       <c r="B303" t="s">
-        <v>747</v>
+        <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D303" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E303" t="s">
-        <v>750</v>
+        <v>1166</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="H303" t="s">
         <v>29</v>
@@ -13752,25 +13900,25 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="B304" t="s">
         <v>747</v>
       </c>
       <c r="C304" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D304" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E304" t="s">
         <v>750</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="H304" t="s">
         <v>29</v>
@@ -13784,22 +13932,25 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" t="s">
-        <v>223</v>
+        <v>746</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>747</v>
       </c>
       <c r="C305" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D305" t="s">
-        <v>1178</v>
+        <v>1174</v>
+      </c>
+      <c r="E305" t="s">
+        <v>750</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="H305" t="s">
         <v>29</v>
@@ -13813,19 +13964,22 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1177</v>
       </c>
       <c r="D306" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="H306" t="s">
         <v>29</v>
@@ -13839,22 +13993,19 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1184</v>
+        <v>5</v>
       </c>
       <c r="D307" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="H307" t="s">
         <v>29</v>
@@ -13868,25 +14019,22 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" t="s">
-        <v>746</v>
+        <v>223</v>
       </c>
       <c r="B308" t="s">
-        <v>747</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D308" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E308" t="s">
-        <v>750</v>
+        <v>1185</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="H308" t="s">
         <v>29</v>
@@ -13900,22 +14048,25 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" t="s">
-        <v>223</v>
+        <v>746</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>747</v>
       </c>
       <c r="C309" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D309" t="s">
-        <v>1193</v>
+        <v>1189</v>
+      </c>
+      <c r="E309" t="s">
+        <v>750</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="H309" t="s">
         <v>29</v>
@@ -13935,16 +14086,16 @@
         <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D310" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H310" t="s">
         <v>29</v>
@@ -13964,16 +14115,16 @@
         <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D311" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="H311" t="s">
         <v>29</v>
@@ -13993,16 +14144,16 @@
         <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D312" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="H312" t="s">
         <v>29</v>
@@ -14022,16 +14173,16 @@
         <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D313" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="H313" t="s">
         <v>29</v>
@@ -14051,16 +14202,16 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D314" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="H314" t="s">
         <v>29</v>
@@ -14074,19 +14225,22 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1212</v>
       </c>
       <c r="D315" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="H315" t="s">
         <v>29</v>
@@ -14100,22 +14254,19 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1219</v>
+        <v>5</v>
       </c>
       <c r="D316" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="H316" t="s">
         <v>29</v>
@@ -14129,19 +14280,22 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1219</v>
       </c>
       <c r="D317" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="H317" t="s">
         <v>29</v>
@@ -14155,25 +14309,19 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" t="s">
-        <v>746</v>
+        <v>46</v>
       </c>
       <c r="B318" t="s">
-        <v>747</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1226</v>
+        <v>5</v>
       </c>
       <c r="D318" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E318" t="s">
-        <v>750</v>
+        <v>1223</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="H318" t="s">
         <v>29</v>
@@ -14187,13 +14335,46 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" t="s">
+        <v>746</v>
+      </c>
+      <c r="B319" t="s">
+        <v>747</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E319" t="s">
+        <v>750</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H319" t="s">
+        <v>29</v>
+      </c>
+      <c r="I319" t="s">
+        <v>29</v>
+      </c>
+      <c r="L319" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
+      <c r="A320" t="s">
         <v>1230</v>
       </c>
-      <c r="B319">
+      <c r="B320">
         <v>305</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="35475" windowHeight="16410"/>
+    <workbookView xWindow="90" yWindow="75" windowWidth="31950" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="1392">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -694,9 +694,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/budget/core/BudgetServiceImpl.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/budget/core/BudgetServiceImpl.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/budget/core/BudgetServiceImpl.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/budget/core/BudgetServiceImpl.java</t>
   </si>
   <si>
@@ -1336,9 +1333,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/proposaldevelopment/lookup/keyvalue/KCStateValuesFinder.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/proposaldevelopment/lookup/keyvalue/KCStateValuesFinder.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/proposaldevelopment/lookup/keyvalue/KCStateValuesFinder.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/proposaldevelopment/lookup/keyvalue/KCStateValuesFinder.java</t>
   </si>
   <si>
@@ -3725,9 +3719,6 @@
   </si>
   <si>
     <t>Merged</t>
-  </si>
-  <si>
-    <t>Deleted</t>
   </si>
   <si>
     <t>Keep</t>
@@ -4109,11 +4100,148 @@
     <t>coeus-impl/src/main/java/org/kuali/coeus/common/framework/unit/Unit.java</t>
   </si>
   <si>
-    <t>Review:This was a strange merge.   They cut a lot of validation checks…..wondering if we still need this
-KC-764 If the modular budget checkbox is checked, the proposal cannot be "submitted to sponsor" for non S2S</t>
-  </si>
-  <si>
-    <t>coeus-impl/src/main/java/org/kuali/coeus/common/budget/framework/core/BudgetService.java</t>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/budget/core/BudgetServiceImpl.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/budget/core/BudgetServiceImpl.java /cygdrive/c/Users/ronald/github/UhKc/coeus-impl/src/main/java/org/kuali/coeus/common/budget/impl/personnel/BudgetPersonServiceImpl.java /cygdrive/c/Users/ronald/github/UhKc/coeus-impl/src/main/java/org/kuali/coeus/common/budget/impl/personnel/BudgetPersonServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-764 Refactor Issue needs rework, JIRA reopened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Renamed to BudgetPersonServiceImpl.java…
+Manually fixing action command
+Reopening these JIRA's for retest and reimplementation if necessary
+KC-764 If the modular budget checkbox is checked, the proposal cannot be "submitted to sponsor" for non S2S,
+This was a new method we wrote difficut merge
+KC-452 remove call to isAuthorizedToAccess method which has a race condition when Tomcat loses user session intermittently
+</t>
+  </si>
+  <si>
+    <t>KC-764 Refactor Issue needs rework, JIRA reopened
+KC-680 Refactor Issue needs rework, JIRA reopened.  Budget Finalization fix needs new design</t>
+  </si>
+  <si>
+    <t>Same code as BudgetVersionsAction.java
+KC-764 Refactor Issue needs rework, JIRA reopened
+KC-680 Refactor Issue needs rework, JIRA reopened.  Budget Finalization fix needs new design</t>
+  </si>
+  <si>
+    <t>KC-480 make "Project Summary" the default abstract selection choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/proposaldevelopment/lookup/keyvalue/KCStateValuesFinder.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/proposaldevelopment/lookup/keyvalue/KCStateValuesFinder.java /cygdrive/c/Users/ronald/github/UhKc/coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/person/KcStateValuesFinder.java /cygdrive/c/Users/ronald/github/UhKc/coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/person/KcStateValuesFinder.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/abstrct/AbstractTypeValuesFinder.java</t>
+  </si>
+  <si>
+    <t>Done, needed new code to fix</t>
+  </si>
+  <si>
+    <t>Rich supplied no JIRA number
+fix null pointer issue on PD Key personnel tab for people without
+Contry code by defaulting to US</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-685 remove the select/empty role from the drop down menu, making "unassigned" role the new default selection to avoid npe when adding a person with blank role</t>
+  </si>
+  <si>
+    <t>KC-800 Add Questionnaire to capture Unrecovered F and A information Remove requirement for Source Account</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/budget/impl/distribution/BudgetCostShareAuditRule.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-800 Add Questionnaire to capture Unrecovered F and A information (As part of this change we want to remove the Audit Check which forces Source Account to be entered</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/budget/impl/distribution/BudgetUnrecoveredFandAAuditRule.java</t>
+  </si>
+  <si>
+    <t>Fixing Document Lock on BudgetDocument.  It isn't a Document anymore it seems.  They should have fixed these document lock issues in KC60 anyway</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>UH KC-562 fix calculated fringe to calculate/display our custom employee rate types while continuing to filter out (EB on LA rate type code:3)
+This code will work but seems strange.
+I think the right way to do this is using the database so discuss with Royce
+/cygdrive/c/Users/ronald/github/UhKc//coeus-impl/src/main/java/org/kuali/coeus/common/budget/framework/nonpersonnel/AbstractBudgetCalculatedAmount.java
+Talking with Royce we think we can just add a new Rate Class Type such as "Employee Benefits Not Included in Fringe" or something like that since this code just includes "Employee Benefits:5:E"</t>
+  </si>
+  <si>
+    <t>Review-Removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-797 Document Locks are not working correctly</t>
+  </si>
+  <si>
+    <t>Removed-KC60  has same fix</t>
+  </si>
+  <si>
+    <t>KC-607 - rbl add processing for To be Named(TBN) individuals</t>
+  </si>
+  <si>
+    <t>Removed-Fixed in KC60</t>
+  </si>
+  <si>
+    <t>KC-600 BEGIN - rbl  maintain the same display order of custom data values that users were used to in KC 3.1.1</t>
+  </si>
+  <si>
+    <t>Merged-Strange they did our fix in one of two places so I just kept our versions for both and reported issue to Travis to see what he says about it.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/framework/custom/CustomDataHelperBase.java</t>
+  </si>
+  <si>
+    <t>KC-790 Add ability to disable notification action list generation</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/notification/impl/service/impl/KcNotificationServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC5.1 fix null exception</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Review-REWORK</t>
+  </si>
+  <si>
+    <t>Removed-Code fixed in KC60</t>
+  </si>
+  <si>
+    <t>KC-797 Document Locks are not working correctly</t>
+  </si>
+  <si>
+    <t>Removed-KC60 removed this document and document lock issue should be fixed in KC60</t>
+  </si>
+  <si>
+    <t>Removed-KC60 same change</t>
+  </si>
+  <si>
+    <t>KC-605 BEGIN rbl add time zone to sponsor deadline time</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/sys/framework/util/DateUtils.java</t>
+  </si>
+  <si>
+    <t>Merged-Code moved to new file,  I had to hand merge code from TimeFormatter to DateUtils</t>
+  </si>
+  <si>
+    <t>KC-307: Don't add empty units when adding a new proposal person.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/institutionalproposal/contacts/InstitutionalProposalProjectPersonnelBean.java</t>
+  </si>
+  <si>
+    <t>KC-418 Modification add check for primary unit</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/institutionalproposal/contacts/InstitutionalProposalUnitContactAddRuleImpl.java</t>
+  </si>
+  <si>
+    <t>Removed-KC60 fix is same</t>
   </si>
 </sst>
 </file>
@@ -4610,7 +4738,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -4623,6 +4751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4960,13 +5089,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="E76" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="6" max="7" width="31.140625" style="5"/>
     <col min="10" max="10" width="31.140625" style="3"/>
   </cols>
@@ -5012,8 +5145,15 @@
         <v>6</v>
       </c>
       <c r="F6" s="5">
-        <f>COUNTA(I12:I222)-COUNTIF(I11:I222," ")</f>
-        <v>61</v>
+        <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(I13:I400,"Merged*")</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5027,9 +5167,16 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="e">
+      <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>#VALUE!</v>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIF(I13:I400,"Keep*")</f>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5044,8 +5191,15 @@
         <v>10</v>
       </c>
       <c r="F8" s="5">
-        <f>COUNTIF(I12:I223,"REVIEW*")</f>
-        <v>4</v>
+        <f>COUNTIF(I13:I400,"REVIEW*")</f>
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIF(I13:I400,"Removed*")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5059,27 +5213,41 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5" t="e">
+      <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>#VALUE!</v>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIF(I13:I400,"REVIEW*")</f>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="e">
-        <f>LOOKUP("TOTAL FILES",A13:A602,B13:B602)-SUM(C5:C9)</f>
-        <v>#VALUE!</v>
+      <c r="C10">
+        <f>B320-SUM(C5:C9)</f>
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I6:I9)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="e">
+      <c r="C11" s="2">
         <f>SUM(C5:C10)</f>
-        <v>#VALUE!</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1">
@@ -5105,19 +5273,19 @@
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45">
@@ -5146,16 +5314,16 @@
         <v>42013</v>
       </c>
       <c r="I13" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="K13" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="L13" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
@@ -5184,16 +5352,16 @@
         <v>42013</v>
       </c>
       <c r="I14" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="K14" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="L14" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45">
@@ -5222,16 +5390,16 @@
         <v>42016</v>
       </c>
       <c r="I15" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="K15" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="L15" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45">
@@ -5260,16 +5428,16 @@
         <v>42016</v>
       </c>
       <c r="I16" t="s">
-        <v>1237</v>
+        <v>1378</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="K16" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="L16" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="150">
@@ -5292,16 +5460,16 @@
         <v>42016</v>
       </c>
       <c r="I17" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="K17" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="L17" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45">
@@ -5324,16 +5492,16 @@
         <v>42016</v>
       </c>
       <c r="I18" t="s">
-        <v>1237</v>
+        <v>1378</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="K18" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="L18" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45">
@@ -5356,16 +5524,16 @@
         <v>42016</v>
       </c>
       <c r="I19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>1241</v>
-      </c>
       <c r="K19" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="L19" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="210">
@@ -5388,16 +5556,16 @@
         <v>42016</v>
       </c>
       <c r="I20" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="K20" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="L20" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60">
@@ -5420,16 +5588,16 @@
         <v>42016</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="K21" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="L21" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="90">
@@ -5452,13 +5620,13 @@
         <v>42016</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="K22" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30">
@@ -5481,16 +5649,16 @@
         <v>42016</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>7</v>
+        <v>1378</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30">
@@ -5513,16 +5681,16 @@
         <v>42016</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>7</v>
+        <v>1378</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
@@ -5545,16 +5713,16 @@
         <v>42016</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>7</v>
+        <v>1378</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30">
@@ -5577,16 +5745,16 @@
         <v>42016</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K26" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45">
@@ -5609,16 +5777,16 @@
         <v>42016</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J27" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K27" t="s">
         <v>1257</v>
       </c>
-      <c r="K27" t="s">
-        <v>1260</v>
-      </c>
       <c r="L27" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="300">
@@ -5641,16 +5809,16 @@
         <v>42016</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K28" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="105">
@@ -5673,16 +5841,16 @@
         <v>42016</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K29" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="105">
@@ -5705,16 +5873,16 @@
         <v>42016</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K30" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="180">
@@ -5737,48 +5905,48 @@
         <v>42016</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="K31" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60">
       <c r="A32" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B32" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D32" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E32" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="H32" s="7">
         <v>42016</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45">
@@ -5801,16 +5969,16 @@
         <v>42016</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>1241</v>
-      </c>
       <c r="K33" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="45">
@@ -5833,16 +6001,16 @@
         <v>42016</v>
       </c>
       <c r="I34" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>1241</v>
-      </c>
       <c r="K34" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -5865,16 +6033,16 @@
         <v>42016</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="K35" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -5897,16 +6065,16 @@
         <v>42016</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="K36" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -5929,16 +6097,16 @@
         <v>42016</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="K37" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45">
@@ -5961,16 +6129,16 @@
         <v>42016</v>
       </c>
       <c r="I38" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>1241</v>
-      </c>
       <c r="K38" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -5993,16 +6161,16 @@
         <v>42016</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="K39" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30">
@@ -6025,16 +6193,16 @@
         <v>42016</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="K40" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30">
@@ -6057,16 +6225,16 @@
         <v>42016</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="K41" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30">
@@ -6089,16 +6257,16 @@
         <v>42016</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="K42" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30">
@@ -6121,16 +6289,16 @@
         <v>42016</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="K43" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45">
@@ -6153,16 +6321,16 @@
         <v>42016</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="K44" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="210">
@@ -6185,16 +6353,16 @@
         <v>42016</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="K45" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="60">
@@ -6217,16 +6385,16 @@
         <v>42016</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="K46" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="60">
@@ -6249,16 +6417,16 @@
         <v>42016</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="K47" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="150">
@@ -6281,16 +6449,16 @@
         <v>42016</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="K48" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="60">
@@ -6313,16 +6481,16 @@
         <v>42016</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="K49" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="75">
@@ -6345,16 +6513,16 @@
         <v>42016</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="K50" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="45">
@@ -6377,16 +6545,16 @@
         <v>42016</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="K51" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="150">
@@ -6409,16 +6577,16 @@
         <v>42016</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="K52" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30">
@@ -6441,16 +6609,16 @@
         <v>42016</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="K53" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="45">
@@ -6473,16 +6641,16 @@
         <v>42016</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="K54" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="150">
@@ -6511,16 +6679,16 @@
         <v>42016</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L55" s="5" t="s">
         <v>1307</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="135">
@@ -6549,16 +6717,16 @@
         <v>42016</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="K56" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="L56" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="60">
@@ -6587,16 +6755,16 @@
         <v>42018</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="K57" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="L57" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="180">
@@ -6625,19 +6793,19 @@
         <v>42019</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="K58" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="L58" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="30">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -6663,16 +6831,16 @@
         <v>42019</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="K59" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="L59" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30">
@@ -6701,16 +6869,16 @@
         <v>42019</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="K60" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="L60" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="285">
@@ -6739,16 +6907,16 @@
         <v>42019</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="K61" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="L61" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30">
@@ -6777,16 +6945,16 @@
         <v>42019</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="K62" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="L62" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="75">
@@ -6815,16 +6983,16 @@
         <v>42019</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="K63" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="L63" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="75">
@@ -6853,16 +7021,16 @@
         <v>42019</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="K64" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="L64" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="75">
@@ -6891,13 +7059,13 @@
         <v>42019</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J65" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K65" t="s">
         <v>1348</v>
-      </c>
-      <c r="K65" t="s">
-        <v>1351</v>
       </c>
       <c r="L65" t="s">
         <v>29</v>
@@ -6929,19 +7097,19 @@
         <v>42017</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>4</v>
+        <v>1234</v>
       </c>
       <c r="J66" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="K66" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="L66" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="120">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="30">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -6967,19 +7135,19 @@
         <v>42019</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>1232</v>
+        <v>1379</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="K67" t="s">
-        <v>1353</v>
+        <v>1245</v>
       </c>
       <c r="L67" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="270">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -6993,22 +7161,28 @@
         <v>225</v>
       </c>
       <c r="F68" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" t="s">
-        <v>29</v>
+      <c r="H68" s="7">
+        <v>42024</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1245</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="60">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -7016,31 +7190,37 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" t="s">
         <v>228</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>229</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="H69" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" t="s">
-        <v>29</v>
-      </c>
-      <c r="L69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="H69" s="7">
+        <v>42025</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="90">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -7048,31 +7228,37 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" t="s">
         <v>233</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>234</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H70" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="H70" s="7">
+        <v>42025</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="90">
       <c r="A71" t="s">
         <v>223</v>
       </c>
@@ -7080,28 +7266,34 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" t="s">
         <v>238</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H71" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="H71" s="7">
+        <v>42025</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="345">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -7109,25 +7301,28 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" t="s">
         <v>242</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>243</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" t="s">
-        <v>29</v>
+      <c r="H72" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>1366</v>
       </c>
       <c r="L72" t="s">
         <v>29</v>
@@ -7141,31 +7336,37 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" t="s">
         <v>247</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>248</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="H73" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="75">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -7173,31 +7374,37 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
         <v>252</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>253</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H74" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="H74" s="7">
+        <v>42025</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="30">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -7205,31 +7412,37 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
         <v>257</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>258</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G75" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="H75" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="30">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7237,28 +7450,34 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" t="s">
         <v>262</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>263</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H76" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" t="s">
-        <v>29</v>
+      <c r="H76" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7269,31 +7488,37 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" t="s">
         <v>267</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>268</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H77" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" t="s">
-        <v>29</v>
-      </c>
-      <c r="L77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="H77" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="30">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -7301,28 +7526,34 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" t="s">
         <v>272</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>273</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H78" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" t="s">
-        <v>29</v>
+      <c r="H78" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7333,28 +7564,34 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" t="s">
         <v>277</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>278</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H79" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" t="s">
-        <v>29</v>
-      </c>
-      <c r="L79" t="s">
-        <v>29</v>
+      <c r="H79" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -7365,28 +7602,34 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" t="s">
         <v>282</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G80" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H80" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="H80" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="30">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -7394,28 +7637,34 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" t="s">
         <v>286</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>287</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H81" t="s">
-        <v>29</v>
-      </c>
-      <c r="I81" t="s">
-        <v>29</v>
-      </c>
-      <c r="L81" t="s">
-        <v>29</v>
+      <c r="H81" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7426,28 +7675,34 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" t="s">
         <v>291</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H82" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" t="s">
-        <v>29</v>
-      </c>
-      <c r="L82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="H82" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="45">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -7455,28 +7710,34 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
+        <v>294</v>
+      </c>
+      <c r="D83" t="s">
         <v>295</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>296</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H83" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83" t="s">
-        <v>29</v>
-      </c>
-      <c r="L83" t="s">
-        <v>29</v>
+      <c r="H83" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -7487,28 +7748,34 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" t="s">
         <v>300</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>301</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="H84" t="s">
-        <v>29</v>
-      </c>
-      <c r="I84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L84" t="s">
-        <v>29</v>
+      <c r="H84" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -7519,28 +7786,34 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" t="s">
         <v>305</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>306</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H85" t="s">
-        <v>29</v>
-      </c>
-      <c r="I85" t="s">
-        <v>29</v>
-      </c>
-      <c r="L85" t="s">
-        <v>29</v>
+      <c r="H85" s="7">
+        <v>42026</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -7551,19 +7824,19 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" t="s">
         <v>310</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>311</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="H86" t="s">
         <v>29</v>
@@ -7583,19 +7856,19 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" t="s">
         <v>315</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>316</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="H87" t="s">
         <v>29</v>
@@ -7615,19 +7888,19 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" t="s">
         <v>320</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>321</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="H88" t="s">
         <v>29</v>
@@ -7647,19 +7920,19 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
+        <v>324</v>
+      </c>
+      <c r="D89" t="s">
         <v>325</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>326</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="H89" t="s">
         <v>29</v>
@@ -7679,19 +7952,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" t="s">
         <v>330</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>331</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="H90" t="s">
         <v>29</v>
@@ -7711,19 +7984,19 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" t="s">
         <v>335</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>336</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="H91" t="s">
         <v>29</v>
@@ -7743,16 +8016,16 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" t="s">
         <v>340</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="H92" t="s">
         <v>29</v>
@@ -7772,19 +8045,19 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" t="s">
         <v>344</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>345</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="H93" t="s">
         <v>29</v>
@@ -7804,19 +8077,19 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
+        <v>348</v>
+      </c>
+      <c r="D94" t="s">
         <v>349</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>350</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="H94" t="s">
         <v>29</v>
@@ -7836,19 +8109,19 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" t="s">
         <v>354</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>355</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="H95" t="s">
         <v>29</v>
@@ -7868,19 +8141,19 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
+        <v>358</v>
+      </c>
+      <c r="D96" t="s">
         <v>359</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>360</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="H96" t="s">
         <v>29</v>
@@ -7900,19 +8173,19 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" t="s">
         <v>364</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>365</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="H97" t="s">
         <v>29</v>
@@ -7932,19 +8205,19 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" t="s">
         <v>369</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>370</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="H98" t="s">
         <v>29</v>
@@ -7964,19 +8237,19 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
+        <v>373</v>
+      </c>
+      <c r="D99" t="s">
         <v>374</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>375</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="H99" t="s">
         <v>29</v>
@@ -7996,19 +8269,19 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" t="s">
         <v>379</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>380</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="H100" t="s">
         <v>29</v>
@@ -8028,34 +8301,34 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
+        <v>383</v>
+      </c>
+      <c r="D101" t="s">
         <v>384</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>385</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="H101" s="7">
         <v>42017</v>
       </c>
       <c r="I101" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J101" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K101" t="s">
         <v>1305</v>
       </c>
-      <c r="K101" t="s">
-        <v>1308</v>
-      </c>
       <c r="L101" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="75">
@@ -8066,34 +8339,34 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
+        <v>388</v>
+      </c>
+      <c r="D102" t="s">
         <v>389</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>390</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="G102" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="H102" s="7">
         <v>42017</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="K102" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L102" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -8104,19 +8377,19 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" t="s">
         <v>394</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>395</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="G103" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="H103" t="s">
         <v>29</v>
@@ -8136,19 +8409,19 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>398</v>
+      </c>
+      <c r="D104" t="s">
         <v>399</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>400</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="H104" t="s">
         <v>29</v>
@@ -8168,19 +8441,19 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
+        <v>403</v>
+      </c>
+      <c r="D105" t="s">
         <v>404</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>405</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="H105" t="s">
         <v>29</v>
@@ -8200,19 +8473,19 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" t="s">
         <v>409</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>410</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="H106" t="s">
         <v>29</v>
@@ -8232,19 +8505,19 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
+        <v>413</v>
+      </c>
+      <c r="D107" t="s">
         <v>414</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>415</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="G107" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="H107" t="s">
         <v>29</v>
@@ -8264,19 +8537,19 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
+        <v>418</v>
+      </c>
+      <c r="D108" t="s">
         <v>419</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>420</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="G108" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="H108" t="s">
         <v>29</v>
@@ -8296,16 +8569,16 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" t="s">
         <v>424</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="G109" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="H109" t="s">
         <v>29</v>
@@ -8325,37 +8598,37 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" t="s">
         <v>428</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>429</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="H110" s="7">
         <v>42017</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="K110" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="L110" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="45">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -8363,31 +8636,37 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
+        <v>432</v>
+      </c>
+      <c r="D111" t="s">
         <v>433</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>434</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="G111" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="G111" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="H111" t="s">
-        <v>29</v>
-      </c>
-      <c r="I111" t="s">
-        <v>29</v>
+      <c r="H111" s="7">
+        <v>42025</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1356</v>
       </c>
       <c r="L111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="60">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -8395,28 +8674,34 @@
         <v>9</v>
       </c>
       <c r="C112" t="s">
+        <v>437</v>
+      </c>
+      <c r="D112" t="s">
         <v>438</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="H112" t="s">
-        <v>29</v>
-      </c>
-      <c r="I112" t="s">
-        <v>29</v>
-      </c>
-      <c r="L112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="H112" s="7">
+        <v>42025</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="90">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -8424,28 +8709,34 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
+        <v>440</v>
+      </c>
+      <c r="D113" t="s">
+        <v>441</v>
+      </c>
+      <c r="E113" t="s">
         <v>442</v>
       </c>
-      <c r="D113" t="s">
+      <c r="F113" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="H113" t="s">
-        <v>29</v>
-      </c>
-      <c r="I113" t="s">
-        <v>29</v>
-      </c>
-      <c r="L113" t="s">
-        <v>29</v>
+      <c r="H113" s="7">
+        <v>41660</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -8456,19 +8747,19 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
+        <v>445</v>
+      </c>
+      <c r="D114" t="s">
+        <v>446</v>
+      </c>
+      <c r="E114" t="s">
         <v>447</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E114" t="s">
+      <c r="G114" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="H114" t="s">
         <v>29</v>
@@ -8488,19 +8779,19 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" t="s">
+        <v>451</v>
+      </c>
+      <c r="E115" t="s">
         <v>452</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="E115" t="s">
+      <c r="G115" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="H115" t="s">
         <v>29</v>
@@ -8520,19 +8811,19 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D116" t="s">
+        <v>456</v>
+      </c>
+      <c r="E116" t="s">
         <v>457</v>
       </c>
-      <c r="D116" t="s">
+      <c r="F116" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="E116" t="s">
+      <c r="G116" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="H116" t="s">
         <v>29</v>
@@ -8552,19 +8843,19 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
+        <v>460</v>
+      </c>
+      <c r="D117" t="s">
+        <v>461</v>
+      </c>
+      <c r="E117" t="s">
         <v>462</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G117" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="H117" t="s">
         <v>29</v>
@@ -8584,19 +8875,19 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
+        <v>465</v>
+      </c>
+      <c r="D118" t="s">
+        <v>466</v>
+      </c>
+      <c r="E118" t="s">
         <v>467</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="H118" t="s">
         <v>29</v>
@@ -8616,19 +8907,19 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
+        <v>470</v>
+      </c>
+      <c r="D119" t="s">
+        <v>471</v>
+      </c>
+      <c r="E119" t="s">
         <v>472</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F119" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="E119" t="s">
+      <c r="G119" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="H119" t="s">
         <v>29</v>
@@ -8648,19 +8939,19 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
+        <v>475</v>
+      </c>
+      <c r="D120" t="s">
+        <v>476</v>
+      </c>
+      <c r="E120" t="s">
         <v>477</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="E120" t="s">
+      <c r="G120" s="5" t="s">
         <v>479</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="H120" t="s">
         <v>29</v>
@@ -8680,19 +8971,19 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
+        <v>480</v>
+      </c>
+      <c r="D121" t="s">
+        <v>481</v>
+      </c>
+      <c r="E121" t="s">
         <v>482</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E121" t="s">
+      <c r="G121" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="H121" t="s">
         <v>29</v>
@@ -8712,19 +9003,19 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" t="s">
         <v>487</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E122" t="s">
+      <c r="G122" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="H122" t="s">
         <v>29</v>
@@ -8744,19 +9035,19 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
+        <v>490</v>
+      </c>
+      <c r="D123" t="s">
+        <v>491</v>
+      </c>
+      <c r="E123" t="s">
         <v>492</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E123" t="s">
+      <c r="G123" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="H123" t="s">
         <v>29</v>
@@ -8776,19 +9067,19 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
+        <v>495</v>
+      </c>
+      <c r="D124" t="s">
+        <v>496</v>
+      </c>
+      <c r="E124" t="s">
         <v>497</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E124" t="s">
+      <c r="G124" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="H124" t="s">
         <v>29</v>
@@ -8808,20 +9099,20 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
+        <v>500</v>
+      </c>
+      <c r="D125" t="s">
+        <v>501</v>
+      </c>
+      <c r="E125" t="s">
         <v>502</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="E125" t="s">
+      <c r="G125" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>506</v>
-      </c>
       <c r="H125" t="s">
         <v>29</v>
       </c>
@@ -8832,7 +9123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" ht="105">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -8840,28 +9131,34 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
+        <v>505</v>
+      </c>
+      <c r="D126" t="s">
+        <v>506</v>
+      </c>
+      <c r="E126" t="s">
         <v>507</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="E126" t="s">
+      <c r="G126" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="H126" t="s">
-        <v>29</v>
-      </c>
-      <c r="I126" t="s">
-        <v>29</v>
+      <c r="H126" s="7">
+        <v>42025</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1245</v>
       </c>
       <c r="L126" t="s">
-        <v>29</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -8872,19 +9169,19 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
+        <v>510</v>
+      </c>
+      <c r="D127" t="s">
+        <v>511</v>
+      </c>
+      <c r="E127" t="s">
         <v>512</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E127" t="s">
+      <c r="G127" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="H127" t="s">
         <v>29</v>
@@ -8904,19 +9201,19 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
+        <v>515</v>
+      </c>
+      <c r="D128" t="s">
+        <v>516</v>
+      </c>
+      <c r="E128" t="s">
         <v>517</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E128" t="s">
+      <c r="G128" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="H128" t="s">
         <v>29</v>
@@ -8936,19 +9233,19 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
+        <v>520</v>
+      </c>
+      <c r="D129" t="s">
+        <v>521</v>
+      </c>
+      <c r="E129" t="s">
         <v>522</v>
       </c>
-      <c r="D129" t="s">
+      <c r="F129" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="E129" t="s">
+      <c r="G129" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="H129" t="s">
         <v>29</v>
@@ -8968,19 +9265,19 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
+        <v>525</v>
+      </c>
+      <c r="D130" t="s">
+        <v>526</v>
+      </c>
+      <c r="E130" t="s">
         <v>527</v>
       </c>
-      <c r="D130" t="s">
+      <c r="F130" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E130" t="s">
+      <c r="G130" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="H130" t="s">
         <v>29</v>
@@ -9000,19 +9297,19 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
+        <v>530</v>
+      </c>
+      <c r="D131" t="s">
+        <v>531</v>
+      </c>
+      <c r="E131" t="s">
         <v>532</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="E131" t="s">
+      <c r="G131" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="H131" t="s">
         <v>29</v>
@@ -9032,16 +9329,16 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
+        <v>535</v>
+      </c>
+      <c r="D132" t="s">
+        <v>536</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D132" t="s">
+      <c r="G132" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="H132" t="s">
         <v>29</v>
@@ -9061,16 +9358,16 @@
         <v>9</v>
       </c>
       <c r="C133" t="s">
+        <v>539</v>
+      </c>
+      <c r="D133" t="s">
+        <v>540</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D133" t="s">
+      <c r="G133" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="H133" t="s">
         <v>29</v>
@@ -9090,16 +9387,16 @@
         <v>9</v>
       </c>
       <c r="C134" t="s">
+        <v>543</v>
+      </c>
+      <c r="D134" t="s">
+        <v>544</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="D134" t="s">
+      <c r="G134" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="H134" t="s">
         <v>29</v>
@@ -9119,16 +9416,16 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
+        <v>547</v>
+      </c>
+      <c r="D135" t="s">
+        <v>548</v>
+      </c>
+      <c r="F135" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D135" t="s">
+      <c r="G135" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="H135" t="s">
         <v>29</v>
@@ -9148,16 +9445,16 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
+        <v>551</v>
+      </c>
+      <c r="D136" t="s">
+        <v>552</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="D136" t="s">
+      <c r="G136" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="H136" t="s">
         <v>29</v>
@@ -9177,16 +9474,16 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
+        <v>555</v>
+      </c>
+      <c r="D137" t="s">
+        <v>556</v>
+      </c>
+      <c r="F137" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="D137" t="s">
+      <c r="G137" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="H137" t="s">
         <v>29</v>
@@ -9206,16 +9503,16 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
+        <v>559</v>
+      </c>
+      <c r="D138" t="s">
+        <v>560</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D138" t="s">
+      <c r="G138" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="H138" t="s">
         <v>29</v>
@@ -9235,16 +9532,16 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
+        <v>563</v>
+      </c>
+      <c r="D139" t="s">
+        <v>564</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="D139" t="s">
+      <c r="G139" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="H139" t="s">
         <v>29</v>
@@ -9264,16 +9561,16 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
+        <v>567</v>
+      </c>
+      <c r="D140" t="s">
+        <v>568</v>
+      </c>
+      <c r="F140" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="D140" t="s">
+      <c r="G140" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="H140" t="s">
         <v>29</v>
@@ -9293,16 +9590,16 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
+        <v>571</v>
+      </c>
+      <c r="D141" t="s">
+        <v>572</v>
+      </c>
+      <c r="F141" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D141" t="s">
+      <c r="G141" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="H141" t="s">
         <v>29</v>
@@ -9322,16 +9619,16 @@
         <v>9</v>
       </c>
       <c r="C142" t="s">
+        <v>575</v>
+      </c>
+      <c r="D142" t="s">
+        <v>576</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="D142" t="s">
+      <c r="G142" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="H142" t="s">
         <v>29</v>
@@ -9351,16 +9648,16 @@
         <v>9</v>
       </c>
       <c r="C143" t="s">
+        <v>579</v>
+      </c>
+      <c r="D143" t="s">
+        <v>580</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D143" t="s">
+      <c r="G143" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="H143" t="s">
         <v>29</v>
@@ -9380,16 +9677,16 @@
         <v>9</v>
       </c>
       <c r="C144" t="s">
+        <v>583</v>
+      </c>
+      <c r="D144" t="s">
+        <v>584</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D144" t="s">
+      <c r="G144" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>588</v>
       </c>
       <c r="H144" t="s">
         <v>29</v>
@@ -9409,16 +9706,16 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
+        <v>587</v>
+      </c>
+      <c r="D145" t="s">
+        <v>588</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="D145" t="s">
+      <c r="G145" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="H145" t="s">
         <v>29</v>
@@ -9438,16 +9735,16 @@
         <v>9</v>
       </c>
       <c r="C146" t="s">
+        <v>591</v>
+      </c>
+      <c r="D146" t="s">
+        <v>592</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="D146" t="s">
+      <c r="G146" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>596</v>
       </c>
       <c r="H146" t="s">
         <v>29</v>
@@ -9467,19 +9764,19 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
+        <v>595</v>
+      </c>
+      <c r="D147" t="s">
+        <v>596</v>
+      </c>
+      <c r="E147" t="s">
         <v>597</v>
       </c>
-      <c r="D147" t="s">
+      <c r="F147" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="H147" t="s">
         <v>29</v>
@@ -9499,19 +9796,19 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
+        <v>600</v>
+      </c>
+      <c r="D148" t="s">
+        <v>601</v>
+      </c>
+      <c r="E148" t="s">
         <v>602</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="E148" t="s">
+      <c r="G148" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="H148" t="s">
         <v>29</v>
@@ -9531,19 +9828,19 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
+        <v>605</v>
+      </c>
+      <c r="D149" t="s">
+        <v>606</v>
+      </c>
+      <c r="E149" t="s">
         <v>607</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="E149" t="s">
+      <c r="G149" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="H149" t="s">
         <v>29</v>
@@ -9563,19 +9860,19 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
+        <v>610</v>
+      </c>
+      <c r="D150" t="s">
+        <v>611</v>
+      </c>
+      <c r="E150" t="s">
         <v>612</v>
       </c>
-      <c r="D150" t="s">
+      <c r="F150" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="E150" t="s">
+      <c r="G150" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="H150" t="s">
         <v>29</v>
@@ -9595,19 +9892,19 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
+        <v>615</v>
+      </c>
+      <c r="D151" t="s">
+        <v>616</v>
+      </c>
+      <c r="E151" t="s">
         <v>617</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E151" t="s">
+      <c r="G151" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="H151" t="s">
         <v>29</v>
@@ -9627,19 +9924,19 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
+        <v>620</v>
+      </c>
+      <c r="D152" t="s">
+        <v>621</v>
+      </c>
+      <c r="E152" t="s">
         <v>622</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="E152" t="s">
+      <c r="G152" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="H152" t="s">
         <v>29</v>
@@ -9659,19 +9956,19 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
+        <v>625</v>
+      </c>
+      <c r="D153" t="s">
+        <v>626</v>
+      </c>
+      <c r="E153" t="s">
         <v>627</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E153" t="s">
+      <c r="G153" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="H153" t="s">
         <v>29</v>
@@ -9691,19 +9988,19 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
+        <v>630</v>
+      </c>
+      <c r="D154" t="s">
+        <v>631</v>
+      </c>
+      <c r="E154" t="s">
         <v>632</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="E154" t="s">
+      <c r="G154" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="H154" t="s">
         <v>29</v>
@@ -9723,19 +10020,19 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
+        <v>635</v>
+      </c>
+      <c r="D155" t="s">
+        <v>636</v>
+      </c>
+      <c r="E155" t="s">
         <v>637</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="E155" t="s">
+      <c r="G155" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="H155" t="s">
         <v>29</v>
@@ -9755,16 +10052,16 @@
         <v>9</v>
       </c>
       <c r="C156" t="s">
+        <v>640</v>
+      </c>
+      <c r="D156" t="s">
+        <v>641</v>
+      </c>
+      <c r="F156" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="D156" t="s">
+      <c r="G156" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="H156" t="s">
         <v>29</v>
@@ -9781,16 +10078,16 @@
         <v>46</v>
       </c>
       <c r="B157" t="s">
+        <v>644</v>
+      </c>
+      <c r="D157" t="s">
+        <v>645</v>
+      </c>
+      <c r="F157" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D157" t="s">
+      <c r="G157" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="H157" t="s">
         <v>29</v>
@@ -9807,16 +10104,16 @@
         <v>46</v>
       </c>
       <c r="B158" t="s">
+        <v>648</v>
+      </c>
+      <c r="D158" t="s">
+        <v>649</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D158" t="s">
+      <c r="G158" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="H158" t="s">
         <v>29</v>
@@ -9833,16 +10130,16 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D159" t="s">
+        <v>652</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="H159" t="s">
         <v>29</v>
@@ -9859,16 +10156,16 @@
         <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D160" t="s">
+        <v>655</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="H160" t="s">
         <v>29</v>
@@ -9885,16 +10182,16 @@
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D161" t="s">
+        <v>658</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G161" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="H161" t="s">
         <v>29</v>
@@ -9911,16 +10208,16 @@
         <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D162" t="s">
+        <v>661</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="G162" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="H162" t="s">
         <v>29</v>
@@ -9937,16 +10234,16 @@
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D163" t="s">
+        <v>664</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="H163" t="s">
         <v>29</v>
@@ -9963,16 +10260,16 @@
         <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D164" t="s">
+        <v>667</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="H164" t="s">
         <v>29</v>
@@ -9989,16 +10286,16 @@
         <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D165" t="s">
+        <v>670</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="H165" t="s">
         <v>29</v>
@@ -10015,16 +10312,16 @@
         <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D166" t="s">
+        <v>673</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="G166" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="H166" t="s">
         <v>29</v>
@@ -10041,16 +10338,16 @@
         <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D167" t="s">
+        <v>676</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G167" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="H167" t="s">
         <v>29</v>
@@ -10067,16 +10364,16 @@
         <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D168" t="s">
+        <v>679</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>683</v>
       </c>
       <c r="H168" t="s">
         <v>29</v>
@@ -10093,16 +10390,16 @@
         <v>46</v>
       </c>
       <c r="B169" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D169" t="s">
+        <v>682</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>684</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="H169" t="s">
         <v>29</v>
@@ -10119,16 +10416,16 @@
         <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D170" t="s">
+        <v>685</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="H170" t="s">
         <v>29</v>
@@ -10145,16 +10442,16 @@
         <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D171" t="s">
+        <v>688</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="G171" s="5" t="s">
         <v>690</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="H171" t="s">
         <v>29</v>
@@ -10171,16 +10468,16 @@
         <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D172" t="s">
+        <v>691</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>695</v>
       </c>
       <c r="H172" t="s">
         <v>29</v>
@@ -10197,16 +10494,16 @@
         <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D173" t="s">
+        <v>694</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>696</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>698</v>
       </c>
       <c r="H173" t="s">
         <v>29</v>
@@ -10223,16 +10520,16 @@
         <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D174" t="s">
+        <v>697</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>701</v>
       </c>
       <c r="H174" t="s">
         <v>29</v>
@@ -10249,16 +10546,16 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
+        <v>700</v>
+      </c>
+      <c r="D175" t="s">
+        <v>701</v>
+      </c>
+      <c r="F175" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="D175" t="s">
+      <c r="G175" s="5" t="s">
         <v>703</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="G175" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="H175" t="s">
         <v>29</v>
@@ -10275,16 +10572,16 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D176" t="s">
+        <v>704</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="G176" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>708</v>
       </c>
       <c r="H176" t="s">
         <v>29</v>
@@ -10301,16 +10598,16 @@
         <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D177" t="s">
+        <v>707</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>711</v>
       </c>
       <c r="H177" t="s">
         <v>29</v>
@@ -10327,16 +10624,16 @@
         <v>46</v>
       </c>
       <c r="B178" t="s">
+        <v>710</v>
+      </c>
+      <c r="D178" t="s">
+        <v>711</v>
+      </c>
+      <c r="F178" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="D178" t="s">
+      <c r="G178" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="H178" t="s">
         <v>29</v>
@@ -10353,16 +10650,16 @@
         <v>46</v>
       </c>
       <c r="B179" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D179" t="s">
+        <v>714</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G179" s="5" t="s">
         <v>716</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="H179" t="s">
         <v>29</v>
@@ -10379,16 +10676,16 @@
         <v>46</v>
       </c>
       <c r="B180" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D180" t="s">
+        <v>717</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="G180" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>721</v>
       </c>
       <c r="H180" t="s">
         <v>29</v>
@@ -10405,16 +10702,16 @@
         <v>46</v>
       </c>
       <c r="B181" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D181" t="s">
+        <v>720</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G181" s="5" t="s">
         <v>722</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="H181" t="s">
         <v>29</v>
@@ -10431,16 +10728,16 @@
         <v>46</v>
       </c>
       <c r="B182" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D182" t="s">
+        <v>723</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G182" s="5" t="s">
         <v>725</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="H182" t="s">
         <v>29</v>
@@ -10457,16 +10754,16 @@
         <v>46</v>
       </c>
       <c r="B183" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D183" t="s">
+        <v>726</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>728</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="H183" t="s">
         <v>29</v>
@@ -10486,13 +10783,13 @@
         <v>5</v>
       </c>
       <c r="D184" t="s">
+        <v>729</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G184" s="5" t="s">
         <v>731</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="H184" t="s">
         <v>29</v>
@@ -10512,13 +10809,13 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
+        <v>732</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="G185" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>736</v>
       </c>
       <c r="H185" t="s">
         <v>29</v>
@@ -10538,13 +10835,13 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
+        <v>735</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>739</v>
       </c>
       <c r="H186" t="s">
         <v>29</v>
@@ -10564,13 +10861,13 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
+        <v>738</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="H187" t="s">
         <v>29</v>
@@ -10590,13 +10887,13 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
+        <v>741</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="G188" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>745</v>
       </c>
       <c r="H188" t="s">
         <v>29</v>
@@ -10610,25 +10907,25 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
+        <v>744</v>
+      </c>
+      <c r="B189" t="s">
+        <v>745</v>
+      </c>
+      <c r="C189" t="s">
         <v>746</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" t="s">
         <v>747</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E189" t="s">
         <v>748</v>
       </c>
-      <c r="D189" t="s">
+      <c r="F189" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="E189" t="s">
+      <c r="G189" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>752</v>
       </c>
       <c r="H189" t="s">
         <v>29</v>
@@ -10648,13 +10945,13 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
+        <v>751</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>753</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>755</v>
       </c>
       <c r="H190" t="s">
         <v>29</v>
@@ -10674,13 +10971,13 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
+        <v>754</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="G191" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>758</v>
       </c>
       <c r="H191" t="s">
         <v>29</v>
@@ -10700,19 +10997,19 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
+        <v>757</v>
+      </c>
+      <c r="D192" t="s">
+        <v>758</v>
+      </c>
+      <c r="E192" t="s">
         <v>759</v>
       </c>
-      <c r="D192" t="s">
+      <c r="F192" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="E192" t="s">
+      <c r="G192" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="H192" t="s">
         <v>29</v>
@@ -10732,19 +11029,19 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
+        <v>762</v>
+      </c>
+      <c r="D193" t="s">
+        <v>763</v>
+      </c>
+      <c r="E193" t="s">
         <v>764</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="E193" t="s">
+      <c r="G193" s="5" t="s">
         <v>766</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>768</v>
       </c>
       <c r="H193" t="s">
         <v>29</v>
@@ -10764,13 +11061,13 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
+        <v>767</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="G194" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>771</v>
       </c>
       <c r="H194" t="s">
         <v>29</v>
@@ -10790,13 +11087,13 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
+        <v>770</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G195" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>774</v>
       </c>
       <c r="H195" t="s">
         <v>29</v>
@@ -10816,13 +11113,13 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
+        <v>773</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>777</v>
       </c>
       <c r="H196" t="s">
         <v>29</v>
@@ -10842,16 +11139,16 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
+        <v>776</v>
+      </c>
+      <c r="D197" t="s">
+        <v>777</v>
+      </c>
+      <c r="F197" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="D197" t="s">
+      <c r="G197" s="5" t="s">
         <v>779</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="H197" t="s">
         <v>29</v>
@@ -10871,16 +11168,16 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
+        <v>780</v>
+      </c>
+      <c r="D198" t="s">
+        <v>781</v>
+      </c>
+      <c r="F198" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="D198" t="s">
+      <c r="G198" s="5" t="s">
         <v>783</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>785</v>
       </c>
       <c r="H198" t="s">
         <v>29</v>
@@ -10900,25 +11197,25 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
+        <v>784</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="G199" s="5" t="s">
         <v>786</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="H199" s="7">
         <v>42020</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="K199" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="L199" t="s">
         <v>29</v>
@@ -10932,25 +11229,25 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="H200" s="7">
         <v>42020</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="K200" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="L200" t="s">
         <v>29</v>
@@ -10958,25 +11255,25 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
+        <v>787</v>
+      </c>
+      <c r="B201" t="s">
+        <v>745</v>
+      </c>
+      <c r="C201" t="s">
+        <v>788</v>
+      </c>
+      <c r="D201" t="s">
         <v>789</v>
       </c>
-      <c r="B201" t="s">
-        <v>747</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="E201" t="s">
+        <v>748</v>
+      </c>
+      <c r="F201" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="D201" t="s">
+      <c r="G201" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="E201" t="s">
-        <v>750</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="H201" t="s">
         <v>29</v>
@@ -10990,25 +11287,25 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B202" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C202" t="s">
+        <v>792</v>
+      </c>
+      <c r="D202" t="s">
+        <v>793</v>
+      </c>
+      <c r="E202" t="s">
+        <v>748</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="D202" t="s">
+      <c r="G202" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="E202" t="s">
-        <v>750</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>797</v>
       </c>
       <c r="H202" t="s">
         <v>29</v>
@@ -11022,25 +11319,25 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B203" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C203" t="s">
+        <v>796</v>
+      </c>
+      <c r="D203" t="s">
+        <v>797</v>
+      </c>
+      <c r="E203" t="s">
+        <v>748</v>
+      </c>
+      <c r="F203" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="D203" t="s">
+      <c r="G203" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="E203" t="s">
-        <v>750</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="H203" t="s">
         <v>29</v>
@@ -11060,13 +11357,13 @@
         <v>5</v>
       </c>
       <c r="D204" t="s">
+        <v>800</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G204" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>804</v>
       </c>
       <c r="H204" t="s">
         <v>29</v>
@@ -11080,25 +11377,25 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B205" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C205" t="s">
+        <v>803</v>
+      </c>
+      <c r="D205" t="s">
+        <v>804</v>
+      </c>
+      <c r="E205" t="s">
+        <v>748</v>
+      </c>
+      <c r="F205" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="D205" t="s">
+      <c r="G205" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="E205" t="s">
-        <v>750</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="H205" t="s">
         <v>29</v>
@@ -11112,25 +11409,25 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B206" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C206" t="s">
+        <v>807</v>
+      </c>
+      <c r="D206" t="s">
+        <v>808</v>
+      </c>
+      <c r="E206" t="s">
+        <v>748</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="D206" t="s">
+      <c r="G206" s="5" t="s">
         <v>810</v>
-      </c>
-      <c r="E206" t="s">
-        <v>750</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>812</v>
       </c>
       <c r="H206" t="s">
         <v>29</v>
@@ -11150,13 +11447,13 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
+        <v>811</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G207" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="H207" t="s">
         <v>29</v>
@@ -11176,13 +11473,13 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
+        <v>814</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G208" s="5" t="s">
         <v>816</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>818</v>
       </c>
       <c r="H208" t="s">
         <v>29</v>
@@ -11196,25 +11493,25 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B209" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C209" t="s">
+        <v>817</v>
+      </c>
+      <c r="D209" t="s">
+        <v>818</v>
+      </c>
+      <c r="E209" t="s">
+        <v>748</v>
+      </c>
+      <c r="F209" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="D209" t="s">
+      <c r="G209" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="E209" t="s">
-        <v>750</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>822</v>
       </c>
       <c r="H209" t="s">
         <v>29</v>
@@ -11234,16 +11531,16 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
+        <v>821</v>
+      </c>
+      <c r="D210" t="s">
+        <v>822</v>
+      </c>
+      <c r="F210" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="D210" t="s">
+      <c r="G210" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>826</v>
       </c>
       <c r="H210" t="s">
         <v>29</v>
@@ -11263,16 +11560,16 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
+        <v>825</v>
+      </c>
+      <c r="D211" t="s">
+        <v>826</v>
+      </c>
+      <c r="F211" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="D211" t="s">
+      <c r="G211" s="5" t="s">
         <v>828</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>830</v>
       </c>
       <c r="H211" t="s">
         <v>29</v>
@@ -11292,13 +11589,13 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
+        <v>829</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G212" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>833</v>
       </c>
       <c r="H212" t="s">
         <v>29</v>
@@ -11318,13 +11615,13 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
+        <v>832</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G213" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>836</v>
       </c>
       <c r="H213" t="s">
         <v>29</v>
@@ -11344,13 +11641,13 @@
         <v>5</v>
       </c>
       <c r="D214" t="s">
+        <v>835</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="H214" t="s">
         <v>29</v>
@@ -11370,16 +11667,16 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
+        <v>838</v>
+      </c>
+      <c r="D215" t="s">
+        <v>839</v>
+      </c>
+      <c r="F215" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="D215" t="s">
+      <c r="G215" s="5" t="s">
         <v>841</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>843</v>
       </c>
       <c r="H215" t="s">
         <v>29</v>
@@ -11399,13 +11696,13 @@
         <v>5</v>
       </c>
       <c r="D216" t="s">
+        <v>842</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="G216" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>846</v>
       </c>
       <c r="H216" t="s">
         <v>29</v>
@@ -11425,13 +11722,13 @@
         <v>5</v>
       </c>
       <c r="D217" t="s">
+        <v>845</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G217" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="H217" t="s">
         <v>29</v>
@@ -11448,16 +11745,16 @@
         <v>46</v>
       </c>
       <c r="B218" t="s">
+        <v>848</v>
+      </c>
+      <c r="D218" t="s">
+        <v>849</v>
+      </c>
+      <c r="F218" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="D218" t="s">
+      <c r="G218" s="5" t="s">
         <v>851</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>853</v>
       </c>
       <c r="H218" t="s">
         <v>29</v>
@@ -11474,16 +11771,16 @@
         <v>46</v>
       </c>
       <c r="B219" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D219" t="s">
+        <v>852</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="G219" s="5" t="s">
         <v>854</v>
-      </c>
-      <c r="F219" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="G219" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="H219" t="s">
         <v>29</v>
@@ -11500,16 +11797,16 @@
         <v>46</v>
       </c>
       <c r="B220" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D220" t="s">
+        <v>855</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="G220" s="5" t="s">
         <v>857</v>
-      </c>
-      <c r="F220" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="G220" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="H220" t="s">
         <v>29</v>
@@ -11526,16 +11823,16 @@
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D221" t="s">
+        <v>858</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="G221" s="5" t="s">
         <v>860</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="G221" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="H221" t="s">
         <v>29</v>
@@ -11552,16 +11849,16 @@
         <v>46</v>
       </c>
       <c r="B222" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D222" t="s">
+        <v>861</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G222" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>865</v>
       </c>
       <c r="H222" t="s">
         <v>29</v>
@@ -11578,16 +11875,16 @@
         <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D223" t="s">
+        <v>864</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="G223" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="F223" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="G223" s="5" t="s">
-        <v>868</v>
       </c>
       <c r="H223" t="s">
         <v>29</v>
@@ -11604,16 +11901,16 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D224" t="s">
+        <v>867</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="G224" s="5" t="s">
         <v>869</v>
-      </c>
-      <c r="F224" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="G224" s="5" t="s">
-        <v>871</v>
       </c>
       <c r="H224" t="s">
         <v>29</v>
@@ -11630,16 +11927,16 @@
         <v>46</v>
       </c>
       <c r="B225" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D225" t="s">
+        <v>870</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="G225" s="5" t="s">
         <v>872</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>874</v>
       </c>
       <c r="H225" t="s">
         <v>29</v>
@@ -11656,16 +11953,16 @@
         <v>46</v>
       </c>
       <c r="B226" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D226" t="s">
+        <v>873</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="G226" s="5" t="s">
         <v>875</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>877</v>
       </c>
       <c r="H226" t="s">
         <v>29</v>
@@ -11682,16 +11979,16 @@
         <v>46</v>
       </c>
       <c r="B227" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D227" t="s">
+        <v>876</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="G227" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="G227" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="H227" t="s">
         <v>29</v>
@@ -11708,16 +12005,16 @@
         <v>46</v>
       </c>
       <c r="B228" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D228" t="s">
+        <v>879</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="G228" s="5" t="s">
         <v>881</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="G228" s="5" t="s">
-        <v>883</v>
       </c>
       <c r="H228" t="s">
         <v>29</v>
@@ -11734,16 +12031,16 @@
         <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D229" t="s">
+        <v>882</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="G229" s="5" t="s">
         <v>884</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>886</v>
       </c>
       <c r="H229" t="s">
         <v>29</v>
@@ -11760,16 +12057,16 @@
         <v>46</v>
       </c>
       <c r="B230" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D230" t="s">
+        <v>885</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="G230" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>889</v>
       </c>
       <c r="H230" t="s">
         <v>29</v>
@@ -11786,16 +12083,16 @@
         <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D231" t="s">
+        <v>888</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="G231" s="5" t="s">
         <v>890</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>892</v>
       </c>
       <c r="H231" t="s">
         <v>29</v>
@@ -11812,16 +12109,16 @@
         <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D232" t="s">
+        <v>891</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G232" s="5" t="s">
         <v>893</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G232" s="5" t="s">
-        <v>895</v>
       </c>
       <c r="H232" t="s">
         <v>29</v>
@@ -11838,16 +12135,16 @@
         <v>46</v>
       </c>
       <c r="B233" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D233" t="s">
+        <v>894</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="G233" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="G233" s="5" t="s">
-        <v>898</v>
       </c>
       <c r="H233" t="s">
         <v>29</v>
@@ -11864,16 +12161,16 @@
         <v>46</v>
       </c>
       <c r="B234" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D234" t="s">
+        <v>897</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="G234" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="G234" s="5" t="s">
-        <v>901</v>
       </c>
       <c r="H234" t="s">
         <v>29</v>
@@ -11890,16 +12187,16 @@
         <v>46</v>
       </c>
       <c r="B235" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D235" t="s">
+        <v>900</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G235" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="G235" s="5" t="s">
-        <v>904</v>
       </c>
       <c r="H235" t="s">
         <v>29</v>
@@ -11916,16 +12213,16 @@
         <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D236" t="s">
+        <v>903</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="G236" s="5" t="s">
         <v>905</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="G236" s="5" t="s">
-        <v>907</v>
       </c>
       <c r="H236" t="s">
         <v>29</v>
@@ -11945,13 +12242,13 @@
         <v>5</v>
       </c>
       <c r="D237" t="s">
+        <v>906</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="G237" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>910</v>
       </c>
       <c r="H237" t="s">
         <v>29</v>
@@ -11971,13 +12268,13 @@
         <v>5</v>
       </c>
       <c r="D238" t="s">
+        <v>909</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="G238" s="5" t="s">
         <v>911</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>913</v>
       </c>
       <c r="H238" t="s">
         <v>29</v>
@@ -11997,16 +12294,16 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
+        <v>912</v>
+      </c>
+      <c r="D239" t="s">
+        <v>913</v>
+      </c>
+      <c r="F239" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="D239" t="s">
+      <c r="G239" s="5" t="s">
         <v>915</v>
-      </c>
-      <c r="F239" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>917</v>
       </c>
       <c r="H239" t="s">
         <v>29</v>
@@ -12026,13 +12323,13 @@
         <v>5</v>
       </c>
       <c r="D240" t="s">
+        <v>916</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="G240" s="5" t="s">
         <v>918</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>920</v>
       </c>
       <c r="H240" t="s">
         <v>29</v>
@@ -12052,16 +12349,16 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
+        <v>919</v>
+      </c>
+      <c r="D241" t="s">
+        <v>920</v>
+      </c>
+      <c r="F241" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="D241" t="s">
+      <c r="G241" s="5" t="s">
         <v>922</v>
-      </c>
-      <c r="F241" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>924</v>
       </c>
       <c r="H241" t="s">
         <v>29</v>
@@ -12081,16 +12378,16 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
+        <v>923</v>
+      </c>
+      <c r="D242" t="s">
+        <v>924</v>
+      </c>
+      <c r="F242" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="D242" t="s">
+      <c r="G242" s="5" t="s">
         <v>926</v>
-      </c>
-      <c r="F242" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>928</v>
       </c>
       <c r="H242" t="s">
         <v>29</v>
@@ -12110,16 +12407,16 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
+        <v>927</v>
+      </c>
+      <c r="D243" t="s">
+        <v>928</v>
+      </c>
+      <c r="F243" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="D243" t="s">
+      <c r="G243" s="5" t="s">
         <v>930</v>
-      </c>
-      <c r="F243" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="G243" s="5" t="s">
-        <v>932</v>
       </c>
       <c r="H243" t="s">
         <v>29</v>
@@ -12139,16 +12436,16 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
+        <v>931</v>
+      </c>
+      <c r="D244" t="s">
+        <v>932</v>
+      </c>
+      <c r="F244" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="D244" t="s">
+      <c r="G244" s="5" t="s">
         <v>934</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>936</v>
       </c>
       <c r="H244" t="s">
         <v>29</v>
@@ -12168,16 +12465,16 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
+        <v>935</v>
+      </c>
+      <c r="D245" t="s">
+        <v>936</v>
+      </c>
+      <c r="F245" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="D245" t="s">
+      <c r="G245" s="5" t="s">
         <v>938</v>
-      </c>
-      <c r="F245" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>940</v>
       </c>
       <c r="H245" t="s">
         <v>29</v>
@@ -12197,13 +12494,13 @@
         <v>5</v>
       </c>
       <c r="D246" t="s">
+        <v>939</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="G246" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>943</v>
       </c>
       <c r="H246" t="s">
         <v>29</v>
@@ -12223,16 +12520,16 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
+        <v>942</v>
+      </c>
+      <c r="D247" t="s">
+        <v>943</v>
+      </c>
+      <c r="F247" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="D247" t="s">
+      <c r="G247" s="5" t="s">
         <v>945</v>
-      </c>
-      <c r="F247" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>947</v>
       </c>
       <c r="H247" t="s">
         <v>29</v>
@@ -12252,13 +12549,13 @@
         <v>5</v>
       </c>
       <c r="D248" t="s">
+        <v>946</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="G248" s="5" t="s">
         <v>948</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="G248" s="5" t="s">
-        <v>950</v>
       </c>
       <c r="H248" t="s">
         <v>29</v>
@@ -12278,16 +12575,16 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
+        <v>949</v>
+      </c>
+      <c r="D249" t="s">
+        <v>950</v>
+      </c>
+      <c r="F249" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="D249" t="s">
+      <c r="G249" s="5" t="s">
         <v>952</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="G249" s="5" t="s">
-        <v>954</v>
       </c>
       <c r="H249" t="s">
         <v>29</v>
@@ -12307,16 +12604,16 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
+        <v>953</v>
+      </c>
+      <c r="D250" t="s">
+        <v>954</v>
+      </c>
+      <c r="F250" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="D250" t="s">
+      <c r="G250" s="5" t="s">
         <v>956</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="G250" s="5" t="s">
-        <v>958</v>
       </c>
       <c r="H250" t="s">
         <v>29</v>
@@ -12336,16 +12633,16 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
+        <v>957</v>
+      </c>
+      <c r="D251" t="s">
+        <v>958</v>
+      </c>
+      <c r="F251" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="D251" t="s">
+      <c r="G251" s="5" t="s">
         <v>960</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="G251" s="5" t="s">
-        <v>962</v>
       </c>
       <c r="H251" t="s">
         <v>29</v>
@@ -12365,16 +12662,16 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
+        <v>961</v>
+      </c>
+      <c r="D252" t="s">
+        <v>962</v>
+      </c>
+      <c r="F252" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="D252" t="s">
+      <c r="G252" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="G252" s="5" t="s">
-        <v>966</v>
       </c>
       <c r="H252" t="s">
         <v>29</v>
@@ -12394,16 +12691,16 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
+        <v>965</v>
+      </c>
+      <c r="D253" t="s">
+        <v>966</v>
+      </c>
+      <c r="F253" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="D253" t="s">
+      <c r="G253" s="5" t="s">
         <v>968</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="G253" s="5" t="s">
-        <v>970</v>
       </c>
       <c r="H253" t="s">
         <v>29</v>
@@ -12423,16 +12720,16 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
+        <v>969</v>
+      </c>
+      <c r="D254" t="s">
+        <v>970</v>
+      </c>
+      <c r="F254" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="D254" t="s">
+      <c r="G254" s="5" t="s">
         <v>972</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="G254" s="5" t="s">
-        <v>974</v>
       </c>
       <c r="H254" t="s">
         <v>29</v>
@@ -12452,16 +12749,16 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
+        <v>973</v>
+      </c>
+      <c r="D255" t="s">
+        <v>974</v>
+      </c>
+      <c r="F255" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="D255" t="s">
+      <c r="G255" s="5" t="s">
         <v>976</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="G255" s="5" t="s">
-        <v>978</v>
       </c>
       <c r="H255" t="s">
         <v>29</v>
@@ -12481,16 +12778,16 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
+        <v>977</v>
+      </c>
+      <c r="D256" t="s">
+        <v>978</v>
+      </c>
+      <c r="F256" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="D256" t="s">
+      <c r="G256" s="5" t="s">
         <v>980</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="H256" t="s">
         <v>29</v>
@@ -12510,16 +12807,16 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
+        <v>981</v>
+      </c>
+      <c r="D257" t="s">
+        <v>982</v>
+      </c>
+      <c r="F257" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="D257" t="s">
+      <c r="G257" s="5" t="s">
         <v>984</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="G257" s="5" t="s">
-        <v>986</v>
       </c>
       <c r="H257" t="s">
         <v>29</v>
@@ -12539,16 +12836,16 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
+        <v>985</v>
+      </c>
+      <c r="D258" t="s">
+        <v>986</v>
+      </c>
+      <c r="F258" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="D258" t="s">
+      <c r="G258" s="5" t="s">
         <v>988</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="G258" s="5" t="s">
-        <v>990</v>
       </c>
       <c r="H258" t="s">
         <v>29</v>
@@ -12568,16 +12865,16 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
+        <v>989</v>
+      </c>
+      <c r="D259" t="s">
+        <v>990</v>
+      </c>
+      <c r="F259" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="D259" t="s">
+      <c r="G259" s="5" t="s">
         <v>992</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="H259" t="s">
         <v>29</v>
@@ -12597,16 +12894,16 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
+        <v>993</v>
+      </c>
+      <c r="D260" t="s">
+        <v>994</v>
+      </c>
+      <c r="F260" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="D260" t="s">
+      <c r="G260" s="5" t="s">
         <v>996</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="G260" s="5" t="s">
-        <v>998</v>
       </c>
       <c r="H260" t="s">
         <v>29</v>
@@ -12626,16 +12923,16 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
+        <v>997</v>
+      </c>
+      <c r="D261" t="s">
+        <v>998</v>
+      </c>
+      <c r="F261" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="D261" t="s">
+      <c r="G261" s="5" t="s">
         <v>1000</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G261" s="5" t="s">
-        <v>1002</v>
       </c>
       <c r="H261" t="s">
         <v>29</v>
@@ -12655,16 +12952,16 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F262" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="D262" t="s">
+      <c r="G262" s="5" t="s">
         <v>1004</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>1006</v>
       </c>
       <c r="H262" t="s">
         <v>29</v>
@@ -12684,16 +12981,16 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F263" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="D263" t="s">
+      <c r="G263" s="5" t="s">
         <v>1008</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G263" s="5" t="s">
-        <v>1010</v>
       </c>
       <c r="H263" t="s">
         <v>29</v>
@@ -12713,16 +13010,16 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F264" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="D264" t="s">
+      <c r="G264" s="5" t="s">
         <v>1012</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>1014</v>
       </c>
       <c r="H264" t="s">
         <v>29</v>
@@ -12736,25 +13033,25 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B265" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C265" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E265" t="s">
+        <v>748</v>
+      </c>
+      <c r="F265" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="D265" t="s">
+      <c r="G265" s="5" t="s">
         <v>1016</v>
-      </c>
-      <c r="E265" t="s">
-        <v>750</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G265" s="5" t="s">
-        <v>1018</v>
       </c>
       <c r="H265" t="s">
         <v>29</v>
@@ -12768,25 +13065,25 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B266" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C266" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E266" t="s">
+        <v>748</v>
+      </c>
+      <c r="F266" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="D266" t="s">
+      <c r="G266" s="5" t="s">
         <v>1020</v>
-      </c>
-      <c r="E266" t="s">
-        <v>750</v>
-      </c>
-      <c r="F266" s="5" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G266" s="5" t="s">
-        <v>1022</v>
       </c>
       <c r="H266" t="s">
         <v>29</v>
@@ -12800,25 +13097,25 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B267" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C267" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E267" t="s">
+        <v>748</v>
+      </c>
+      <c r="F267" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="D267" t="s">
+      <c r="G267" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="E267" t="s">
-        <v>750</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G267" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="H267" t="s">
         <v>29</v>
@@ -12832,25 +13129,25 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B268" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C268" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E268" t="s">
+        <v>748</v>
+      </c>
+      <c r="F268" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="D268" t="s">
+      <c r="G268" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="E268" t="s">
-        <v>750</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G268" s="5" t="s">
-        <v>1030</v>
       </c>
       <c r="H268" t="s">
         <v>29</v>
@@ -12864,25 +13161,25 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B269" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C269" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E269" t="s">
+        <v>748</v>
+      </c>
+      <c r="F269" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="D269" t="s">
+      <c r="G269" s="5" t="s">
         <v>1032</v>
-      </c>
-      <c r="E269" t="s">
-        <v>750</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>1034</v>
       </c>
       <c r="H269" t="s">
         <v>29</v>
@@ -12896,25 +13193,25 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B270" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C270" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E270" t="s">
+        <v>748</v>
+      </c>
+      <c r="F270" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="D270" t="s">
+      <c r="G270" s="5" t="s">
         <v>1036</v>
-      </c>
-      <c r="E270" t="s">
-        <v>750</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G270" s="5" t="s">
-        <v>1038</v>
       </c>
       <c r="H270" t="s">
         <v>29</v>
@@ -12928,25 +13225,25 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B271" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C271" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E271" t="s">
+        <v>748</v>
+      </c>
+      <c r="F271" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="D271" t="s">
+      <c r="G271" s="5" t="s">
         <v>1040</v>
-      </c>
-      <c r="E271" t="s">
-        <v>750</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>1042</v>
       </c>
       <c r="H271" t="s">
         <v>29</v>
@@ -12960,25 +13257,25 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B272" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C272" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E272" t="s">
+        <v>748</v>
+      </c>
+      <c r="F272" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="D272" t="s">
+      <c r="G272" s="5" t="s">
         <v>1044</v>
-      </c>
-      <c r="E272" t="s">
-        <v>750</v>
-      </c>
-      <c r="F272" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G272" s="5" t="s">
-        <v>1046</v>
       </c>
       <c r="H272" t="s">
         <v>29</v>
@@ -12992,25 +13289,25 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B273" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C273" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E273" t="s">
+        <v>748</v>
+      </c>
+      <c r="F273" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="D273" t="s">
+      <c r="G273" s="5" t="s">
         <v>1048</v>
-      </c>
-      <c r="E273" t="s">
-        <v>750</v>
-      </c>
-      <c r="F273" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G273" s="5" t="s">
-        <v>1050</v>
       </c>
       <c r="H273" t="s">
         <v>29</v>
@@ -13024,25 +13321,25 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B274" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C274" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E274" t="s">
+        <v>748</v>
+      </c>
+      <c r="F274" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="D274" t="s">
+      <c r="G274" s="5" t="s">
         <v>1052</v>
-      </c>
-      <c r="E274" t="s">
-        <v>750</v>
-      </c>
-      <c r="F274" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G274" s="5" t="s">
-        <v>1054</v>
       </c>
       <c r="H274" t="s">
         <v>29</v>
@@ -13056,25 +13353,25 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B275" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C275" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E275" t="s">
+        <v>748</v>
+      </c>
+      <c r="F275" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="D275" t="s">
+      <c r="G275" s="5" t="s">
         <v>1056</v>
-      </c>
-      <c r="E275" t="s">
-        <v>750</v>
-      </c>
-      <c r="F275" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G275" s="5" t="s">
-        <v>1058</v>
       </c>
       <c r="H275" t="s">
         <v>29</v>
@@ -13088,25 +13385,25 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B276" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C276" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E276" t="s">
+        <v>748</v>
+      </c>
+      <c r="F276" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="D276" t="s">
+      <c r="G276" s="5" t="s">
         <v>1060</v>
-      </c>
-      <c r="E276" t="s">
-        <v>750</v>
-      </c>
-      <c r="F276" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G276" s="5" t="s">
-        <v>1062</v>
       </c>
       <c r="H276" t="s">
         <v>29</v>
@@ -13126,16 +13423,16 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F277" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="D277" t="s">
+      <c r="G277" s="5" t="s">
         <v>1064</v>
-      </c>
-      <c r="F277" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G277" s="5" t="s">
-        <v>1066</v>
       </c>
       <c r="H277" t="s">
         <v>29</v>
@@ -13155,16 +13452,16 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F278" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="D278" t="s">
+      <c r="G278" s="5" t="s">
         <v>1068</v>
-      </c>
-      <c r="F278" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G278" s="5" t="s">
-        <v>1070</v>
       </c>
       <c r="H278" t="s">
         <v>29</v>
@@ -13184,16 +13481,16 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F279" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="D279" t="s">
+      <c r="G279" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="F279" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G279" s="5" t="s">
-        <v>1074</v>
       </c>
       <c r="H279" t="s">
         <v>29</v>
@@ -13213,16 +13510,16 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F280" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="D280" t="s">
+      <c r="G280" s="5" t="s">
         <v>1076</v>
-      </c>
-      <c r="F280" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G280" s="5" t="s">
-        <v>1078</v>
       </c>
       <c r="H280" t="s">
         <v>29</v>
@@ -13242,16 +13539,16 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F281" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="D281" t="s">
+      <c r="G281" s="5" t="s">
         <v>1080</v>
-      </c>
-      <c r="F281" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G281" s="5" t="s">
-        <v>1082</v>
       </c>
       <c r="H281" t="s">
         <v>29</v>
@@ -13271,16 +13568,16 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F282" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="D282" t="s">
+      <c r="G282" s="5" t="s">
         <v>1084</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G282" s="5" t="s">
-        <v>1086</v>
       </c>
       <c r="H282" t="s">
         <v>29</v>
@@ -13300,16 +13597,16 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F283" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="D283" t="s">
+      <c r="G283" s="5" t="s">
         <v>1088</v>
-      </c>
-      <c r="F283" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G283" s="5" t="s">
-        <v>1090</v>
       </c>
       <c r="H283" t="s">
         <v>29</v>
@@ -13329,16 +13626,16 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F284" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="D284" t="s">
+      <c r="G284" s="5" t="s">
         <v>1092</v>
-      </c>
-      <c r="F284" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G284" s="5" t="s">
-        <v>1094</v>
       </c>
       <c r="H284" t="s">
         <v>29</v>
@@ -13358,16 +13655,16 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F285" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="D285" t="s">
+      <c r="G285" s="5" t="s">
         <v>1096</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G285" s="5" t="s">
-        <v>1098</v>
       </c>
       <c r="H285" t="s">
         <v>29</v>
@@ -13387,16 +13684,16 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F286" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="D286" t="s">
+      <c r="G286" s="5" t="s">
         <v>1100</v>
-      </c>
-      <c r="F286" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G286" s="5" t="s">
-        <v>1102</v>
       </c>
       <c r="H286" t="s">
         <v>29</v>
@@ -13416,16 +13713,16 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F287" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="D287" t="s">
+      <c r="G287" s="5" t="s">
         <v>1104</v>
-      </c>
-      <c r="F287" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G287" s="5" t="s">
-        <v>1106</v>
       </c>
       <c r="H287" t="s">
         <v>29</v>
@@ -13445,16 +13742,16 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F288" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="D288" t="s">
+      <c r="G288" s="5" t="s">
         <v>1108</v>
-      </c>
-      <c r="F288" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G288" s="5" t="s">
-        <v>1110</v>
       </c>
       <c r="H288" t="s">
         <v>29</v>
@@ -13474,16 +13771,16 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F289" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="D289" t="s">
+      <c r="G289" s="5" t="s">
         <v>1112</v>
-      </c>
-      <c r="F289" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G289" s="5" t="s">
-        <v>1114</v>
       </c>
       <c r="H289" t="s">
         <v>29</v>
@@ -13497,25 +13794,25 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B290" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C290" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E290" t="s">
+        <v>748</v>
+      </c>
+      <c r="F290" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="D290" t="s">
+      <c r="G290" s="5" t="s">
         <v>1116</v>
-      </c>
-      <c r="E290" t="s">
-        <v>750</v>
-      </c>
-      <c r="F290" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G290" s="5" t="s">
-        <v>1118</v>
       </c>
       <c r="H290" t="s">
         <v>29</v>
@@ -13535,16 +13832,16 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F291" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="D291" t="s">
+      <c r="G291" s="5" t="s">
         <v>1120</v>
-      </c>
-      <c r="F291" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G291" s="5" t="s">
-        <v>1122</v>
       </c>
       <c r="H291" t="s">
         <v>29</v>
@@ -13564,13 +13861,13 @@
         <v>5</v>
       </c>
       <c r="D292" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G292" s="5" t="s">
         <v>1123</v>
-      </c>
-      <c r="F292" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G292" s="5" t="s">
-        <v>1125</v>
       </c>
       <c r="H292" t="s">
         <v>29</v>
@@ -13590,16 +13887,16 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F293" s="5" t="s">
         <v>1126</v>
       </c>
-      <c r="D293" t="s">
+      <c r="G293" s="5" t="s">
         <v>1127</v>
-      </c>
-      <c r="F293" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G293" s="5" t="s">
-        <v>1129</v>
       </c>
       <c r="H293" t="s">
         <v>29</v>
@@ -13619,16 +13916,16 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F294" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="D294" t="s">
+      <c r="G294" s="5" t="s">
         <v>1131</v>
-      </c>
-      <c r="F294" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G294" s="5" t="s">
-        <v>1133</v>
       </c>
       <c r="H294" t="s">
         <v>29</v>
@@ -13648,16 +13945,16 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F295" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="D295" t="s">
+      <c r="G295" s="5" t="s">
         <v>1135</v>
-      </c>
-      <c r="F295" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G295" s="5" t="s">
-        <v>1137</v>
       </c>
       <c r="H295" t="s">
         <v>29</v>
@@ -13677,16 +13974,16 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F296" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="D296" t="s">
+      <c r="G296" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="F296" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G296" s="5" t="s">
-        <v>1141</v>
       </c>
       <c r="H296" t="s">
         <v>29</v>
@@ -13706,16 +14003,16 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F297" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="D297" t="s">
+      <c r="G297" s="5" t="s">
         <v>1143</v>
-      </c>
-      <c r="F297" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G297" s="5" t="s">
-        <v>1145</v>
       </c>
       <c r="H297" t="s">
         <v>29</v>
@@ -13735,16 +14032,16 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F298" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="D298" t="s">
+      <c r="G298" s="5" t="s">
         <v>1147</v>
-      </c>
-      <c r="F298" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G298" s="5" t="s">
-        <v>1149</v>
       </c>
       <c r="H298" t="s">
         <v>29</v>
@@ -13764,13 +14061,13 @@
         <v>5</v>
       </c>
       <c r="D299" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G299" s="5" t="s">
         <v>1150</v>
-      </c>
-      <c r="F299" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G299" s="5" t="s">
-        <v>1152</v>
       </c>
       <c r="H299" t="s">
         <v>29</v>
@@ -13790,16 +14087,16 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F300" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="D300" t="s">
+      <c r="G300" s="5" t="s">
         <v>1154</v>
-      </c>
-      <c r="F300" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G300" s="5" t="s">
-        <v>1156</v>
       </c>
       <c r="H300" t="s">
         <v>29</v>
@@ -13819,16 +14116,16 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F301" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="D301" t="s">
+      <c r="G301" s="5" t="s">
         <v>1158</v>
-      </c>
-      <c r="F301" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G301" s="5" t="s">
-        <v>1160</v>
       </c>
       <c r="H301" t="s">
         <v>29</v>
@@ -13848,16 +14145,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F302" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="D302" t="s">
+      <c r="G302" s="5" t="s">
         <v>1162</v>
-      </c>
-      <c r="F302" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G302" s="5" t="s">
-        <v>1164</v>
       </c>
       <c r="H302" t="s">
         <v>29</v>
@@ -13877,16 +14174,16 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F303" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="D303" t="s">
+      <c r="G303" s="5" t="s">
         <v>1166</v>
-      </c>
-      <c r="F303" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G303" s="5" t="s">
-        <v>1168</v>
       </c>
       <c r="H303" t="s">
         <v>29</v>
@@ -13900,25 +14197,25 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B304" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C304" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E304" t="s">
+        <v>748</v>
+      </c>
+      <c r="F304" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="D304" t="s">
+      <c r="G304" s="5" t="s">
         <v>1170</v>
-      </c>
-      <c r="E304" t="s">
-        <v>750</v>
-      </c>
-      <c r="F304" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G304" s="5" t="s">
-        <v>1172</v>
       </c>
       <c r="H304" t="s">
         <v>29</v>
@@ -13932,25 +14229,25 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B305" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C305" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E305" t="s">
+        <v>748</v>
+      </c>
+      <c r="F305" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="D305" t="s">
+      <c r="G305" s="5" t="s">
         <v>1174</v>
-      </c>
-      <c r="E305" t="s">
-        <v>750</v>
-      </c>
-      <c r="F305" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G305" s="5" t="s">
-        <v>1176</v>
       </c>
       <c r="H305" t="s">
         <v>29</v>
@@ -13970,16 +14267,16 @@
         <v>9</v>
       </c>
       <c r="C306" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F306" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="D306" t="s">
+      <c r="G306" s="5" t="s">
         <v>1178</v>
-      </c>
-      <c r="F306" s="5" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G306" s="5" t="s">
-        <v>1180</v>
       </c>
       <c r="H306" t="s">
         <v>29</v>
@@ -13999,13 +14296,13 @@
         <v>5</v>
       </c>
       <c r="D307" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G307" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="F307" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G307" s="5" t="s">
-        <v>1183</v>
       </c>
       <c r="H307" t="s">
         <v>29</v>
@@ -14025,16 +14322,16 @@
         <v>9</v>
       </c>
       <c r="C308" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F308" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="D308" t="s">
+      <c r="G308" s="5" t="s">
         <v>1185</v>
-      </c>
-      <c r="F308" s="5" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G308" s="5" t="s">
-        <v>1187</v>
       </c>
       <c r="H308" t="s">
         <v>29</v>
@@ -14048,25 +14345,25 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B309" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C309" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E309" t="s">
+        <v>748</v>
+      </c>
+      <c r="F309" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="D309" t="s">
+      <c r="G309" s="5" t="s">
         <v>1189</v>
-      </c>
-      <c r="E309" t="s">
-        <v>750</v>
-      </c>
-      <c r="F309" s="5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G309" s="5" t="s">
-        <v>1191</v>
       </c>
       <c r="H309" t="s">
         <v>29</v>
@@ -14086,16 +14383,16 @@
         <v>9</v>
       </c>
       <c r="C310" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F310" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="D310" t="s">
+      <c r="G310" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="F310" s="5" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G310" s="5" t="s">
-        <v>1195</v>
       </c>
       <c r="H310" t="s">
         <v>29</v>
@@ -14115,16 +14412,16 @@
         <v>9</v>
       </c>
       <c r="C311" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F311" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="D311" t="s">
+      <c r="G311" s="5" t="s">
         <v>1197</v>
-      </c>
-      <c r="F311" s="5" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G311" s="5" t="s">
-        <v>1199</v>
       </c>
       <c r="H311" t="s">
         <v>29</v>
@@ -14144,16 +14441,16 @@
         <v>9</v>
       </c>
       <c r="C312" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F312" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="D312" t="s">
+      <c r="G312" s="5" t="s">
         <v>1201</v>
-      </c>
-      <c r="F312" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G312" s="5" t="s">
-        <v>1203</v>
       </c>
       <c r="H312" t="s">
         <v>29</v>
@@ -14173,16 +14470,16 @@
         <v>9</v>
       </c>
       <c r="C313" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F313" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="D313" t="s">
+      <c r="G313" s="5" t="s">
         <v>1205</v>
-      </c>
-      <c r="F313" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G313" s="5" t="s">
-        <v>1207</v>
       </c>
       <c r="H313" t="s">
         <v>29</v>
@@ -14202,16 +14499,16 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F314" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="D314" t="s">
+      <c r="G314" s="5" t="s">
         <v>1209</v>
-      </c>
-      <c r="F314" s="5" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G314" s="5" t="s">
-        <v>1211</v>
       </c>
       <c r="H314" t="s">
         <v>29</v>
@@ -14231,16 +14528,16 @@
         <v>9</v>
       </c>
       <c r="C315" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F315" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="D315" t="s">
+      <c r="G315" s="5" t="s">
         <v>1213</v>
-      </c>
-      <c r="F315" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G315" s="5" t="s">
-        <v>1215</v>
       </c>
       <c r="H315" t="s">
         <v>29</v>
@@ -14260,13 +14557,13 @@
         <v>5</v>
       </c>
       <c r="D316" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G316" s="5" t="s">
         <v>1216</v>
-      </c>
-      <c r="F316" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G316" s="5" t="s">
-        <v>1218</v>
       </c>
       <c r="H316" t="s">
         <v>29</v>
@@ -14286,16 +14583,16 @@
         <v>9</v>
       </c>
       <c r="C317" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F317" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="D317" t="s">
+      <c r="G317" s="5" t="s">
         <v>1220</v>
-      </c>
-      <c r="F317" s="5" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G317" s="5" t="s">
-        <v>1222</v>
       </c>
       <c r="H317" t="s">
         <v>29</v>
@@ -14315,13 +14612,13 @@
         <v>5</v>
       </c>
       <c r="D318" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G318" s="5" t="s">
         <v>1223</v>
-      </c>
-      <c r="F318" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G318" s="5" t="s">
-        <v>1225</v>
       </c>
       <c r="H318" t="s">
         <v>29</v>
@@ -14335,25 +14632,25 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B319" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C319" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E319" t="s">
+        <v>748</v>
+      </c>
+      <c r="F319" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="D319" t="s">
+      <c r="G319" s="5" t="s">
         <v>1227</v>
-      </c>
-      <c r="E319" t="s">
-        <v>750</v>
-      </c>
-      <c r="F319" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G319" s="5" t="s">
-        <v>1229</v>
       </c>
       <c r="H319" t="s">
         <v>29</v>
@@ -14367,7 +14664,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B320">
         <v>305</v>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="75" windowWidth="31950" windowHeight="13230"/>
+    <workbookView xWindow="90" yWindow="75" windowWidth="34005" windowHeight="15930"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1413">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4242,6 +4242,72 @@
   </si>
   <si>
     <t>Removed-KC60 fix is same</t>
+  </si>
+  <si>
+    <t>KC-450 rbl added code to fix null pointer error - print notice generation failure for non-employees
+Kuali Fixed all but one of many issues fixed for this JIRA so we have too keep the one other fix.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/institutionalproposal/printing/xmlstream/InstitutionalProposalXmlStream.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/budget/framework/core/BudgetService.java</t>
+  </si>
+  <si>
+    <t>Review-REWORK
+Had to revert commit</t>
+  </si>
+  <si>
+    <t>Merged-DIFFICULT-Had to recode by hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-800 Add Questionnaire to capture Unrecovered F and A information  as a part of this chage we made Source Account Optional in Cost Sharing and Unrecovered F &amp; A therefore for submit to sponsor which creates an IP we need to remove the requirement of this value from IP</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/institutionalproposal/rules/InstitutionalProposalAddCostShareRuleImpl.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-800 Add Questionnaire to capture Unrecovered F and A information as a part of this chage we made Source Account Optional in Cost Sharing and Unrecovered F &amp; A  therefore for submit to sponsor which creates an IP we need to remove the requirement of this value from IP</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/institutionalproposal/rules/InstitutionalProposalUnrecoveredFandARuleImpl.java</t>
+  </si>
+  <si>
+    <t>KC-624 IP advanced search is not working</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/institutionalproposal/service/impl/InstitutionalProposalLookupableHelperServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-454 When Institutional Proposal is Generated from Proposal Development doc, Project Summary field does not appear in the Custom Data tab.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/institutionalproposal/service/impl/InstitutionalProposalServiceImpl.java</t>
+  </si>
+  <si>
+    <t>Merged-need to be hand modified</t>
+  </si>
+  <si>
+    <t>Document locks fix already in new version</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/UhKc/coeus-impl/src/main/java/org/kuali/coeus/sys/impl/workflow/KcDocumentRejectionServiceImpl.java</t>
+  </si>
+  <si>
+    <t>Merged-File Renamed confusing merge, had to had code again</t>
+  </si>
+  <si>
+    <t>Done-Hand Coded Change again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-396 - Proposal opens in edit mode during routing when ad-hoc recipient is added, status automatically changes to "revisions requested" </t>
+  </si>
+  <si>
+    <t>KC-629 Performance issue with routing
+Technically we don't need this but if we every use a role based node again we should have it in place.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/unit/UnitHierarchyRoleTypeServiceImpl.java</t>
   </si>
 </sst>
 </file>
@@ -5090,10 +5156,10 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="E76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5146,14 +5212,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
         <v>1234</v>
       </c>
       <c r="I6">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5169,7 +5235,7 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>0.7321428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="H7" t="s">
         <v>1235</v>
@@ -5199,7 +5265,7 @@
       </c>
       <c r="I8">
         <f>COUNTIF(I13:I400,"Removed*")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5238,7 +5304,7 @@
       </c>
       <c r="I10">
         <f>SUM(I6:I9)</f>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7134,14 +7200,14 @@
       <c r="H67" s="7">
         <v>42019</v>
       </c>
-      <c r="I67" s="5" t="s">
-        <v>1379</v>
+      <c r="I67" s="3" t="s">
+        <v>1395</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>1350</v>
       </c>
       <c r="K67" t="s">
-        <v>1245</v>
+        <v>1394</v>
       </c>
       <c r="L67" t="s">
         <v>1245</v>
@@ -7328,7 +7394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" ht="30">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -7480,7 +7546,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" ht="60">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7594,7 +7660,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" ht="30">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -7667,7 +7733,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" ht="30">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -7740,7 +7806,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" ht="30">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -7778,7 +7844,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" ht="30">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -7816,7 +7882,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" ht="105">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -7838,17 +7904,23 @@
       <c r="G86" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H86" t="s">
-        <v>29</v>
-      </c>
-      <c r="I86" t="s">
-        <v>29</v>
+      <c r="H86" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1393</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" ht="135">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -7870,17 +7942,23 @@
       <c r="G87" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="H87" t="s">
-        <v>29</v>
-      </c>
-      <c r="I87" t="s">
-        <v>29</v>
+      <c r="H87" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1398</v>
       </c>
       <c r="L87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="135">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7902,17 +7980,23 @@
       <c r="G88" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H88" t="s">
-        <v>29</v>
-      </c>
-      <c r="I88" t="s">
-        <v>29</v>
+      <c r="H88" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1400</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="30">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -7934,17 +8018,23 @@
       <c r="G89" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H89" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" t="s">
-        <v>29</v>
+      <c r="H89" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1402</v>
       </c>
       <c r="L89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="75">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -7966,17 +8056,23 @@
       <c r="G90" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H90" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" t="s">
-        <v>29</v>
-      </c>
-      <c r="L90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="H90" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -7998,17 +8094,23 @@
       <c r="G91" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="H91" t="s">
-        <v>29</v>
-      </c>
-      <c r="I91" t="s">
-        <v>29</v>
-      </c>
-      <c r="L91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="H91" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="75">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -8027,17 +8129,23 @@
       <c r="G92" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" t="s">
-        <v>29</v>
-      </c>
-      <c r="L92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="H92" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="90">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -8059,14 +8167,20 @@
       <c r="G93" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H93" t="s">
-        <v>29</v>
-      </c>
-      <c r="I93" t="s">
-        <v>29</v>
-      </c>
-      <c r="L93" t="s">
-        <v>29</v>
+      <c r="H93" s="7">
+        <v>42030</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1412</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -8395,7 +8509,7 @@
         <v>29</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>1378</v>
       </c>
       <c r="L103" t="s">
         <v>29</v>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1420">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4308,6 +4308,27 @@
   </si>
   <si>
     <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/unit/UnitHierarchyRoleTypeServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-845 Editing a questionnaire breaks KRMS rules that use it (KRACOEUS-7230)</t>
+  </si>
+  <si>
+    <t>Merged - This was a KC5.2 fix but KC 6.0 redesigned it a little and got it wrong so I had to code a new fix which matches the correct logic</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/questionnaire/impl/QuestionResolver.java</t>
+  </si>
+  <si>
+    <t>KC-628 BEGIN if the s2sSubmissionTypeCode is blank then default it to Application to prevent validation tab cut off issue</t>
+  </si>
+  <si>
+    <t>Merged-Needed by hand adjustment</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/s2s/S2sOpportunityLookupableHelperServiceImpl.java</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -5156,10 +5177,10 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="F91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5167,7 +5188,7 @@
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="6" max="7" width="31.140625" style="5"/>
-    <col min="10" max="10" width="31.140625" style="3"/>
+    <col min="9" max="10" width="31.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5212,14 +5233,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
         <v>1234</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5235,12 +5256,12 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>0.8125</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="H7" t="s">
         <v>1235</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f>COUNTIF(I13:I400,"Keep*")</f>
         <v>33</v>
       </c>
@@ -5263,7 +5284,7 @@
       <c r="H8" t="s">
         <v>1378</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
         <v>18</v>
       </c>
@@ -5286,7 +5307,7 @@
       <c r="H9" t="s">
         <v>1365</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
         <v>8</v>
       </c>
@@ -5302,9 +5323,9 @@
       <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5341,7 +5362,7 @@
       <c r="H12" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>1242</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -5379,7 +5400,7 @@
       <c r="H13" s="7">
         <v>42013</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>1230</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -5417,7 +5438,7 @@
       <c r="H14" s="7">
         <v>42013</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -5455,7 +5476,7 @@
       <c r="H15" s="7">
         <v>42016</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -5493,7 +5514,7 @@
       <c r="H16" s="7">
         <v>42016</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -5525,7 +5546,7 @@
       <c r="H17" s="7">
         <v>42016</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -5557,7 +5578,7 @@
       <c r="H18" s="7">
         <v>42016</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -5589,7 +5610,7 @@
       <c r="H19" s="7">
         <v>42016</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -5621,7 +5642,7 @@
       <c r="H20" s="7">
         <v>42016</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -5653,7 +5674,7 @@
       <c r="H21" s="7">
         <v>42016</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -5685,7 +5706,7 @@
       <c r="H22" s="7">
         <v>42016</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -5714,7 +5735,7 @@
       <c r="H23" s="7">
         <v>42016</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -5746,7 +5767,7 @@
       <c r="H24" s="7">
         <v>42016</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -5778,7 +5799,7 @@
       <c r="H25" s="7">
         <v>42016</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -5810,7 +5831,7 @@
       <c r="H26" s="7">
         <v>42016</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -5842,7 +5863,7 @@
       <c r="H27" s="7">
         <v>42016</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="3" t="s">
         <v>1230</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -5874,7 +5895,7 @@
       <c r="H28" s="7">
         <v>42016</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -5906,7 +5927,7 @@
       <c r="H29" s="7">
         <v>42016</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -5938,7 +5959,7 @@
       <c r="H30" s="7">
         <v>42016</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -5970,7 +5991,7 @@
       <c r="H31" s="7">
         <v>42016</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>1319</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -6034,7 +6055,7 @@
       <c r="H33" s="7">
         <v>42016</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -6066,7 +6087,7 @@
       <c r="H34" s="7">
         <v>42016</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -6098,7 +6119,7 @@
       <c r="H35" s="7">
         <v>42016</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -6130,7 +6151,7 @@
       <c r="H36" s="7">
         <v>42016</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -6162,7 +6183,7 @@
       <c r="H37" s="7">
         <v>42016</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -6194,7 +6215,7 @@
       <c r="H38" s="7">
         <v>42016</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -6226,7 +6247,7 @@
       <c r="H39" s="7">
         <v>42016</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -6258,7 +6279,7 @@
       <c r="H40" s="7">
         <v>42016</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -6290,7 +6311,7 @@
       <c r="H41" s="7">
         <v>42016</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -6322,7 +6343,7 @@
       <c r="H42" s="7">
         <v>42016</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -6354,7 +6375,7 @@
       <c r="H43" s="7">
         <v>42016</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -6386,7 +6407,7 @@
       <c r="H44" s="7">
         <v>42016</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -6418,7 +6439,7 @@
       <c r="H45" s="7">
         <v>42016</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -6450,7 +6471,7 @@
       <c r="H46" s="7">
         <v>42016</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -6482,7 +6503,7 @@
       <c r="H47" s="7">
         <v>42016</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -6514,7 +6535,7 @@
       <c r="H48" s="7">
         <v>42016</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -6546,7 +6567,7 @@
       <c r="H49" s="7">
         <v>42016</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -6578,7 +6599,7 @@
       <c r="H50" s="7">
         <v>42016</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -6610,7 +6631,7 @@
       <c r="H51" s="7">
         <v>42016</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J51" s="3" t="s">
@@ -6642,7 +6663,7 @@
       <c r="H52" s="7">
         <v>42016</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -6674,7 +6695,7 @@
       <c r="H53" s="7">
         <v>42016</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -6706,7 +6727,7 @@
       <c r="H54" s="7">
         <v>42016</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -6744,7 +6765,7 @@
       <c r="H55" s="7">
         <v>42016</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -6782,7 +6803,7 @@
       <c r="H56" s="7">
         <v>42016</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -6820,7 +6841,7 @@
       <c r="H57" s="7">
         <v>42018</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -6858,7 +6879,7 @@
       <c r="H58" s="7">
         <v>42019</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -6896,7 +6917,7 @@
       <c r="H59" s="7">
         <v>42019</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -6934,7 +6955,7 @@
       <c r="H60" s="7">
         <v>42019</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -6972,7 +6993,7 @@
       <c r="H61" s="7">
         <v>42019</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -7010,7 +7031,7 @@
       <c r="H62" s="7">
         <v>42019</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -7048,7 +7069,7 @@
       <c r="H63" s="7">
         <v>42019</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J63" s="3" t="s">
@@ -7086,7 +7107,7 @@
       <c r="H64" s="7">
         <v>42019</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -7124,7 +7145,7 @@
       <c r="H65" s="7">
         <v>42019</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -7162,7 +7183,7 @@
       <c r="H66" s="7">
         <v>42017</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J66" t="s">
@@ -7273,7 +7294,7 @@
       <c r="H69" s="7">
         <v>42025</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J69" s="3" t="s">
@@ -7311,7 +7332,7 @@
       <c r="H70" s="7">
         <v>42025</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J70" s="3" t="s">
@@ -7346,7 +7367,7 @@
       <c r="H71" s="7">
         <v>42025</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="3" t="s">
         <v>1371</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -7384,7 +7405,7 @@
       <c r="H72" s="7">
         <v>42026</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="3" t="s">
         <v>1367</v>
       </c>
       <c r="J72" s="3" t="s">
@@ -7419,7 +7440,7 @@
       <c r="H73" s="7">
         <v>42026</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="3" t="s">
         <v>1371</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -7457,7 +7478,7 @@
       <c r="H74" s="7">
         <v>42025</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="3" t="s">
         <v>1379</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -7495,7 +7516,7 @@
       <c r="H75" s="7">
         <v>42026</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="3" t="s">
         <v>1369</v>
       </c>
       <c r="J75" s="3" t="s">
@@ -7533,7 +7554,7 @@
       <c r="H76" s="7">
         <v>42026</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="3" t="s">
         <v>1369</v>
       </c>
       <c r="J76" s="3" t="s">
@@ -7546,7 +7567,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="60">
+    <row r="77" spans="1:12" ht="75">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7571,7 +7592,7 @@
       <c r="H77" s="7">
         <v>42026</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="3" t="s">
         <v>1373</v>
       </c>
       <c r="J77" s="3" t="s">
@@ -7609,7 +7630,7 @@
       <c r="H78" s="7">
         <v>42026</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J78" s="3" t="s">
@@ -7647,7 +7668,7 @@
       <c r="H79" s="7">
         <v>42026</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="3" t="s">
         <v>1369</v>
       </c>
       <c r="J79" s="3" t="s">
@@ -7660,7 +7681,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="30">
+    <row r="80" spans="1:12" ht="45">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -7682,7 +7703,7 @@
       <c r="H80" s="7">
         <v>42026</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="3" t="s">
         <v>1382</v>
       </c>
       <c r="J80" s="3" t="s">
@@ -7720,7 +7741,7 @@
       <c r="H81" s="7">
         <v>42026</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="J81" s="3" t="s">
@@ -7733,7 +7754,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="30">
+    <row r="82" spans="1:12" ht="45">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -7755,7 +7776,7 @@
       <c r="H82" s="7">
         <v>42026</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="3" t="s">
         <v>1386</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -7793,7 +7814,7 @@
       <c r="H83" s="7">
         <v>42026</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J83" s="3" t="s">
@@ -7831,7 +7852,7 @@
       <c r="H84" s="7">
         <v>42026</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J84" s="3" t="s">
@@ -7869,7 +7890,7 @@
       <c r="H85" s="7">
         <v>42026</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="3" t="s">
         <v>1391</v>
       </c>
       <c r="J85" s="3" t="s">
@@ -7907,7 +7928,7 @@
       <c r="H86" s="7">
         <v>42030</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I86" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="J86" s="3" t="s">
@@ -7945,7 +7966,7 @@
       <c r="H87" s="7">
         <v>42030</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J87" s="3" t="s">
@@ -7983,7 +8004,7 @@
       <c r="H88" s="7">
         <v>42030</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I88" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J88" s="3" t="s">
@@ -8021,7 +8042,7 @@
       <c r="H89" s="7">
         <v>42030</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J89" s="3" t="s">
@@ -8059,7 +8080,7 @@
       <c r="H90" s="7">
         <v>42030</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I90" s="3" t="s">
         <v>1405</v>
       </c>
       <c r="J90" s="3" t="s">
@@ -8097,7 +8118,7 @@
       <c r="H91" s="7">
         <v>42030</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -8132,7 +8153,7 @@
       <c r="H92" s="7">
         <v>42030</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I92" s="3" t="s">
         <v>1408</v>
       </c>
       <c r="J92" s="3" t="s">
@@ -8170,7 +8191,7 @@
       <c r="H93" s="7">
         <v>42030</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J93" s="3" t="s">
@@ -8183,7 +8204,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="75">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -8205,17 +8226,23 @@
       <c r="G94" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H94" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" t="s">
-        <v>29</v>
-      </c>
-      <c r="L94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="H94" s="7">
+        <v>42031</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="75">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -8237,14 +8264,20 @@
       <c r="G95" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="H95" t="s">
-        <v>29</v>
-      </c>
-      <c r="I95" t="s">
-        <v>29</v>
-      </c>
-      <c r="L95" t="s">
-        <v>29</v>
+      <c r="H95" s="7">
+        <v>42031</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -8272,7 +8305,7 @@
       <c r="H96" t="s">
         <v>29</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L96" t="s">
@@ -8304,7 +8337,7 @@
       <c r="H97" t="s">
         <v>29</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L97" t="s">
@@ -8336,7 +8369,7 @@
       <c r="H98" t="s">
         <v>29</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L98" t="s">
@@ -8368,7 +8401,7 @@
       <c r="H99" t="s">
         <v>29</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L99" t="s">
@@ -8400,7 +8433,7 @@
       <c r="H100" t="s">
         <v>29</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L100" t="s">
@@ -8432,7 +8465,7 @@
       <c r="H101" s="7">
         <v>42017</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J101" s="3" t="s">
@@ -8470,7 +8503,7 @@
       <c r="H102" s="7">
         <v>42017</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="I102" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J102" s="3" t="s">
@@ -8508,7 +8541,7 @@
       <c r="H103" t="s">
         <v>29</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="L103" t="s">
@@ -8540,7 +8573,7 @@
       <c r="H104" t="s">
         <v>29</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L104" t="s">
@@ -8572,7 +8605,7 @@
       <c r="H105" t="s">
         <v>29</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L105" t="s">
@@ -8604,7 +8637,7 @@
       <c r="H106" t="s">
         <v>29</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L106" t="s">
@@ -8636,7 +8669,7 @@
       <c r="H107" t="s">
         <v>29</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L107" t="s">
@@ -8668,7 +8701,7 @@
       <c r="H108" t="s">
         <v>29</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L108" t="s">
@@ -8697,7 +8730,7 @@
       <c r="H109" t="s">
         <v>29</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L109" t="s">
@@ -8729,7 +8762,7 @@
       <c r="H110" s="7">
         <v>42017</v>
       </c>
-      <c r="I110" s="5" t="s">
+      <c r="I110" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J110" s="3" t="s">
@@ -8767,7 +8800,7 @@
       <c r="H111" s="7">
         <v>42025</v>
       </c>
-      <c r="I111" s="5" t="s">
+      <c r="I111" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -8802,7 +8835,7 @@
       <c r="H112" s="7">
         <v>42025</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="I112" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J112" s="3" t="s">
@@ -8840,7 +8873,7 @@
       <c r="H113" s="7">
         <v>41660</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="I113" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J113" s="3" t="s">
@@ -8878,7 +8911,7 @@
       <c r="H114" t="s">
         <v>29</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L114" t="s">
@@ -8910,7 +8943,7 @@
       <c r="H115" t="s">
         <v>29</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L115" t="s">
@@ -8942,7 +8975,7 @@
       <c r="H116" t="s">
         <v>29</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L116" t="s">
@@ -8974,7 +9007,7 @@
       <c r="H117" t="s">
         <v>29</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L117" t="s">
@@ -9006,7 +9039,7 @@
       <c r="H118" t="s">
         <v>29</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L118" t="s">
@@ -9038,7 +9071,7 @@
       <c r="H119" t="s">
         <v>29</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L119" t="s">
@@ -9070,7 +9103,7 @@
       <c r="H120" t="s">
         <v>29</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L120" t="s">
@@ -9102,7 +9135,7 @@
       <c r="H121" t="s">
         <v>29</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L121" t="s">
@@ -9134,7 +9167,7 @@
       <c r="H122" t="s">
         <v>29</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L122" t="s">
@@ -9166,7 +9199,7 @@
       <c r="H123" t="s">
         <v>29</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L123" t="s">
@@ -9198,7 +9231,7 @@
       <c r="H124" t="s">
         <v>29</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L124" t="s">
@@ -9230,7 +9263,7 @@
       <c r="H125" t="s">
         <v>29</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L125" t="s">
@@ -9300,7 +9333,7 @@
       <c r="H127" t="s">
         <v>29</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L127" t="s">
@@ -9332,7 +9365,7 @@
       <c r="H128" t="s">
         <v>29</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L128" t="s">
@@ -9364,7 +9397,7 @@
       <c r="H129" t="s">
         <v>29</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L129" t="s">
@@ -9396,7 +9429,7 @@
       <c r="H130" t="s">
         <v>29</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L130" t="s">
@@ -9428,7 +9461,7 @@
       <c r="H131" t="s">
         <v>29</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L131" t="s">
@@ -9457,7 +9490,7 @@
       <c r="H132" t="s">
         <v>29</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L132" t="s">
@@ -9486,7 +9519,7 @@
       <c r="H133" t="s">
         <v>29</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L133" t="s">
@@ -9515,7 +9548,7 @@
       <c r="H134" t="s">
         <v>29</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L134" t="s">
@@ -9544,7 +9577,7 @@
       <c r="H135" t="s">
         <v>29</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L135" t="s">
@@ -9573,7 +9606,7 @@
       <c r="H136" t="s">
         <v>29</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L136" t="s">
@@ -9602,7 +9635,7 @@
       <c r="H137" t="s">
         <v>29</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L137" t="s">
@@ -9631,7 +9664,7 @@
       <c r="H138" t="s">
         <v>29</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L138" t="s">
@@ -9660,7 +9693,7 @@
       <c r="H139" t="s">
         <v>29</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L139" t="s">
@@ -9689,7 +9722,7 @@
       <c r="H140" t="s">
         <v>29</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L140" t="s">
@@ -9718,7 +9751,7 @@
       <c r="H141" t="s">
         <v>29</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L141" t="s">
@@ -9747,7 +9780,7 @@
       <c r="H142" t="s">
         <v>29</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L142" t="s">
@@ -9776,7 +9809,7 @@
       <c r="H143" t="s">
         <v>29</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L143" t="s">
@@ -9805,7 +9838,7 @@
       <c r="H144" t="s">
         <v>29</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L144" t="s">
@@ -9834,7 +9867,7 @@
       <c r="H145" t="s">
         <v>29</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L145" t="s">
@@ -9863,7 +9896,7 @@
       <c r="H146" t="s">
         <v>29</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L146" t="s">
@@ -9895,7 +9928,7 @@
       <c r="H147" t="s">
         <v>29</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L147" t="s">
@@ -9927,7 +9960,7 @@
       <c r="H148" t="s">
         <v>29</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L148" t="s">
@@ -9959,7 +9992,7 @@
       <c r="H149" t="s">
         <v>29</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L149" t="s">
@@ -9991,7 +10024,7 @@
       <c r="H150" t="s">
         <v>29</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L150" t="s">
@@ -10023,7 +10056,7 @@
       <c r="H151" t="s">
         <v>29</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L151" t="s">
@@ -10055,7 +10088,7 @@
       <c r="H152" t="s">
         <v>29</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L152" t="s">
@@ -10087,7 +10120,7 @@
       <c r="H153" t="s">
         <v>29</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L153" t="s">
@@ -10119,7 +10152,7 @@
       <c r="H154" t="s">
         <v>29</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L154" t="s">
@@ -10151,7 +10184,7 @@
       <c r="H155" t="s">
         <v>29</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L155" t="s">
@@ -10180,7 +10213,7 @@
       <c r="H156" t="s">
         <v>29</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L156" t="s">
@@ -10206,7 +10239,7 @@
       <c r="H157" t="s">
         <v>29</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L157" t="s">
@@ -10232,7 +10265,7 @@
       <c r="H158" t="s">
         <v>29</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L158" t="s">
@@ -10258,7 +10291,7 @@
       <c r="H159" t="s">
         <v>29</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L159" t="s">
@@ -10284,7 +10317,7 @@
       <c r="H160" t="s">
         <v>29</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L160" t="s">
@@ -10310,7 +10343,7 @@
       <c r="H161" t="s">
         <v>29</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L161" t="s">
@@ -10336,7 +10369,7 @@
       <c r="H162" t="s">
         <v>29</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L162" t="s">
@@ -10362,7 +10395,7 @@
       <c r="H163" t="s">
         <v>29</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L163" t="s">
@@ -10388,7 +10421,7 @@
       <c r="H164" t="s">
         <v>29</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L164" t="s">
@@ -10414,7 +10447,7 @@
       <c r="H165" t="s">
         <v>29</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L165" t="s">
@@ -10440,7 +10473,7 @@
       <c r="H166" t="s">
         <v>29</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L166" t="s">
@@ -10466,7 +10499,7 @@
       <c r="H167" t="s">
         <v>29</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L167" t="s">
@@ -10492,7 +10525,7 @@
       <c r="H168" t="s">
         <v>29</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L168" t="s">
@@ -10518,7 +10551,7 @@
       <c r="H169" t="s">
         <v>29</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L169" t="s">
@@ -10544,7 +10577,7 @@
       <c r="H170" t="s">
         <v>29</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L170" t="s">
@@ -10570,7 +10603,7 @@
       <c r="H171" t="s">
         <v>29</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L171" t="s">
@@ -10596,7 +10629,7 @@
       <c r="H172" t="s">
         <v>29</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L172" t="s">
@@ -10622,7 +10655,7 @@
       <c r="H173" t="s">
         <v>29</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L173" t="s">
@@ -10648,7 +10681,7 @@
       <c r="H174" t="s">
         <v>29</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L174" t="s">
@@ -10674,7 +10707,7 @@
       <c r="H175" t="s">
         <v>29</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L175" t="s">
@@ -10700,7 +10733,7 @@
       <c r="H176" t="s">
         <v>29</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L176" t="s">
@@ -10726,7 +10759,7 @@
       <c r="H177" t="s">
         <v>29</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L177" t="s">
@@ -10752,7 +10785,7 @@
       <c r="H178" t="s">
         <v>29</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L178" t="s">
@@ -10778,7 +10811,7 @@
       <c r="H179" t="s">
         <v>29</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L179" t="s">
@@ -10804,7 +10837,7 @@
       <c r="H180" t="s">
         <v>29</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L180" t="s">
@@ -10830,7 +10863,7 @@
       <c r="H181" t="s">
         <v>29</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L181" t="s">
@@ -10856,7 +10889,7 @@
       <c r="H182" t="s">
         <v>29</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L182" t="s">
@@ -10882,7 +10915,7 @@
       <c r="H183" t="s">
         <v>29</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L183" t="s">
@@ -10908,7 +10941,7 @@
       <c r="H184" t="s">
         <v>29</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L184" t="s">
@@ -10934,7 +10967,7 @@
       <c r="H185" t="s">
         <v>29</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L185" t="s">
@@ -10960,7 +10993,7 @@
       <c r="H186" t="s">
         <v>29</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L186" t="s">
@@ -10986,7 +11019,7 @@
       <c r="H187" t="s">
         <v>29</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L187" t="s">
@@ -11012,7 +11045,7 @@
       <c r="H188" t="s">
         <v>29</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L188" t="s">
@@ -11044,7 +11077,7 @@
       <c r="H189" t="s">
         <v>29</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L189" t="s">
@@ -11070,7 +11103,7 @@
       <c r="H190" t="s">
         <v>29</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L190" t="s">
@@ -11096,7 +11129,7 @@
       <c r="H191" t="s">
         <v>29</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L191" t="s">
@@ -11128,7 +11161,7 @@
       <c r="H192" t="s">
         <v>29</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L192" t="s">
@@ -11160,7 +11193,7 @@
       <c r="H193" t="s">
         <v>29</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L193" t="s">
@@ -11186,7 +11219,7 @@
       <c r="H194" t="s">
         <v>29</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L194" t="s">
@@ -11212,7 +11245,7 @@
       <c r="H195" t="s">
         <v>29</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L195" t="s">
@@ -11238,7 +11271,7 @@
       <c r="H196" t="s">
         <v>29</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L196" t="s">
@@ -11267,7 +11300,7 @@
       <c r="H197" t="s">
         <v>29</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L197" t="s">
@@ -11296,7 +11329,7 @@
       <c r="H198" t="s">
         <v>29</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L198" t="s">
@@ -11322,7 +11355,7 @@
       <c r="H199" s="7">
         <v>42020</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="I199" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J199" s="3" t="s">
@@ -11354,7 +11387,7 @@
       <c r="H200" s="7">
         <v>42020</v>
       </c>
-      <c r="I200" s="5" t="s">
+      <c r="I200" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="J200" s="3" t="s">
@@ -11392,7 +11425,7 @@
       <c r="H201" t="s">
         <v>29</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L201" t="s">
@@ -11424,7 +11457,7 @@
       <c r="H202" t="s">
         <v>29</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L202" t="s">
@@ -11456,7 +11489,7 @@
       <c r="H203" t="s">
         <v>29</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L203" t="s">
@@ -11482,7 +11515,7 @@
       <c r="H204" t="s">
         <v>29</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L204" t="s">
@@ -11514,7 +11547,7 @@
       <c r="H205" t="s">
         <v>29</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L205" t="s">
@@ -11546,7 +11579,7 @@
       <c r="H206" t="s">
         <v>29</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L206" t="s">
@@ -11572,7 +11605,7 @@
       <c r="H207" t="s">
         <v>29</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L207" t="s">
@@ -11598,7 +11631,7 @@
       <c r="H208" t="s">
         <v>29</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L208" t="s">
@@ -11630,7 +11663,7 @@
       <c r="H209" t="s">
         <v>29</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L209" t="s">
@@ -11659,7 +11692,7 @@
       <c r="H210" t="s">
         <v>29</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L210" t="s">
@@ -11688,7 +11721,7 @@
       <c r="H211" t="s">
         <v>29</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I211" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L211" t="s">
@@ -11714,7 +11747,7 @@
       <c r="H212" t="s">
         <v>29</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L212" t="s">
@@ -11740,7 +11773,7 @@
       <c r="H213" t="s">
         <v>29</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L213" t="s">
@@ -11766,7 +11799,7 @@
       <c r="H214" t="s">
         <v>29</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L214" t="s">
@@ -11795,7 +11828,7 @@
       <c r="H215" t="s">
         <v>29</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I215" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L215" t="s">
@@ -11821,7 +11854,7 @@
       <c r="H216" t="s">
         <v>29</v>
       </c>
-      <c r="I216" t="s">
+      <c r="I216" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L216" t="s">
@@ -11847,7 +11880,7 @@
       <c r="H217" t="s">
         <v>29</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I217" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L217" t="s">
@@ -11873,7 +11906,7 @@
       <c r="H218" t="s">
         <v>29</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I218" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L218" t="s">
@@ -11899,7 +11932,7 @@
       <c r="H219" t="s">
         <v>29</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L219" t="s">
@@ -11925,7 +11958,7 @@
       <c r="H220" t="s">
         <v>29</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L220" t="s">
@@ -11951,7 +11984,7 @@
       <c r="H221" t="s">
         <v>29</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L221" t="s">
@@ -11977,7 +12010,7 @@
       <c r="H222" t="s">
         <v>29</v>
       </c>
-      <c r="I222" t="s">
+      <c r="I222" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L222" t="s">
@@ -12003,7 +12036,7 @@
       <c r="H223" t="s">
         <v>29</v>
       </c>
-      <c r="I223" t="s">
+      <c r="I223" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L223" t="s">
@@ -12029,7 +12062,7 @@
       <c r="H224" t="s">
         <v>29</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I224" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L224" t="s">
@@ -12055,7 +12088,7 @@
       <c r="H225" t="s">
         <v>29</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I225" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L225" t="s">
@@ -12081,7 +12114,7 @@
       <c r="H226" t="s">
         <v>29</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I226" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L226" t="s">
@@ -12107,7 +12140,7 @@
       <c r="H227" t="s">
         <v>29</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I227" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L227" t="s">
@@ -12133,7 +12166,7 @@
       <c r="H228" t="s">
         <v>29</v>
       </c>
-      <c r="I228" t="s">
+      <c r="I228" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L228" t="s">
@@ -12159,7 +12192,7 @@
       <c r="H229" t="s">
         <v>29</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I229" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L229" t="s">
@@ -12185,7 +12218,7 @@
       <c r="H230" t="s">
         <v>29</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I230" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L230" t="s">
@@ -12211,7 +12244,7 @@
       <c r="H231" t="s">
         <v>29</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I231" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L231" t="s">
@@ -12237,7 +12270,7 @@
       <c r="H232" t="s">
         <v>29</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I232" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L232" t="s">
@@ -12263,7 +12296,7 @@
       <c r="H233" t="s">
         <v>29</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I233" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L233" t="s">
@@ -12289,7 +12322,7 @@
       <c r="H234" t="s">
         <v>29</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I234" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L234" t="s">
@@ -12315,7 +12348,7 @@
       <c r="H235" t="s">
         <v>29</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I235" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L235" t="s">
@@ -12341,7 +12374,7 @@
       <c r="H236" t="s">
         <v>29</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I236" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L236" t="s">
@@ -12367,7 +12400,7 @@
       <c r="H237" t="s">
         <v>29</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I237" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L237" t="s">
@@ -12393,7 +12426,7 @@
       <c r="H238" t="s">
         <v>29</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L238" t="s">
@@ -12422,7 +12455,7 @@
       <c r="H239" t="s">
         <v>29</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I239" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L239" t="s">
@@ -12448,7 +12481,7 @@
       <c r="H240" t="s">
         <v>29</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I240" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L240" t="s">
@@ -12477,7 +12510,7 @@
       <c r="H241" t="s">
         <v>29</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I241" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L241" t="s">
@@ -12506,7 +12539,7 @@
       <c r="H242" t="s">
         <v>29</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L242" t="s">
@@ -12535,7 +12568,7 @@
       <c r="H243" t="s">
         <v>29</v>
       </c>
-      <c r="I243" t="s">
+      <c r="I243" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L243" t="s">
@@ -12564,7 +12597,7 @@
       <c r="H244" t="s">
         <v>29</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I244" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L244" t="s">
@@ -12593,7 +12626,7 @@
       <c r="H245" t="s">
         <v>29</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I245" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L245" t="s">
@@ -12619,7 +12652,7 @@
       <c r="H246" t="s">
         <v>29</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I246" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L246" t="s">
@@ -12648,7 +12681,7 @@
       <c r="H247" t="s">
         <v>29</v>
       </c>
-      <c r="I247" t="s">
+      <c r="I247" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L247" t="s">
@@ -12674,7 +12707,7 @@
       <c r="H248" t="s">
         <v>29</v>
       </c>
-      <c r="I248" t="s">
+      <c r="I248" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L248" t="s">
@@ -12703,7 +12736,7 @@
       <c r="H249" t="s">
         <v>29</v>
       </c>
-      <c r="I249" t="s">
+      <c r="I249" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L249" t="s">
@@ -12732,7 +12765,7 @@
       <c r="H250" t="s">
         <v>29</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I250" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L250" t="s">
@@ -12761,7 +12794,7 @@
       <c r="H251" t="s">
         <v>29</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I251" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L251" t="s">
@@ -12790,7 +12823,7 @@
       <c r="H252" t="s">
         <v>29</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I252" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L252" t="s">
@@ -12819,7 +12852,7 @@
       <c r="H253" t="s">
         <v>29</v>
       </c>
-      <c r="I253" t="s">
+      <c r="I253" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L253" t="s">
@@ -12848,7 +12881,7 @@
       <c r="H254" t="s">
         <v>29</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L254" t="s">
@@ -12877,7 +12910,7 @@
       <c r="H255" t="s">
         <v>29</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I255" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L255" t="s">
@@ -12906,7 +12939,7 @@
       <c r="H256" t="s">
         <v>29</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I256" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L256" t="s">
@@ -12935,7 +12968,7 @@
       <c r="H257" t="s">
         <v>29</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L257" t="s">
@@ -12964,7 +12997,7 @@
       <c r="H258" t="s">
         <v>29</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I258" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L258" t="s">
@@ -12993,7 +13026,7 @@
       <c r="H259" t="s">
         <v>29</v>
       </c>
-      <c r="I259" t="s">
+      <c r="I259" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L259" t="s">
@@ -13022,7 +13055,7 @@
       <c r="H260" t="s">
         <v>29</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I260" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L260" t="s">
@@ -13051,7 +13084,7 @@
       <c r="H261" t="s">
         <v>29</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L261" t="s">
@@ -13080,7 +13113,7 @@
       <c r="H262" t="s">
         <v>29</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I262" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L262" t="s">
@@ -13109,7 +13142,7 @@
       <c r="H263" t="s">
         <v>29</v>
       </c>
-      <c r="I263" t="s">
+      <c r="I263" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L263" t="s">
@@ -13138,7 +13171,7 @@
       <c r="H264" t="s">
         <v>29</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I264" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L264" t="s">
@@ -13170,7 +13203,7 @@
       <c r="H265" t="s">
         <v>29</v>
       </c>
-      <c r="I265" t="s">
+      <c r="I265" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L265" t="s">
@@ -13202,7 +13235,7 @@
       <c r="H266" t="s">
         <v>29</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I266" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L266" t="s">
@@ -13234,7 +13267,7 @@
       <c r="H267" t="s">
         <v>29</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L267" t="s">
@@ -13266,7 +13299,7 @@
       <c r="H268" t="s">
         <v>29</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I268" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L268" t="s">
@@ -13298,7 +13331,7 @@
       <c r="H269" t="s">
         <v>29</v>
       </c>
-      <c r="I269" t="s">
+      <c r="I269" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L269" t="s">
@@ -13330,7 +13363,7 @@
       <c r="H270" t="s">
         <v>29</v>
       </c>
-      <c r="I270" t="s">
+      <c r="I270" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L270" t="s">
@@ -13362,7 +13395,7 @@
       <c r="H271" t="s">
         <v>29</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I271" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L271" t="s">
@@ -13394,7 +13427,7 @@
       <c r="H272" t="s">
         <v>29</v>
       </c>
-      <c r="I272" t="s">
+      <c r="I272" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L272" t="s">
@@ -13426,7 +13459,7 @@
       <c r="H273" t="s">
         <v>29</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I273" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L273" t="s">
@@ -13458,7 +13491,7 @@
       <c r="H274" t="s">
         <v>29</v>
       </c>
-      <c r="I274" t="s">
+      <c r="I274" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L274" t="s">
@@ -13490,7 +13523,7 @@
       <c r="H275" t="s">
         <v>29</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I275" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L275" t="s">
@@ -13522,7 +13555,7 @@
       <c r="H276" t="s">
         <v>29</v>
       </c>
-      <c r="I276" t="s">
+      <c r="I276" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L276" t="s">
@@ -13551,7 +13584,7 @@
       <c r="H277" t="s">
         <v>29</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I277" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L277" t="s">
@@ -13580,7 +13613,7 @@
       <c r="H278" t="s">
         <v>29</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I278" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L278" t="s">
@@ -13609,7 +13642,7 @@
       <c r="H279" t="s">
         <v>29</v>
       </c>
-      <c r="I279" t="s">
+      <c r="I279" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L279" t="s">
@@ -13638,7 +13671,7 @@
       <c r="H280" t="s">
         <v>29</v>
       </c>
-      <c r="I280" t="s">
+      <c r="I280" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L280" t="s">
@@ -13667,7 +13700,7 @@
       <c r="H281" t="s">
         <v>29</v>
       </c>
-      <c r="I281" t="s">
+      <c r="I281" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L281" t="s">
@@ -13696,7 +13729,7 @@
       <c r="H282" t="s">
         <v>29</v>
       </c>
-      <c r="I282" t="s">
+      <c r="I282" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L282" t="s">
@@ -13725,7 +13758,7 @@
       <c r="H283" t="s">
         <v>29</v>
       </c>
-      <c r="I283" t="s">
+      <c r="I283" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L283" t="s">
@@ -13754,7 +13787,7 @@
       <c r="H284" t="s">
         <v>29</v>
       </c>
-      <c r="I284" t="s">
+      <c r="I284" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L284" t="s">
@@ -13783,7 +13816,7 @@
       <c r="H285" t="s">
         <v>29</v>
       </c>
-      <c r="I285" t="s">
+      <c r="I285" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L285" t="s">
@@ -13812,7 +13845,7 @@
       <c r="H286" t="s">
         <v>29</v>
       </c>
-      <c r="I286" t="s">
+      <c r="I286" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L286" t="s">
@@ -13841,7 +13874,7 @@
       <c r="H287" t="s">
         <v>29</v>
       </c>
-      <c r="I287" t="s">
+      <c r="I287" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L287" t="s">
@@ -13870,7 +13903,7 @@
       <c r="H288" t="s">
         <v>29</v>
       </c>
-      <c r="I288" t="s">
+      <c r="I288" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L288" t="s">
@@ -13899,7 +13932,7 @@
       <c r="H289" t="s">
         <v>29</v>
       </c>
-      <c r="I289" t="s">
+      <c r="I289" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L289" t="s">
@@ -13931,7 +13964,7 @@
       <c r="H290" t="s">
         <v>29</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I290" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L290" t="s">
@@ -13960,7 +13993,7 @@
       <c r="H291" t="s">
         <v>29</v>
       </c>
-      <c r="I291" t="s">
+      <c r="I291" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L291" t="s">
@@ -13986,7 +14019,7 @@
       <c r="H292" t="s">
         <v>29</v>
       </c>
-      <c r="I292" t="s">
+      <c r="I292" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L292" t="s">
@@ -14015,7 +14048,7 @@
       <c r="H293" t="s">
         <v>29</v>
       </c>
-      <c r="I293" t="s">
+      <c r="I293" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L293" t="s">
@@ -14044,7 +14077,7 @@
       <c r="H294" t="s">
         <v>29</v>
       </c>
-      <c r="I294" t="s">
+      <c r="I294" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L294" t="s">
@@ -14073,7 +14106,7 @@
       <c r="H295" t="s">
         <v>29</v>
       </c>
-      <c r="I295" t="s">
+      <c r="I295" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L295" t="s">
@@ -14102,7 +14135,7 @@
       <c r="H296" t="s">
         <v>29</v>
       </c>
-      <c r="I296" t="s">
+      <c r="I296" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L296" t="s">
@@ -14131,7 +14164,7 @@
       <c r="H297" t="s">
         <v>29</v>
       </c>
-      <c r="I297" t="s">
+      <c r="I297" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L297" t="s">
@@ -14160,7 +14193,7 @@
       <c r="H298" t="s">
         <v>29</v>
       </c>
-      <c r="I298" t="s">
+      <c r="I298" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L298" t="s">
@@ -14186,7 +14219,7 @@
       <c r="H299" t="s">
         <v>29</v>
       </c>
-      <c r="I299" t="s">
+      <c r="I299" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L299" t="s">
@@ -14215,7 +14248,7 @@
       <c r="H300" t="s">
         <v>29</v>
       </c>
-      <c r="I300" t="s">
+      <c r="I300" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L300" t="s">
@@ -14244,7 +14277,7 @@
       <c r="H301" t="s">
         <v>29</v>
       </c>
-      <c r="I301" t="s">
+      <c r="I301" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L301" t="s">
@@ -14273,7 +14306,7 @@
       <c r="H302" t="s">
         <v>29</v>
       </c>
-      <c r="I302" t="s">
+      <c r="I302" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L302" t="s">
@@ -14302,7 +14335,7 @@
       <c r="H303" t="s">
         <v>29</v>
       </c>
-      <c r="I303" t="s">
+      <c r="I303" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L303" t="s">
@@ -14334,7 +14367,7 @@
       <c r="H304" t="s">
         <v>29</v>
       </c>
-      <c r="I304" t="s">
+      <c r="I304" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L304" t="s">
@@ -14366,7 +14399,7 @@
       <c r="H305" t="s">
         <v>29</v>
       </c>
-      <c r="I305" t="s">
+      <c r="I305" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L305" t="s">
@@ -14395,7 +14428,7 @@
       <c r="H306" t="s">
         <v>29</v>
       </c>
-      <c r="I306" t="s">
+      <c r="I306" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L306" t="s">
@@ -14421,7 +14454,7 @@
       <c r="H307" t="s">
         <v>29</v>
       </c>
-      <c r="I307" t="s">
+      <c r="I307" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L307" t="s">
@@ -14450,7 +14483,7 @@
       <c r="H308" t="s">
         <v>29</v>
       </c>
-      <c r="I308" t="s">
+      <c r="I308" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L308" t="s">
@@ -14482,7 +14515,7 @@
       <c r="H309" t="s">
         <v>29</v>
       </c>
-      <c r="I309" t="s">
+      <c r="I309" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L309" t="s">
@@ -14511,7 +14544,7 @@
       <c r="H310" t="s">
         <v>29</v>
       </c>
-      <c r="I310" t="s">
+      <c r="I310" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L310" t="s">
@@ -14540,7 +14573,7 @@
       <c r="H311" t="s">
         <v>29</v>
       </c>
-      <c r="I311" t="s">
+      <c r="I311" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L311" t="s">
@@ -14569,7 +14602,7 @@
       <c r="H312" t="s">
         <v>29</v>
       </c>
-      <c r="I312" t="s">
+      <c r="I312" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L312" t="s">
@@ -14598,7 +14631,7 @@
       <c r="H313" t="s">
         <v>29</v>
       </c>
-      <c r="I313" t="s">
+      <c r="I313" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L313" t="s">
@@ -14627,7 +14660,7 @@
       <c r="H314" t="s">
         <v>29</v>
       </c>
-      <c r="I314" t="s">
+      <c r="I314" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L314" t="s">
@@ -14656,7 +14689,7 @@
       <c r="H315" t="s">
         <v>29</v>
       </c>
-      <c r="I315" t="s">
+      <c r="I315" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L315" t="s">
@@ -14682,7 +14715,7 @@
       <c r="H316" t="s">
         <v>29</v>
       </c>
-      <c r="I316" t="s">
+      <c r="I316" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L316" t="s">
@@ -14711,7 +14744,7 @@
       <c r="H317" t="s">
         <v>29</v>
       </c>
-      <c r="I317" t="s">
+      <c r="I317" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L317" t="s">
@@ -14737,7 +14770,7 @@
       <c r="H318" t="s">
         <v>29</v>
       </c>
-      <c r="I318" t="s">
+      <c r="I318" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L318" t="s">
@@ -14769,7 +14802,7 @@
       <c r="H319" t="s">
         <v>29</v>
       </c>
-      <c r="I319" t="s">
+      <c r="I319" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L319" t="s">

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="75" windowWidth="34005" windowHeight="15930"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="30780" windowHeight="15825"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1438">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4329,6 +4329,64 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>merged</t>
+  </si>
+  <si>
+    <t>KC-530 Lookup screens are too difficult for users, make searches easier by implementing search engine</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/sponsor/SponsorLookupableHelperServiceImpl.java</t>
+  </si>
+  <si>
+    <t>merged-messy copied code by hand instead</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/unit/UnitLookupableHelperServiceImpl.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modify Negotiation Description restricted/unrestricted Auto Restrict based on activity type</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/bo/NegotiationActivity.java</t>
+  </si>
+  <si>
+    <t>merged- messy merge but easy hand copied code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-797 Document Locks are not working correctly
+KC-821 Only allow one Negotiation per child award.    </t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/document/NegotiationDocument.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-817 Change Negotiation Activity Description to be non-required KC-815 unless activity type other is selected
+ KC-892 Enforce some negotiation activity type entries to single occurrence per award
+</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/rules/NegotiationActivityRuleImpl.java</t>
+  </si>
+  <si>
+    <t>KC-821 Only allow one Negotiation per child award. Link back to the award document from negotiation document</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/web/struts/action/NegotiationAction.java</t>
+  </si>
+  <si>
+    <t>KC-874 Change Default sort order of negotiation activities to As Entered</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/sorting/ActivitySortingType.java</t>
+  </si>
+  <si>
+    <t>KC-877 Negotiation activity still adds when invalid end date is entered
+ KC-822 Add send notification button and a link to launch Award Memo Tool</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/web/struts/action/NegotiationNegotiationAction.java</t>
   </si>
 </sst>
 </file>
@@ -5177,10 +5235,10 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="F91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomRight" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5233,14 +5291,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>1234</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5256,7 +5314,7 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>0.8303571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H7" t="s">
         <v>1235</v>
@@ -5286,7 +5344,7 @@
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5325,7 +5383,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8280,7 +8338,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" ht="60">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -8302,17 +8360,23 @@
       <c r="G96" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="H96" t="s">
-        <v>29</v>
+      <c r="H96" s="7">
+        <v>42031</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>1420</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="60">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -8334,17 +8398,23 @@
       <c r="G97" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="H97" t="s">
-        <v>29</v>
+      <c r="H97" s="7">
+        <v>42032</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L97" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>1423</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="45">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -8366,17 +8436,23 @@
       <c r="G98" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="H98" t="s">
-        <v>29</v>
+      <c r="H98" s="7">
+        <v>42032</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>29</v>
+        <v>1420</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1426</v>
       </c>
       <c r="L98" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="60">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -8398,17 +8474,23 @@
       <c r="G99" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="H99" t="s">
-        <v>29</v>
+      <c r="H99" s="7">
+        <v>42032</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>29</v>
+        <v>1427</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1429</v>
       </c>
       <c r="L99" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="120">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -8430,14 +8512,20 @@
       <c r="G100" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="H100" t="s">
-        <v>29</v>
+      <c r="H100" s="7">
+        <v>42032</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>29</v>
+        <v>1420</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1431</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="75">
@@ -8516,7 +8604,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" ht="45">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -8538,17 +8626,23 @@
       <c r="G103" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H103" t="s">
-        <v>29</v>
+      <c r="H103" s="7">
+        <v>42032</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>1378</v>
+        <v>1234</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1435</v>
       </c>
       <c r="L103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="60">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -8570,17 +8664,23 @@
       <c r="G104" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H104" t="s">
-        <v>29</v>
+      <c r="H104" s="7">
+        <v>42032</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>29</v>
+        <v>1234</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1433</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="90">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -8602,14 +8702,20 @@
       <c r="G105" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H105" t="s">
-        <v>29</v>
+      <c r="H105" s="7">
+        <v>42032</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>29</v>
+        <v>1234</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1437</v>
       </c>
       <c r="L105" t="s">
-        <v>29</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="106" spans="1:12">

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1446">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4387,6 +4387,32 @@
   </si>
   <si>
     <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/web/struts/action/NegotiationNegotiationAction.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/web/struts/form/NegotiationActivityHelper.java</t>
+  </si>
+  <si>
+    <t>KC-821 Only allow one Negotiation per child award.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/negotiations/web/struts/form/NegotiationForm.java</t>
+  </si>
+  <si>
+    <t>Removed-KC60 has same fix</t>
+  </si>
+  <si>
+    <t>KC-467 begin - remove all references to MIT</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/print/PrintCertificationXmlStream.java</t>
+  </si>
+  <si>
+    <t>KC-505 require certification for ALL employee's 
+Old code required for COI and PI always and not for keyperson)
+New code required for all employees (rolodex == null) and not for non-employees unless opted in</t>
+  </si>
+  <si>
+    <t>Review-validataion has been removed.  They must have moved it during refactor but the name doesn't exist FIND NEW LOCATION OF CODE</t>
   </si>
 </sst>
 </file>
@@ -5235,10 +5261,10 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="F110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L105" sqref="L105"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5291,14 +5317,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
         <v>1234</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5314,7 +5340,7 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>0.8928571428571429</v>
+        <v>0.9375</v>
       </c>
       <c r="H7" t="s">
         <v>1235</v>
@@ -5337,14 +5363,14 @@
       </c>
       <c r="F8" s="5">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>1378</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5360,14 +5386,14 @@
       </c>
       <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>7.1428571428571425E-2</v>
+        <v>8.0357142857142863E-2</v>
       </c>
       <c r="H9" t="s">
         <v>1365</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5383,7 +5409,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8718,7 +8744,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" ht="45">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -8740,17 +8766,23 @@
       <c r="G106" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H106" t="s">
-        <v>29</v>
+      <c r="H106" s="7">
+        <v>42033</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>29</v>
+        <v>1234</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1438</v>
       </c>
       <c r="L106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="30">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -8772,14 +8804,20 @@
       <c r="G107" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H107" t="s">
-        <v>29</v>
+      <c r="H107" s="7">
+        <v>42033</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>29</v>
+        <v>1234</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1440</v>
       </c>
       <c r="L107" t="s">
-        <v>29</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -8992,7 +9030,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" ht="30">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -9014,17 +9052,23 @@
       <c r="G114" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="H114" t="s">
-        <v>29</v>
+      <c r="H114" s="7">
+        <v>42033</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>1441</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="30">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -9046,17 +9090,23 @@
       <c r="G115" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="H115" t="s">
-        <v>29</v>
+      <c r="H115" s="7">
+        <v>42033</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L115" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>1234</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="120">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -9078,14 +9128,20 @@
       <c r="G116" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H116" t="s">
-        <v>29</v>
+      <c r="H116" s="7">
+        <v>42033</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L116" t="s">
-        <v>29</v>
+        <v>1445</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="117" spans="1:12">

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="30780" windowHeight="15825"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="34935" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="1454">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4413,6 +4413,31 @@
   </si>
   <si>
     <t>Review-validataion has been removed.  They must have moved it during refactor but the name doesn't exist FIND NEW LOCATION OF CODE</t>
+  </si>
+  <si>
+    <t>removed-The fixed the issue with unit name, we fixed for several others but my testing reveals we didn't need to.  So I removed the changes from this file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+KC-516 When adding Key Personnel error occurs when saving after unit missing error</t>
+  </si>
+  <si>
+    <t>KC-686 - OLE stack trace/IR thrown in PD Questions tab when you attempt to correct explanation is required error</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/questionnaire/ProposalDevelopmentQuestionsAction.java</t>
+  </si>
+  <si>
+    <t>KC-505 See line 117 above, This code need to be moved for the other file, in this file it might be mergable but not sure it makes sense depending on the other resolution</t>
+  </si>
+  <si>
+    <t>KC-166 Change reject button UH specific to return for changes button</t>
+  </si>
+  <si>
+    <t>Rework-Rename button reject to return for changes….It's somewhere else in this code</t>
+  </si>
+  <si>
+    <t>Assign to MikeB</t>
   </si>
 </sst>
 </file>
@@ -4909,7 +4934,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -4923,6 +4948,12 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5258,13 +5289,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="F110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5317,7 +5348,7 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H6" t="s">
         <v>1234</v>
@@ -5340,7 +5371,7 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>0.9375</v>
+        <v>0.9732142857142857</v>
       </c>
       <c r="H7" t="s">
         <v>1235</v>
@@ -5363,14 +5394,14 @@
       </c>
       <c r="F8" s="5">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>1378</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5386,14 +5417,14 @@
       </c>
       <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>8.0357142857142863E-2</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="H9" t="s">
         <v>1365</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5409,7 +5440,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5484,7 +5515,7 @@
       <c r="H13" s="7">
         <v>42013</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="10" t="s">
         <v>1230</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -5947,7 +5978,7 @@
       <c r="H27" s="7">
         <v>42016</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="10" t="s">
         <v>1230</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -7305,7 +7336,7 @@
       <c r="H67" s="7">
         <v>42019</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="10" t="s">
         <v>1395</v>
       </c>
       <c r="J67" s="3" t="s">
@@ -7340,7 +7371,7 @@
       <c r="H68" s="7">
         <v>42024</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="10" t="s">
         <v>1379</v>
       </c>
       <c r="J68" s="3" t="s">
@@ -7489,7 +7520,7 @@
       <c r="H72" s="7">
         <v>42026</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="10" t="s">
         <v>1367</v>
       </c>
       <c r="J72" s="3" t="s">
@@ -7562,7 +7593,7 @@
       <c r="H74" s="7">
         <v>42025</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="10" t="s">
         <v>1379</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -9131,7 +9162,7 @@
       <c r="H116" s="7">
         <v>42033</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="I116" s="10" t="s">
         <v>1445</v>
       </c>
       <c r="J116" s="3" t="s">
@@ -9144,7 +9175,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" ht="90">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -9166,14 +9197,20 @@
       <c r="G117" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="H117" t="s">
-        <v>29</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L117" t="s">
-        <v>29</v>
+      <c r="H117" s="7">
+        <v>42033</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -9201,9 +9238,6 @@
       <c r="H118" t="s">
         <v>29</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="L118" t="s">
         <v>29</v>
       </c>
@@ -9457,7 +9491,7 @@
       <c r="H126" s="7">
         <v>42025</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="I126" s="10" t="s">
         <v>1379</v>
       </c>
       <c r="J126" s="3" t="s">
@@ -9470,7 +9504,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" ht="90">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -9492,11 +9526,14 @@
       <c r="G127" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="H127" t="s">
-        <v>29</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>29</v>
+      <c r="H127" s="7">
+        <v>42024</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>1450</v>
       </c>
       <c r="L127" t="s">
         <v>29</v>
@@ -9524,17 +9561,23 @@
       <c r="G128" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="H128" t="s">
-        <v>29</v>
+      <c r="H128" s="7">
+        <v>42034</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1449</v>
       </c>
       <c r="L128" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="45">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -9556,17 +9599,26 @@
       <c r="G129" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="H129" t="s">
-        <v>29</v>
+      <c r="H129" s="7">
+        <v>42034</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>29</v>
+        <v>1452</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1245</v>
       </c>
       <c r="L129" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>1245</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -9598,7 +9650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -9630,7 +9682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -9659,7 +9711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>223</v>
       </c>
@@ -9688,7 +9740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>223</v>
       </c>
@@ -9717,7 +9769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>223</v>
       </c>
@@ -9746,7 +9798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>223</v>
       </c>
@@ -9775,7 +9827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>223</v>
       </c>
@@ -9804,7 +9856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>223</v>
       </c>
@@ -9833,7 +9885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>223</v>
       </c>
@@ -9862,7 +9914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>223</v>
       </c>
@@ -9891,7 +9943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -9920,7 +9972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -9949,7 +10001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>223</v>
       </c>
@@ -9978,7 +10030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>223</v>
       </c>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="34935" windowHeight="16620"/>
+    <workbookView xWindow="300" yWindow="105" windowWidth="27270" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1464">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4434,10 +4434,41 @@
     <t>KC-166 Change reject button UH specific to return for changes button</t>
   </si>
   <si>
-    <t>Rework-Rename button reject to return for changes….It's somewhere else in this code</t>
-  </si>
-  <si>
     <t>Assign to MikeB</t>
+  </si>
+  <si>
+    <t>Removed - Kuali made same change</t>
+  </si>
+  <si>
+    <t>KC-729 Make YNQ Questions not required in Organization Maintenance</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/org/OrganizationMaintenanceDocumentRule.java</t>
+  </si>
+  <si>
+    <t>Removed - File was renamed but once I found the file mergetool revealed our code change is in KC60 new version of this base class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-765 BEGIN Project Title error passes validation, but prevents document from being submitted to sponsor
+New File name is KcTransactionalDocumentRuleBase.java</t>
+  </si>
+  <si>
+    <t>Review-Rework-Rename button reject to return for changes….It's somewhere else in this code</t>
+  </si>
+  <si>
+    <t>Images Keep</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/static/uh-images</t>
+  </si>
+  <si>
+    <t>KC-763 Validation throws exception if proposal is s2s and AOR has no address configured.</t>
+  </si>
+  <si>
+    <t>Merged-File Moved to s2s project</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/GlobalLibraryV2_0Generator.java</t>
   </si>
 </sst>
 </file>
@@ -5292,10 +5323,10 @@
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="D155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
+      <selection pane="bottomRight" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5348,14 +5379,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
         <v>1234</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5371,14 +5402,14 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>0.9732142857142857</v>
+        <v>1.1785714285714286</v>
       </c>
       <c r="H7" t="s">
         <v>1235</v>
       </c>
       <c r="I7" s="3">
         <f>COUNTIF(I13:I400,"Keep*")</f>
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5394,14 +5425,14 @@
       </c>
       <c r="F8" s="5">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>1378</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5417,14 +5448,14 @@
       </c>
       <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>8.9285714285714288E-2</v>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="H9" t="s">
         <v>1365</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5440,7 +5471,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9603,7 +9634,7 @@
         <v>42034</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>1451</v>
@@ -9615,10 +9646,10 @@
         <v>1245</v>
       </c>
       <c r="M129" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="30">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -9640,17 +9671,23 @@
       <c r="G130" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="H130" t="s">
-        <v>29</v>
+      <c r="H130" s="7">
+        <v>42037</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>29</v>
+        <v>1453</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1245</v>
       </c>
       <c r="L130" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="45">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -9672,17 +9709,23 @@
       <c r="G131" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H131" t="s">
-        <v>29</v>
+      <c r="H131" s="7">
+        <v>42037</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>29</v>
+        <v>1234</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1455</v>
       </c>
       <c r="L131" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="105">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -9701,17 +9744,23 @@
       <c r="G132" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="H132" t="s">
-        <v>29</v>
+      <c r="H132" s="7">
+        <v>42037</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>29</v>
+        <v>1456</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1245</v>
       </c>
       <c r="L132" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="45">
       <c r="A133" t="s">
         <v>223</v>
       </c>
@@ -9730,14 +9779,20 @@
       <c r="G133" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="H133" t="s">
-        <v>29</v>
+      <c r="H133" s="7">
+        <v>42037</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>29</v>
+        <v>1462</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1463</v>
       </c>
       <c r="L133" t="s">
-        <v>29</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -12117,11 +12172,17 @@
       <c r="G218" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="H218" t="s">
-        <v>29</v>
+      <c r="H218" s="7">
+        <v>42037</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1460</v>
       </c>
       <c r="L218" t="s">
         <v>29</v>
@@ -12143,11 +12204,17 @@
       <c r="G219" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="H219" t="s">
-        <v>29</v>
+      <c r="H219" s="7">
+        <v>42037</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1460</v>
       </c>
       <c r="L219" t="s">
         <v>29</v>
@@ -12169,11 +12236,17 @@
       <c r="G220" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="H220" t="s">
-        <v>29</v>
+      <c r="H220" s="7">
+        <v>42037</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1460</v>
       </c>
       <c r="L220" t="s">
         <v>29</v>
@@ -12195,11 +12268,17 @@
       <c r="G221" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="H221" t="s">
-        <v>29</v>
+      <c r="H221" s="7">
+        <v>42037</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K221" t="s">
+        <v>1460</v>
       </c>
       <c r="L221" t="s">
         <v>29</v>
@@ -12221,11 +12300,17 @@
       <c r="G222" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="H222" t="s">
-        <v>29</v>
+      <c r="H222" s="7">
+        <v>42037</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1460</v>
       </c>
       <c r="L222" t="s">
         <v>29</v>
@@ -12247,11 +12332,17 @@
       <c r="G223" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="H223" t="s">
-        <v>29</v>
+      <c r="H223" s="7">
+        <v>42037</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K223" t="s">
+        <v>1460</v>
       </c>
       <c r="L223" t="s">
         <v>29</v>
@@ -12273,11 +12364,17 @@
       <c r="G224" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="H224" t="s">
-        <v>29</v>
+      <c r="H224" s="7">
+        <v>42037</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K224" t="s">
+        <v>1460</v>
       </c>
       <c r="L224" t="s">
         <v>29</v>
@@ -12299,11 +12396,17 @@
       <c r="G225" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="H225" t="s">
-        <v>29</v>
+      <c r="H225" s="7">
+        <v>42037</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K225" t="s">
+        <v>1460</v>
       </c>
       <c r="L225" t="s">
         <v>29</v>
@@ -12325,11 +12428,17 @@
       <c r="G226" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="H226" t="s">
-        <v>29</v>
+      <c r="H226" s="7">
+        <v>42037</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K226" t="s">
+        <v>1460</v>
       </c>
       <c r="L226" t="s">
         <v>29</v>
@@ -12351,11 +12460,17 @@
       <c r="G227" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="H227" t="s">
-        <v>29</v>
+      <c r="H227" s="7">
+        <v>42037</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K227" t="s">
+        <v>1460</v>
       </c>
       <c r="L227" t="s">
         <v>29</v>
@@ -12377,11 +12492,17 @@
       <c r="G228" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="H228" t="s">
-        <v>29</v>
+      <c r="H228" s="7">
+        <v>42037</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K228" t="s">
+        <v>1460</v>
       </c>
       <c r="L228" t="s">
         <v>29</v>
@@ -12403,11 +12524,17 @@
       <c r="G229" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="H229" t="s">
-        <v>29</v>
+      <c r="H229" s="7">
+        <v>42037</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K229" t="s">
+        <v>1460</v>
       </c>
       <c r="L229" t="s">
         <v>29</v>
@@ -12429,11 +12556,17 @@
       <c r="G230" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="H230" t="s">
-        <v>29</v>
+      <c r="H230" s="7">
+        <v>42037</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K230" t="s">
+        <v>1460</v>
       </c>
       <c r="L230" t="s">
         <v>29</v>
@@ -12455,11 +12588,17 @@
       <c r="G231" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="H231" t="s">
-        <v>29</v>
+      <c r="H231" s="7">
+        <v>42037</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K231" t="s">
+        <v>1460</v>
       </c>
       <c r="L231" t="s">
         <v>29</v>
@@ -12481,11 +12620,17 @@
       <c r="G232" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="H232" t="s">
-        <v>29</v>
+      <c r="H232" s="7">
+        <v>42037</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K232" t="s">
+        <v>1460</v>
       </c>
       <c r="L232" t="s">
         <v>29</v>
@@ -12507,11 +12652,17 @@
       <c r="G233" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="H233" t="s">
-        <v>29</v>
+      <c r="H233" s="7">
+        <v>42037</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K233" t="s">
+        <v>1460</v>
       </c>
       <c r="L233" t="s">
         <v>29</v>
@@ -12533,11 +12684,17 @@
       <c r="G234" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="H234" t="s">
-        <v>29</v>
+      <c r="H234" s="7">
+        <v>42037</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K234" t="s">
+        <v>1460</v>
       </c>
       <c r="L234" t="s">
         <v>29</v>
@@ -12559,11 +12716,17 @@
       <c r="G235" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="H235" t="s">
-        <v>29</v>
+      <c r="H235" s="7">
+        <v>42037</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K235" t="s">
+        <v>1460</v>
       </c>
       <c r="L235" t="s">
         <v>29</v>
@@ -12585,11 +12748,17 @@
       <c r="G236" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="H236" t="s">
-        <v>29</v>
+      <c r="H236" s="7">
+        <v>42037</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>29</v>
+        <v>1235</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K236" t="s">
+        <v>1460</v>
       </c>
       <c r="L236" t="s">
         <v>29</v>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="105" windowWidth="27270" windowHeight="13140"/>
+    <workbookView xWindow="300" yWindow="105" windowWidth="33390" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1500">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -1639,9 +1639,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/GlobalLibraryV2_0Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/GlobalLibraryV2_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/GlobalLibraryV2_0Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/GlobalLibraryV2_0Generator.java</t>
   </si>
   <si>
@@ -1651,9 +1648,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonBaseGenerator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonBaseGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonBaseGenerator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonBaseGenerator.java</t>
   </si>
   <si>
@@ -1663,9 +1657,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedBaseGenerator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedBaseGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedBaseGenerator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedBaseGenerator.java</t>
   </si>
   <si>
@@ -1675,9 +1666,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_0Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_0Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_0Generator.java</t>
   </si>
   <si>
@@ -1687,9 +1675,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_1Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_1Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_1Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_1Generator.java</t>
   </si>
   <si>
@@ -1699,9 +1684,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_2Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_2Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_2Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_2Generator.java</t>
   </si>
   <si>
@@ -1711,9 +1693,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_0Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_0Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_0Generator.java</t>
   </si>
   <si>
@@ -1723,9 +1702,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_1Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_1Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_1Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_1Generator.java</t>
   </si>
   <si>
@@ -1735,9 +1711,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424BaseGenerator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424BaseGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424BaseGenerator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRSF424BaseGenerator.java</t>
   </si>
   <si>
@@ -1747,9 +1720,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_0Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_0Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_0Generator.java</t>
   </si>
   <si>
@@ -1759,9 +1729,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_1Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_1Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_1Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_1Generator.java</t>
   </si>
   <si>
@@ -1771,9 +1738,6 @@
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_2Generator.java</t>
   </si>
   <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_2Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_2Generator.java</t>
-  </si>
-  <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_2Generator.java</t>
   </si>
   <si>
@@ -1781,9 +1745,6 @@
   </si>
   <si>
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/S2SBaseFormGenerator.java</t>
-  </si>
-  <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/S2SBaseFormGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/S2SBaseFormGenerator.java</t>
   </si>
   <si>
     <t>gitk ./main/java/org/kuali/kra/s2s/generator/S2SBaseFormGenerator.java</t>
@@ -4469,6 +4430,155 @@
   </si>
   <si>
     <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/GlobalLibraryV2_0Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/GlobalLibraryV2_0Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/GlobalLibraryV2_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/GlobalLibraryV2_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/GlobalLibraryV2_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/GlobalLibraryV2_0Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonBaseGenerator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonBaseGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonBaseGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonBaseGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonBaseGenerator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedBaseGenerator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedBaseGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedBaseGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedBaseGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedBaseGenerator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_0Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_0Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_1Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_1Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_1Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_1Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_1Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_2Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_2Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonExpandedV1_2Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_2Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_2Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_0Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_0Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_1Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_1Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRKeyPersonV1_1Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_1Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_1Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424BaseGenerator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424BaseGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424BaseGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424BaseGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424BaseGenerator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_0Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_0Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_0Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_0Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_1Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_1Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_1Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_1Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_1Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_2Generator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_2Generator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/impl/RRSF424V1_2Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_2Generator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_2Generator.java</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/S2SBaseFormGenerator.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/s2s/generator/S2SBaseFormGenerator.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/s2s/generator/S2SBaseFormGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/S2SBaseFormGenerator.java /cygdrive/c/Users/ronald/github/kc-s2sgen/coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/S2SBaseFormGenerator.java</t>
+  </si>
+  <si>
+    <t>KC-647 S2S Division name validation error with RRKeyPerson</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonBaseGenerator.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-398 For non-employees, Organization shows as University of Hawaii on grants.gov forms
+</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedBaseGenerator.java</t>
+  </si>
+  <si>
+    <t>Merged - Removed static variables we added to gain access to service locators.  We can use the kuali methods to get these now.</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_0Generator.java</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_1Generator.java</t>
+  </si>
+  <si>
+    <t>KC-398 Prevent S2S errors because length is too long
+KC-421 employee key personnel set their division to their home unit if it exists</t>
+  </si>
+  <si>
+    <t>Merged-Extreemly difficult, had to re-write the code mostly…needs to be tested heavily</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonExpandedV1_2Generator.java</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_0Generator.java</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRKeyPersonV1_1Generator.java</t>
+  </si>
+  <si>
+    <t>KC-633 RRSF424 form validation error PDPI Division invalid</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424BaseGenerator.java</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_0Generator.java</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_1Generator.java</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/support/RRSF424V1_2Generator.java</t>
+  </si>
+  <si>
+    <t>KC-556 Grants.Gov rejects attachments if description contains special chars</t>
+  </si>
+  <si>
+    <t>Merged-Had to change code due to kuali refactor</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/generate/S2SBaseFormGenerator.java</t>
+  </si>
+  <si>
+    <t>KC-640 AOR contact switch when submitting causes exception in background process</t>
+  </si>
+  <si>
+    <t>Merged - Moved code to new Class by hand.    Method moved to new service DepartmentalPersonServiceImpl.java</t>
+  </si>
+  <si>
+    <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/person/DepartmentalPersonServiceImpl.java</t>
   </si>
 </sst>
 </file>
@@ -5323,16 +5433,17 @@
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="D155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F134" sqref="F134"/>
+      <selection pane="bottomRight" activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="162.7109375" customWidth="1"/>
     <col min="6" max="7" width="31.140625" style="5"/>
     <col min="9" max="10" width="31.140625" style="3"/>
   </cols>
@@ -5363,7 +5474,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF($B$11:$B$252,B5)</f>
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5379,14 +5490,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5402,10 +5513,10 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>1.1785714285714286</v>
+        <v>1.2946428571428572</v>
       </c>
       <c r="H7" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="I7" s="3">
         <f>COUNTIF(I13:I400,"Keep*")</f>
@@ -5418,7 +5529,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF($B$12:$B$252,B8)</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -5428,7 +5539,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
@@ -5451,7 +5562,7 @@
         <v>9.8214285714285712E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
@@ -5471,7 +5582,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5506,19 +5617,19 @@
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45">
@@ -5547,16 +5658,16 @@
         <v>42013</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="K13" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="L13" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
@@ -5585,16 +5696,16 @@
         <v>42013</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="K14" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="L14" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45">
@@ -5623,16 +5734,16 @@
         <v>42016</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L15" t="s">
         <v>1232</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1244</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45">
@@ -5661,16 +5772,16 @@
         <v>42016</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="K16" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L16" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="150">
@@ -5693,16 +5804,16 @@
         <v>42016</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="K17" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="L17" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45">
@@ -5725,16 +5836,16 @@
         <v>42016</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="K18" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L18" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45">
@@ -5757,16 +5868,16 @@
         <v>42016</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="K19" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="L19" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="210">
@@ -5789,16 +5900,16 @@
         <v>42016</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K20" t="s">
         <v>1235</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1248</v>
-      </c>
       <c r="L20" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60">
@@ -5821,16 +5932,16 @@
         <v>42016</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="K21" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="L21" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="90">
@@ -5853,13 +5964,13 @@
         <v>42016</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="K22" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30">
@@ -5882,16 +5993,16 @@
         <v>42016</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30">
@@ -5914,16 +6025,16 @@
         <v>42016</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
@@ -5946,16 +6057,16 @@
         <v>42016</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30">
@@ -5978,16 +6089,16 @@
         <v>42016</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="K26" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45">
@@ -6010,16 +6121,16 @@
         <v>42016</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="K27" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="300">
@@ -6042,16 +6153,16 @@
         <v>42016</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="K28" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="105">
@@ -6074,16 +6185,16 @@
         <v>42016</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="K29" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="105">
@@ -6106,16 +6217,16 @@
         <v>42016</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="K30" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="180">
@@ -6138,48 +6249,48 @@
         <v>42016</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="K31" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60">
       <c r="A32" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="B32" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="D32" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="E32" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="H32" s="7">
         <v>42016</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45">
@@ -6202,16 +6313,16 @@
         <v>42016</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="K33" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="45">
@@ -6234,16 +6345,16 @@
         <v>42016</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="K34" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -6266,16 +6377,16 @@
         <v>42016</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="K35" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -6298,16 +6409,16 @@
         <v>42016</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="K36" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -6330,16 +6441,16 @@
         <v>42016</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="K37" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45">
@@ -6362,16 +6473,16 @@
         <v>42016</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="K38" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -6394,16 +6505,16 @@
         <v>42016</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="K39" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30">
@@ -6426,16 +6537,16 @@
         <v>42016</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="K40" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30">
@@ -6458,16 +6569,16 @@
         <v>42016</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="K41" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30">
@@ -6490,16 +6601,16 @@
         <v>42016</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="K42" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30">
@@ -6522,16 +6633,16 @@
         <v>42016</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="K43" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45">
@@ -6554,16 +6665,16 @@
         <v>42016</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="K44" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="210">
@@ -6586,16 +6697,16 @@
         <v>42016</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="K45" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="60">
@@ -6618,16 +6729,16 @@
         <v>42016</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="K46" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="60">
@@ -6650,16 +6761,16 @@
         <v>42016</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="K47" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="150">
@@ -6682,16 +6793,16 @@
         <v>42016</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="K48" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="60">
@@ -6714,16 +6825,16 @@
         <v>42016</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="K49" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="75">
@@ -6746,16 +6857,16 @@
         <v>42016</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="K50" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="45">
@@ -6778,16 +6889,16 @@
         <v>42016</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="K51" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="150">
@@ -6810,16 +6921,16 @@
         <v>42016</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="K52" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30">
@@ -6842,16 +6953,16 @@
         <v>42016</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="K53" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="45">
@@ -6874,16 +6985,16 @@
         <v>42016</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="K54" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="150">
@@ -6912,16 +7023,16 @@
         <v>42016</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="K55" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="135">
@@ -6950,16 +7061,16 @@
         <v>42016</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="K56" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="L56" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="60">
@@ -6988,16 +7099,16 @@
         <v>42018</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="K57" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="L57" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="180">
@@ -7026,16 +7137,16 @@
         <v>42019</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="K58" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="L58" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30">
@@ -7064,16 +7175,16 @@
         <v>42019</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="K59" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="L59" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30">
@@ -7102,16 +7213,16 @@
         <v>42019</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="K60" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="L60" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="285">
@@ -7140,16 +7251,16 @@
         <v>42019</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="K61" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="L61" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30">
@@ -7178,16 +7289,16 @@
         <v>42019</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="K62" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="L62" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="75">
@@ -7216,16 +7327,16 @@
         <v>42019</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="K63" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="L63" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="75">
@@ -7254,16 +7365,16 @@
         <v>42019</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="K64" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="L64" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="75">
@@ -7292,13 +7403,13 @@
         <v>42019</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="K65" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="L65" t="s">
         <v>29</v>
@@ -7330,16 +7441,16 @@
         <v>42017</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J66" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="K66" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="L66" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="30">
@@ -7368,16 +7479,16 @@
         <v>42019</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="K67" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="L67" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="270">
@@ -7394,7 +7505,7 @@
         <v>225</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>226</v>
@@ -7403,16 +7514,16 @@
         <v>42024</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="K68" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L68" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="60">
@@ -7441,16 +7552,16 @@
         <v>42025</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="90">
@@ -7479,16 +7590,16 @@
         <v>42025</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="K70" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="90">
@@ -7514,16 +7625,16 @@
         <v>42025</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="345">
@@ -7552,10 +7663,10 @@
         <v>42026</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="L72" t="s">
         <v>29</v>
@@ -7587,16 +7698,16 @@
         <v>42026</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="75">
@@ -7625,16 +7736,16 @@
         <v>42025</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="30">
@@ -7663,16 +7774,16 @@
         <v>42026</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="30">
@@ -7701,16 +7812,16 @@
         <v>42026</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="75">
@@ -7739,16 +7850,16 @@
         <v>42026</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="K77" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30">
@@ -7777,16 +7888,16 @@
         <v>42026</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
       <c r="K78" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7815,16 +7926,16 @@
         <v>42026</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="45">
@@ -7850,16 +7961,16 @@
         <v>42026</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30">
@@ -7888,16 +7999,16 @@
         <v>42026</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="45">
@@ -7923,16 +8034,16 @@
         <v>42026</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="45">
@@ -7961,16 +8072,16 @@
         <v>42026</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="K83" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="30">
@@ -7999,16 +8110,16 @@
         <v>42026</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
       <c r="K84" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="30">
@@ -8037,16 +8148,16 @@
         <v>42026</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="105">
@@ -8075,13 +8186,13 @@
         <v>42030</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="K86" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
@@ -8113,16 +8224,16 @@
         <v>42030</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="K87" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="L87" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="135">
@@ -8151,16 +8262,16 @@
         <v>42030</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="K88" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="L88" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="30">
@@ -8189,16 +8300,16 @@
         <v>42030</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="K89" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="L89" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="75">
@@ -8227,16 +8338,16 @@
         <v>42030</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30">
@@ -8265,16 +8376,16 @@
         <v>42030</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="75">
@@ -8300,16 +8411,16 @@
         <v>42030</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="K92" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="90">
@@ -8338,16 +8449,16 @@
         <v>42030</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="K93" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="75">
@@ -8376,16 +8487,16 @@
         <v>42031</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="K94" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="75">
@@ -8414,16 +8525,16 @@
         <v>42031</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
       <c r="K95" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="60">
@@ -8452,16 +8563,16 @@
         <v>42031</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="K96" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="60">
@@ -8490,16 +8601,16 @@
         <v>42032</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="K97" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="45">
@@ -8528,16 +8639,16 @@
         <v>42032</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="K98" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="L98" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="60">
@@ -8566,16 +8677,16 @@
         <v>42032</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="K99" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="L99" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="120">
@@ -8604,16 +8715,16 @@
         <v>42032</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="K100" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="L100" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="75">
@@ -8642,16 +8753,16 @@
         <v>42017</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="K101" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="L101" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="75">
@@ -8680,16 +8791,16 @@
         <v>42017</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="K102" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="L102" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="45">
@@ -8718,16 +8829,16 @@
         <v>42032</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="K103" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="L103" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="60">
@@ -8756,16 +8867,16 @@
         <v>42032</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="K104" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="L104" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="90">
@@ -8794,16 +8905,16 @@
         <v>42032</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="K105" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
       <c r="L105" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="45">
@@ -8832,16 +8943,16 @@
         <v>42033</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="K106" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="L106" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="30">
@@ -8870,16 +8981,16 @@
         <v>42033</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="K107" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
       <c r="L107" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -8969,16 +9080,16 @@
         <v>42017</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="K110" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="L110" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45">
@@ -9007,16 +9118,16 @@
         <v>42025</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
       <c r="K111" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="L111" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="60">
@@ -9033,7 +9144,7 @@
         <v>438</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>439</v>
@@ -9042,16 +9153,16 @@
         <v>42025</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="90">
@@ -9080,16 +9191,16 @@
         <v>41660</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="30">
@@ -9118,16 +9229,16 @@
         <v>42033</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="30">
@@ -9156,16 +9267,16 @@
         <v>42033</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="K115" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="120">
@@ -9194,16 +9305,16 @@
         <v>42033</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="K116" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="90">
@@ -9232,16 +9343,16 @@
         <v>42033</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="K117" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -9523,16 +9634,16 @@
         <v>42025</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="K126" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L126" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="90">
@@ -9561,10 +9672,10 @@
         <v>42024</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="L127" t="s">
         <v>29</v>
@@ -9596,16 +9707,16 @@
         <v>42034</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>4</v>
+        <v>1221</v>
       </c>
       <c r="J128" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="K128" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="L128" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="45">
@@ -9634,19 +9745,19 @@
         <v>42034</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="K129" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L129" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="M129" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30">
@@ -9675,16 +9786,16 @@
         <v>42037</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="K130" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L130" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="45">
@@ -9713,16 +9824,16 @@
         <v>42037</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="K131" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
       <c r="L131" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="105">
@@ -9748,24 +9859,24 @@
         <v>42037</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>1456</v>
+        <v>1443</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="K132" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="L132" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="45">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>539</v>
@@ -9773,377 +9884,488 @@
       <c r="D133" t="s">
         <v>540</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="E133" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G133" t="s">
         <v>541</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="H133" s="7">
         <v>42037</v>
       </c>
       <c r="I133" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="45">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>542</v>
+      </c>
+      <c r="D134" t="s">
+        <v>543</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G134" t="s">
+        <v>544</v>
+      </c>
+      <c r="H134" s="7">
+        <v>42038</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="75">
+      <c r="A135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>545</v>
+      </c>
+      <c r="D135" t="s">
+        <v>546</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G135" t="s">
+        <v>547</v>
+      </c>
+      <c r="H135" s="7">
+        <v>42038</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1480</v>
+      </c>
+      <c r="L135" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="45">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>548</v>
+      </c>
+      <c r="D136" t="s">
+        <v>549</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G136" t="s">
+        <v>550</v>
+      </c>
+      <c r="H136" s="7">
+        <v>42038</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K136" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L136" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="45">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>551</v>
+      </c>
+      <c r="D137" t="s">
+        <v>552</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G137" t="s">
+        <v>553</v>
+      </c>
+      <c r="H137" s="7">
+        <v>42038</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="75">
+      <c r="A138" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>554</v>
+      </c>
+      <c r="D138" t="s">
+        <v>555</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F138" t="s">
         <v>1462</v>
       </c>
-      <c r="J133" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="K133" t="s">
+      <c r="G138" t="s">
+        <v>556</v>
+      </c>
+      <c r="H138" s="7">
+        <v>42038</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="45">
+      <c r="A139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>557</v>
+      </c>
+      <c r="D139" t="s">
+        <v>558</v>
+      </c>
+      <c r="E139" t="s">
         <v>1463</v>
       </c>
-      <c r="L133" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" t="s">
-        <v>223</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" t="s">
-        <v>543</v>
-      </c>
-      <c r="D134" t="s">
-        <v>544</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H134" t="s">
-        <v>29</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L134" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" t="s">
-        <v>223</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" t="s">
-        <v>547</v>
-      </c>
-      <c r="D135" t="s">
-        <v>548</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H135" t="s">
-        <v>29</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L135" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136" t="s">
-        <v>223</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" t="s">
-        <v>551</v>
-      </c>
-      <c r="D136" t="s">
-        <v>552</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="H136" t="s">
-        <v>29</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L136" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137" t="s">
-        <v>223</v>
-      </c>
-      <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" t="s">
-        <v>555</v>
-      </c>
-      <c r="D137" t="s">
-        <v>556</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="H137" t="s">
-        <v>29</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L137" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" t="s">
-        <v>223</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="F139" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G139" t="s">
         <v>559</v>
       </c>
-      <c r="D138" t="s">
+      <c r="H139" s="7">
+        <v>42039</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1487</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="45">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
         <v>560</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="D140" t="s">
         <v>561</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="E140" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G140" t="s">
         <v>562</v>
       </c>
-      <c r="H138" t="s">
-        <v>29</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L138" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" t="s">
-        <v>223</v>
-      </c>
-      <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="H140" s="7">
+        <v>42039</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L140" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="30">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
         <v>563</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D141" t="s">
         <v>564</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="E141" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G141" t="s">
         <v>565</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="H141" s="7">
+        <v>42039</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1490</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="30">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
         <v>566</v>
       </c>
-      <c r="H139" t="s">
-        <v>29</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L139" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" t="s">
-        <v>223</v>
-      </c>
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D142" t="s">
         <v>567</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E142" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G142" t="s">
         <v>568</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="H142" s="7">
+        <v>42039</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
         <v>569</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="D143" t="s">
         <v>570</v>
       </c>
-      <c r="H140" t="s">
-        <v>29</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L140" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" t="s">
-        <v>223</v>
-      </c>
-      <c r="B141" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="E143" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G143" t="s">
         <v>571</v>
       </c>
-      <c r="D141" t="s">
+      <c r="H143" s="7">
+        <v>42039</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L143" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
         <v>572</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="D144" t="s">
         <v>573</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="E144" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G144" t="s">
         <v>574</v>
       </c>
-      <c r="H141" t="s">
-        <v>29</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L141" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142" t="s">
-        <v>223</v>
-      </c>
-      <c r="B142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="H144" s="7">
+        <v>42039</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L144" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="45">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
         <v>575</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D145" t="s">
         <v>576</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="E145" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G145" t="s">
         <v>577</v>
       </c>
-      <c r="G142" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="H142" t="s">
-        <v>29</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L142" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143" t="s">
-        <v>223</v>
-      </c>
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" t="s">
-        <v>579</v>
-      </c>
-      <c r="D143" t="s">
-        <v>580</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="H143" t="s">
-        <v>29</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L143" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" t="s">
-        <v>223</v>
-      </c>
-      <c r="B144" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" t="s">
-        <v>583</v>
-      </c>
-      <c r="D144" t="s">
-        <v>584</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="H144" t="s">
-        <v>29</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L144" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" t="s">
-        <v>223</v>
-      </c>
-      <c r="B145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" t="s">
-        <v>587</v>
-      </c>
-      <c r="D145" t="s">
-        <v>588</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="H145" t="s">
-        <v>29</v>
+      <c r="H145" s="7">
+        <v>42039</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>29</v>
+        <v>1495</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K145" t="s">
+        <v>1496</v>
       </c>
       <c r="L145" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="75">
       <c r="A146" t="s">
         <v>223</v>
       </c>
@@ -10151,25 +10373,31 @@
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D146" t="s">
-        <v>592</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="H146" t="s">
-        <v>29</v>
+        <v>579</v>
+      </c>
+      <c r="F146" t="s">
+        <v>580</v>
+      </c>
+      <c r="G146" t="s">
+        <v>581</v>
+      </c>
+      <c r="H146" s="7">
+        <v>42039</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>29</v>
+        <v>1498</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K146" t="s">
+        <v>1499</v>
       </c>
       <c r="L146" t="s">
-        <v>29</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -10180,19 +10408,19 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="D147" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E147" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="H147" t="s">
         <v>29</v>
@@ -10212,19 +10440,19 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D148" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="E148" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="H148" t="s">
         <v>29</v>
@@ -10244,19 +10472,19 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D149" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E149" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="H149" t="s">
         <v>29</v>
@@ -10276,19 +10504,19 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D150" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="E150" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="H150" t="s">
         <v>29</v>
@@ -10308,19 +10536,19 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D151" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="E151" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="H151" t="s">
         <v>29</v>
@@ -10340,19 +10568,19 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D152" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E152" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="H152" t="s">
         <v>29</v>
@@ -10372,19 +10600,19 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D153" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E153" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="H153" t="s">
         <v>29</v>
@@ -10404,19 +10632,19 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="D154" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E154" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="H154" t="s">
         <v>29</v>
@@ -10436,19 +10664,19 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="D155" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E155" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="H155" t="s">
         <v>29</v>
@@ -10468,16 +10696,16 @@
         <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="D156" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="H156" t="s">
         <v>29</v>
@@ -10494,16 +10722,16 @@
         <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D157" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="H157" t="s">
         <v>29</v>
@@ -10520,16 +10748,16 @@
         <v>46</v>
       </c>
       <c r="B158" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D158" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="H158" t="s">
         <v>29</v>
@@ -10546,16 +10774,16 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D159" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="H159" t="s">
         <v>29</v>
@@ -10572,16 +10800,16 @@
         <v>46</v>
       </c>
       <c r="B160" t="s">
+        <v>631</v>
+      </c>
+      <c r="D160" t="s">
+        <v>642</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="D160" t="s">
-        <v>655</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="H160" t="s">
         <v>29</v>
@@ -10598,16 +10826,16 @@
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D161" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="H161" t="s">
         <v>29</v>
@@ -10624,16 +10852,16 @@
         <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D162" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="H162" t="s">
         <v>29</v>
@@ -10650,16 +10878,16 @@
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D163" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="H163" t="s">
         <v>29</v>
@@ -10676,16 +10904,16 @@
         <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D164" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="H164" t="s">
         <v>29</v>
@@ -10702,16 +10930,16 @@
         <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D165" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="H165" t="s">
         <v>29</v>
@@ -10728,16 +10956,16 @@
         <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D166" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="H166" t="s">
         <v>29</v>
@@ -10754,16 +10982,16 @@
         <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D167" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="H167" t="s">
         <v>29</v>
@@ -10780,16 +11008,16 @@
         <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D168" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="H168" t="s">
         <v>29</v>
@@ -10806,16 +11034,16 @@
         <v>46</v>
       </c>
       <c r="B169" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D169" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="H169" t="s">
         <v>29</v>
@@ -10832,16 +11060,16 @@
         <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D170" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="H170" t="s">
         <v>29</v>
@@ -10858,16 +11086,16 @@
         <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D171" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="H171" t="s">
         <v>29</v>
@@ -10884,16 +11112,16 @@
         <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D172" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="H172" t="s">
         <v>29</v>
@@ -10910,16 +11138,16 @@
         <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D173" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="H173" t="s">
         <v>29</v>
@@ -10936,16 +11164,16 @@
         <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D174" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="H174" t="s">
         <v>29</v>
@@ -10962,16 +11190,16 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="D175" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="H175" t="s">
         <v>29</v>
@@ -10988,16 +11216,16 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D176" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="H176" t="s">
         <v>29</v>
@@ -11014,16 +11242,16 @@
         <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D177" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="H177" t="s">
         <v>29</v>
@@ -11040,16 +11268,16 @@
         <v>46</v>
       </c>
       <c r="B178" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D178" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="H178" t="s">
         <v>29</v>
@@ -11066,16 +11294,16 @@
         <v>46</v>
       </c>
       <c r="B179" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D179" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="H179" t="s">
         <v>29</v>
@@ -11092,16 +11320,16 @@
         <v>46</v>
       </c>
       <c r="B180" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D180" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="H180" t="s">
         <v>29</v>
@@ -11118,16 +11346,16 @@
         <v>46</v>
       </c>
       <c r="B181" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D181" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="H181" t="s">
         <v>29</v>
@@ -11144,16 +11372,16 @@
         <v>46</v>
       </c>
       <c r="B182" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D182" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="H182" t="s">
         <v>29</v>
@@ -11170,16 +11398,16 @@
         <v>46</v>
       </c>
       <c r="B183" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D183" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="H183" t="s">
         <v>29</v>
@@ -11199,13 +11427,13 @@
         <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H184" t="s">
         <v>29</v>
@@ -11225,13 +11453,13 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="H185" t="s">
         <v>29</v>
@@ -11251,13 +11479,13 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="H186" t="s">
         <v>29</v>
@@ -11277,13 +11505,13 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="H187" t="s">
         <v>29</v>
@@ -11303,13 +11531,13 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="H188" t="s">
         <v>29</v>
@@ -11323,25 +11551,25 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B189" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C189" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="D189" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="E189" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="H189" t="s">
         <v>29</v>
@@ -11361,13 +11589,13 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="H190" t="s">
         <v>29</v>
@@ -11387,13 +11615,13 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="H191" t="s">
         <v>29</v>
@@ -11413,19 +11641,19 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="D192" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="E192" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="H192" t="s">
         <v>29</v>
@@ -11445,19 +11673,19 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D193" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E193" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="H193" t="s">
         <v>29</v>
@@ -11477,13 +11705,13 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="H194" t="s">
         <v>29</v>
@@ -11503,13 +11731,13 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="H195" t="s">
         <v>29</v>
@@ -11529,13 +11757,13 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="H196" t="s">
         <v>29</v>
@@ -11555,16 +11783,16 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D197" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="H197" t="s">
         <v>29</v>
@@ -11584,16 +11812,16 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="D198" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="H198" t="s">
         <v>29</v>
@@ -11613,25 +11841,25 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="H199" s="7">
         <v>42020</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="K199" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="L199" t="s">
         <v>29</v>
@@ -11645,25 +11873,25 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="H200" s="7">
         <v>42020</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="K200" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="L200" t="s">
         <v>29</v>
@@ -11671,25 +11899,25 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B201" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C201" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D201" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="E201" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="H201" t="s">
         <v>29</v>
@@ -11703,25 +11931,25 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B202" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C202" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D202" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E202" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="H202" t="s">
         <v>29</v>
@@ -11735,25 +11963,25 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B203" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C203" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="D203" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="E203" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="H203" t="s">
         <v>29</v>
@@ -11773,13 +12001,13 @@
         <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="H204" t="s">
         <v>29</v>
@@ -11793,25 +12021,25 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B205" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C205" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="D205" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E205" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="H205" t="s">
         <v>29</v>
@@ -11825,25 +12053,25 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B206" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C206" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="D206" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="E206" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="H206" t="s">
         <v>29</v>
@@ -11863,13 +12091,13 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="H207" t="s">
         <v>29</v>
@@ -11889,13 +12117,13 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="H208" t="s">
         <v>29</v>
@@ -11909,25 +12137,25 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B209" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C209" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="D209" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="E209" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="H209" t="s">
         <v>29</v>
@@ -11947,16 +12175,16 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D210" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="H210" t="s">
         <v>29</v>
@@ -11976,16 +12204,16 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="D211" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="H211" t="s">
         <v>29</v>
@@ -12005,13 +12233,13 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="H212" t="s">
         <v>29</v>
@@ -12031,13 +12259,13 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="H213" t="s">
         <v>29</v>
@@ -12057,13 +12285,13 @@
         <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="H214" t="s">
         <v>29</v>
@@ -12083,16 +12311,16 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D215" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="H215" t="s">
         <v>29</v>
@@ -12112,13 +12340,13 @@
         <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="H216" t="s">
         <v>29</v>
@@ -12138,13 +12366,13 @@
         <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="H217" t="s">
         <v>29</v>
@@ -12161,28 +12389,28 @@
         <v>46</v>
       </c>
       <c r="B218" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D218" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="H218" s="7">
         <v>42037</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K218" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L218" t="s">
         <v>29</v>
@@ -12193,28 +12421,28 @@
         <v>46</v>
       </c>
       <c r="B219" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D219" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="H219" s="7">
         <v>42037</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K219" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L219" t="s">
         <v>29</v>
@@ -12225,28 +12453,28 @@
         <v>46</v>
       </c>
       <c r="B220" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D220" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="H220" s="7">
         <v>42037</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K220" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L220" t="s">
         <v>29</v>
@@ -12257,28 +12485,28 @@
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D221" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="H221" s="7">
         <v>42037</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K221" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L221" t="s">
         <v>29</v>
@@ -12289,28 +12517,28 @@
         <v>46</v>
       </c>
       <c r="B222" t="s">
+        <v>835</v>
+      </c>
+      <c r="D222" t="s">
         <v>848</v>
       </c>
-      <c r="D222" t="s">
-        <v>861</v>
-      </c>
       <c r="F222" s="5" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="H222" s="7">
         <v>42037</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K222" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L222" t="s">
         <v>29</v>
@@ -12321,28 +12549,28 @@
         <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D223" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="H223" s="7">
         <v>42037</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K223" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L223" t="s">
         <v>29</v>
@@ -12353,28 +12581,28 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D224" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="H224" s="7">
         <v>42037</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K224" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L224" t="s">
         <v>29</v>
@@ -12385,28 +12613,28 @@
         <v>46</v>
       </c>
       <c r="B225" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D225" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="H225" s="7">
         <v>42037</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K225" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L225" t="s">
         <v>29</v>
@@ -12417,28 +12645,28 @@
         <v>46</v>
       </c>
       <c r="B226" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D226" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="H226" s="7">
         <v>42037</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K226" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L226" t="s">
         <v>29</v>
@@ -12449,28 +12677,28 @@
         <v>46</v>
       </c>
       <c r="B227" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D227" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="H227" s="7">
         <v>42037</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K227" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L227" t="s">
         <v>29</v>
@@ -12481,28 +12709,28 @@
         <v>46</v>
       </c>
       <c r="B228" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D228" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="H228" s="7">
         <v>42037</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K228" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L228" t="s">
         <v>29</v>
@@ -12513,28 +12741,28 @@
         <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D229" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="H229" s="7">
         <v>42037</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K229" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L229" t="s">
         <v>29</v>
@@ -12545,28 +12773,28 @@
         <v>46</v>
       </c>
       <c r="B230" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D230" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="H230" s="7">
         <v>42037</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K230" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L230" t="s">
         <v>29</v>
@@ -12577,28 +12805,28 @@
         <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D231" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="H231" s="7">
         <v>42037</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K231" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L231" t="s">
         <v>29</v>
@@ -12609,28 +12837,28 @@
         <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D232" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="H232" s="7">
         <v>42037</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K232" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L232" t="s">
         <v>29</v>
@@ -12641,28 +12869,28 @@
         <v>46</v>
       </c>
       <c r="B233" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D233" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="H233" s="7">
         <v>42037</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K233" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L233" t="s">
         <v>29</v>
@@ -12673,28 +12901,28 @@
         <v>46</v>
       </c>
       <c r="B234" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D234" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="H234" s="7">
         <v>42037</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K234" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L234" t="s">
         <v>29</v>
@@ -12705,28 +12933,28 @@
         <v>46</v>
       </c>
       <c r="B235" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D235" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="H235" s="7">
         <v>42037</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K235" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L235" t="s">
         <v>29</v>
@@ -12737,28 +12965,28 @@
         <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D236" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="H236" s="7">
         <v>42037</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="K236" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L236" t="s">
         <v>29</v>
@@ -12772,13 +13000,13 @@
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="H237" t="s">
         <v>29</v>
@@ -12798,13 +13026,13 @@
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="H238" t="s">
         <v>29</v>
@@ -12824,16 +13052,16 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="D239" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="H239" t="s">
         <v>29</v>
@@ -12853,13 +13081,13 @@
         <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="H240" t="s">
         <v>29</v>
@@ -12879,16 +13107,16 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="D241" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="H241" t="s">
         <v>29</v>
@@ -12908,16 +13136,16 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="D242" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="H242" t="s">
         <v>29</v>
@@ -12937,16 +13165,16 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="D243" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="H243" t="s">
         <v>29</v>
@@ -12966,16 +13194,16 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="D244" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="H244" t="s">
         <v>29</v>
@@ -12995,16 +13223,16 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="D245" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="H245" t="s">
         <v>29</v>
@@ -13024,13 +13252,13 @@
         <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="H246" t="s">
         <v>29</v>
@@ -13050,16 +13278,16 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="D247" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="H247" t="s">
         <v>29</v>
@@ -13079,13 +13307,13 @@
         <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="H248" t="s">
         <v>29</v>
@@ -13105,16 +13333,16 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="D249" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="H249" t="s">
         <v>29</v>
@@ -13134,16 +13362,16 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="D250" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="H250" t="s">
         <v>29</v>
@@ -13163,16 +13391,16 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="D251" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="H251" t="s">
         <v>29</v>
@@ -13192,16 +13420,16 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="D252" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="H252" t="s">
         <v>29</v>
@@ -13221,16 +13449,16 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="D253" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="H253" t="s">
         <v>29</v>
@@ -13250,16 +13478,16 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="D254" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="H254" t="s">
         <v>29</v>
@@ -13279,16 +13507,16 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="D255" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="H255" t="s">
         <v>29</v>
@@ -13308,16 +13536,16 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="D256" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="H256" t="s">
         <v>29</v>
@@ -13337,16 +13565,16 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="D257" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="H257" t="s">
         <v>29</v>
@@ -13366,16 +13594,16 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D258" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="H258" t="s">
         <v>29</v>
@@ -13395,16 +13623,16 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="D259" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="H259" t="s">
         <v>29</v>
@@ -13424,16 +13652,16 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="D260" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="H260" t="s">
         <v>29</v>
@@ -13453,16 +13681,16 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="D261" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="H261" t="s">
         <v>29</v>
@@ -13482,16 +13710,16 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="D262" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="H262" t="s">
         <v>29</v>
@@ -13511,16 +13739,16 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="D263" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="H263" t="s">
         <v>29</v>
@@ -13540,16 +13768,16 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="D264" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="H264" t="s">
         <v>29</v>
@@ -13563,25 +13791,25 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B265" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C265" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="D265" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="E265" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="H265" t="s">
         <v>29</v>
@@ -13595,25 +13823,25 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B266" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C266" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="D266" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="E266" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="H266" t="s">
         <v>29</v>
@@ -13627,25 +13855,25 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B267" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C267" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="D267" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="E267" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="H267" t="s">
         <v>29</v>
@@ -13659,25 +13887,25 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B268" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C268" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D268" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="E268" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="H268" t="s">
         <v>29</v>
@@ -13691,25 +13919,25 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B269" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C269" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="D269" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E269" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="H269" t="s">
         <v>29</v>
@@ -13723,25 +13951,25 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B270" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C270" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="D270" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="E270" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="H270" t="s">
         <v>29</v>
@@ -13755,25 +13983,25 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B271" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C271" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="D271" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="E271" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="H271" t="s">
         <v>29</v>
@@ -13787,25 +14015,25 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B272" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C272" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="D272" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E272" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="H272" t="s">
         <v>29</v>
@@ -13819,25 +14047,25 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B273" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C273" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="D273" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="E273" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="H273" t="s">
         <v>29</v>
@@ -13851,25 +14079,25 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B274" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C274" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D274" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="E274" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="H274" t="s">
         <v>29</v>
@@ -13883,25 +14111,25 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B275" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C275" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="D275" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="E275" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="H275" t="s">
         <v>29</v>
@@ -13915,25 +14143,25 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B276" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C276" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="D276" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="E276" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="H276" t="s">
         <v>29</v>
@@ -13953,16 +14181,16 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="D277" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="H277" t="s">
         <v>29</v>
@@ -13982,16 +14210,16 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="D278" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="H278" t="s">
         <v>29</v>
@@ -14011,16 +14239,16 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="D279" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="H279" t="s">
         <v>29</v>
@@ -14040,16 +14268,16 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="D280" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="H280" t="s">
         <v>29</v>
@@ -14069,16 +14297,16 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="D281" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="H281" t="s">
         <v>29</v>
@@ -14098,16 +14326,16 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="D282" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="H282" t="s">
         <v>29</v>
@@ -14127,16 +14355,16 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="D283" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="H283" t="s">
         <v>29</v>
@@ -14156,16 +14384,16 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="D284" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="H284" t="s">
         <v>29</v>
@@ -14185,16 +14413,16 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="D285" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="H285" t="s">
         <v>29</v>
@@ -14214,16 +14442,16 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="D286" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="H286" t="s">
         <v>29</v>
@@ -14243,16 +14471,16 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="D287" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="H287" t="s">
         <v>29</v>
@@ -14272,16 +14500,16 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="D288" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="H288" t="s">
         <v>29</v>
@@ -14301,16 +14529,16 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="D289" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="H289" t="s">
         <v>29</v>
@@ -14324,25 +14552,25 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B290" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C290" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="D290" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="E290" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="H290" t="s">
         <v>29</v>
@@ -14362,16 +14590,16 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="D291" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="H291" t="s">
         <v>29</v>
@@ -14391,13 +14619,13 @@
         <v>5</v>
       </c>
       <c r="D292" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="H292" t="s">
         <v>29</v>
@@ -14417,16 +14645,16 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="D293" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="H293" t="s">
         <v>29</v>
@@ -14446,16 +14674,16 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="D294" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="H294" t="s">
         <v>29</v>
@@ -14475,16 +14703,16 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="D295" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="H295" t="s">
         <v>29</v>
@@ -14504,16 +14732,16 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="D296" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="H296" t="s">
         <v>29</v>
@@ -14533,16 +14761,16 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="D297" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="H297" t="s">
         <v>29</v>
@@ -14562,16 +14790,16 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="D298" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="H298" t="s">
         <v>29</v>
@@ -14591,13 +14819,13 @@
         <v>5</v>
       </c>
       <c r="D299" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="H299" t="s">
         <v>29</v>
@@ -14617,16 +14845,16 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="D300" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="H300" t="s">
         <v>29</v>
@@ -14646,16 +14874,16 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="D301" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="H301" t="s">
         <v>29</v>
@@ -14675,16 +14903,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="D302" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="H302" t="s">
         <v>29</v>
@@ -14704,16 +14932,16 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="D303" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="H303" t="s">
         <v>29</v>
@@ -14727,25 +14955,25 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B304" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C304" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="D304" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="E304" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="H304" t="s">
         <v>29</v>
@@ -14759,25 +14987,25 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B305" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C305" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="D305" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="E305" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="H305" t="s">
         <v>29</v>
@@ -14797,16 +15025,16 @@
         <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="D306" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="H306" t="s">
         <v>29</v>
@@ -14826,13 +15054,13 @@
         <v>5</v>
       </c>
       <c r="D307" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="H307" t="s">
         <v>29</v>
@@ -14852,16 +15080,16 @@
         <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="D308" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="H308" t="s">
         <v>29</v>
@@ -14875,25 +15103,25 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B309" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C309" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="D309" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="E309" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="H309" t="s">
         <v>29</v>
@@ -14913,16 +15141,16 @@
         <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="D310" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="H310" t="s">
         <v>29</v>
@@ -14942,16 +15170,16 @@
         <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="D311" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="H311" t="s">
         <v>29</v>
@@ -14971,16 +15199,16 @@
         <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="D312" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="H312" t="s">
         <v>29</v>
@@ -15000,16 +15228,16 @@
         <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="D313" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="H313" t="s">
         <v>29</v>
@@ -15029,16 +15257,16 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="D314" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="H314" t="s">
         <v>29</v>
@@ -15058,16 +15286,16 @@
         <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="D315" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="H315" t="s">
         <v>29</v>
@@ -15087,13 +15315,13 @@
         <v>5</v>
       </c>
       <c r="D316" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="H316" t="s">
         <v>29</v>
@@ -15113,16 +15341,16 @@
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D317" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="H317" t="s">
         <v>29</v>
@@ -15142,13 +15370,13 @@
         <v>5</v>
       </c>
       <c r="D318" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="H318" t="s">
         <v>29</v>
@@ -15162,25 +15390,25 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B319" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C319" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="D319" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="E319" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="H319" t="s">
         <v>29</v>
@@ -15194,7 +15422,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="B320">
         <v>305</v>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1515">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -1901,9 +1901,6 @@
   </si>
   <si>
     <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/web/struts/action/KraTransactionalDocumentActionBase.java</t>
-  </si>
-  <si>
-    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/web/struts/action/KraTransactionalDocumentActionBase.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/web/struts/action/KraTransactionalDocumentActionBase.java</t>
   </si>
   <si>
     <t>gitk ./main/java/org/kuali/kra/web/struts/action/KraTransactionalDocumentActionBase.java</t>
@@ -3696,9 +3693,6 @@
   <si>
     <t>KC-335: Add Unit Number to Award qualifications so anyone with correct permissions can submit Award. Disable INITIATOR_MUST_ROUTE policy for Award and Time and Money documents.
 KC-335: Add Unit Number to Award qualifications so anyone with correct permissions can submit Award. Disable INITIATOR_MUST_ROUTE policy for Award and Time and Money documents.</t>
-  </si>
-  <si>
-    <t>New Locaion</t>
   </si>
   <si>
     <t>coeus-db/coeus-db-xml/src/main/resources/org/kuali/coeus/coeus-xml/2/AwardDocument.xml</t>
@@ -4579,6 +4573,61 @@
   </si>
   <si>
     <t>coeus-s2sgen-impl/src/main/java/org/kuali/coeus/s2sgen/impl/person/DepartmentalPersonServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-476 Error loading Award Hierarchy occurs for some Awards when using Firefox or Chrome</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/award/service/impl/AwardHierarchyUIServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-364 remove spaces from "invalid char" check for attachments</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/attachment/KcAttachmentServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-584 New Notification Emails need to have UH reroute enhancement added</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/mail/KcEmailServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-679 New Routing in 5.1.1 - Allow unit administrator maintenance edit and copy ability.
+We don't really need this because of Justin's tool but it can't hurt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeus-impl/src/main/java/org/kuali/coeus/common/impl/unit/admin/UnitAdministratorLookupableHelperServiceImpl.java </t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/common/impl/ynq/YnqServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-505 Make Certification Questions required for Key Persons (Don't require for non-employees unless opted in)</t>
+  </si>
+  <si>
+    <t>KC-363 Move Disapprove button and fix broken image copy of reload button on time and money docs</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/timeandmoney/TimeAndMoneyForm.java</t>
+  </si>
+  <si>
+    <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src//main/java/org/kuali/kra/web/struts/action/KraTransactionalDocumentActionBase.java /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/java/org/kuali/kra/web/struts/action/KraTransactionalDocumentActionBase.java /cygdrive/c/Users/ronald/github/UhKc//coeus-impl/src/main/java/org/kuali/coeus/sys/framework/controller/KcTransactionalDocumentActionBase.java /cygdrive/c/Users/ronald/github/UhKc//coeus-impl/src/main/java/org/kuali/coeus/sys/framework/controller/KcTransactionalDocumentActionBase.java</t>
+  </si>
+  <si>
+    <t>Removed-Fixed in KC60
+They renamed this file however the fix is in that renamed file anyway.</t>
+  </si>
+  <si>
+    <t>New Location</t>
+  </si>
+  <si>
+    <t>KC-733 No Cost Extension hard coded to trans code of 10
+KC-727 TimeAndMoney, Direct/F&amp;A Funds Distribution fields not saving
+KC-656 remove the call to refresh view because it was causing the parent award obligated/anticipated amounts to double - possible race condition?</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/kra/timeandmoney/web/struts/action/TimeAndMoneyAction.java</t>
   </si>
 </sst>
 </file>
@@ -5433,10 +5482,10 @@
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="G156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="J144" sqref="J144"/>
+      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5490,14 +5539,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5513,10 +5562,10 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>1.2946428571428572</v>
+        <v>1.3839285714285714</v>
       </c>
       <c r="H7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I7" s="3">
         <f>COUNTIF(I13:I400,"Keep*")</f>
@@ -5539,11 +5588,11 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5562,7 +5611,7 @@
         <v>9.8214285714285712E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
@@ -5582,7 +5631,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5617,19 +5666,19 @@
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1227</v>
+        <v>1512</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45">
@@ -5658,16 +5707,16 @@
         <v>42013</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K13" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="L13" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
@@ -5696,16 +5745,16 @@
         <v>42013</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K14" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L14" t="s">
         <v>1230</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45">
@@ -5734,16 +5783,16 @@
         <v>42016</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K15" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="L15" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45">
@@ -5772,16 +5821,16 @@
         <v>42016</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K16" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L16" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="150">
@@ -5804,16 +5853,16 @@
         <v>42016</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K17" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="L17" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45">
@@ -5836,16 +5885,16 @@
         <v>42016</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K18" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L18" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45">
@@ -5868,16 +5917,16 @@
         <v>42016</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K19" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="L19" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="210">
@@ -5900,16 +5949,16 @@
         <v>42016</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K20" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="L20" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60">
@@ -5932,16 +5981,16 @@
         <v>42016</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K21" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="L21" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="90">
@@ -5964,13 +6013,13 @@
         <v>42016</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K22" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30">
@@ -5993,16 +6042,16 @@
         <v>42016</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30">
@@ -6025,16 +6074,16 @@
         <v>42016</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
@@ -6057,16 +6106,16 @@
         <v>42016</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30">
@@ -6089,16 +6138,16 @@
         <v>42016</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="K26" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45">
@@ -6121,16 +6170,16 @@
         <v>42016</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="K27" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="300">
@@ -6153,16 +6202,16 @@
         <v>42016</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="K28" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="105">
@@ -6185,16 +6234,16 @@
         <v>42016</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K29" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="105">
@@ -6217,16 +6266,16 @@
         <v>42016</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K30" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="180">
@@ -6249,48 +6298,48 @@
         <v>42016</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="K31" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60">
       <c r="A32" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D32" t="s">
         <v>1301</v>
       </c>
-      <c r="B32" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1303</v>
-      </c>
       <c r="E32" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H32" s="7">
         <v>42016</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45">
@@ -6313,16 +6362,16 @@
         <v>42016</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K33" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="45">
@@ -6345,16 +6394,16 @@
         <v>42016</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K34" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -6377,16 +6426,16 @@
         <v>42016</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K35" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -6409,16 +6458,16 @@
         <v>42016</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K36" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -6441,16 +6490,16 @@
         <v>42016</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K37" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45">
@@ -6473,16 +6522,16 @@
         <v>42016</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K38" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -6505,16 +6554,16 @@
         <v>42016</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K39" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30">
@@ -6537,16 +6586,16 @@
         <v>42016</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="K40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30">
@@ -6569,16 +6618,16 @@
         <v>42016</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="K41" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30">
@@ -6601,16 +6650,16 @@
         <v>42016</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="K42" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30">
@@ -6633,16 +6682,16 @@
         <v>42016</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="K43" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45">
@@ -6665,16 +6714,16 @@
         <v>42016</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="K44" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="210">
@@ -6697,16 +6746,16 @@
         <v>42016</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="K45" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="60">
@@ -6729,16 +6778,16 @@
         <v>42016</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="K46" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="60">
@@ -6761,16 +6810,16 @@
         <v>42016</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="K47" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="150">
@@ -6793,16 +6842,16 @@
         <v>42016</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K48" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="60">
@@ -6825,16 +6874,16 @@
         <v>42016</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K49" t="s">
         <v>1276</v>
       </c>
-      <c r="K49" t="s">
-        <v>1278</v>
-      </c>
       <c r="L49" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="75">
@@ -6857,16 +6906,16 @@
         <v>42016</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K50" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="45">
@@ -6889,16 +6938,16 @@
         <v>42016</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="K51" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="150">
@@ -6921,16 +6970,16 @@
         <v>42016</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="K52" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30">
@@ -6953,16 +7002,16 @@
         <v>42016</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="K53" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="45">
@@ -6985,16 +7034,16 @@
         <v>42016</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K54" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="150">
@@ -7023,16 +7072,16 @@
         <v>42016</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="K55" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="135">
@@ -7061,16 +7110,16 @@
         <v>42016</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="K56" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L56" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="60">
@@ -7099,16 +7148,16 @@
         <v>42018</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="K57" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="L57" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="180">
@@ -7137,16 +7186,16 @@
         <v>42019</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="K58" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="L58" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30">
@@ -7175,16 +7224,16 @@
         <v>42019</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="K59" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="L59" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30">
@@ -7213,16 +7262,16 @@
         <v>42019</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="K60" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="L60" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="285">
@@ -7251,16 +7300,16 @@
         <v>42019</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="K61" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L61" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30">
@@ -7289,16 +7338,16 @@
         <v>42019</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="K62" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="L62" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="75">
@@ -7327,16 +7376,16 @@
         <v>42019</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="K63" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="L63" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="75">
@@ -7365,16 +7414,16 @@
         <v>42019</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J64" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K64" t="s">
         <v>1332</v>
       </c>
-      <c r="K64" t="s">
-        <v>1334</v>
-      </c>
       <c r="L64" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="75">
@@ -7403,13 +7452,13 @@
         <v>42019</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="K65" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="L65" t="s">
         <v>29</v>
@@ -7441,16 +7490,16 @@
         <v>42017</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J66" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="K66" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L66" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="30">
@@ -7479,16 +7528,16 @@
         <v>42019</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="K67" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="L67" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="270">
@@ -7505,7 +7554,7 @@
         <v>225</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>226</v>
@@ -7514,16 +7563,16 @@
         <v>42024</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="K68" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L68" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="60">
@@ -7552,16 +7601,16 @@
         <v>42025</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="90">
@@ -7590,16 +7639,16 @@
         <v>42025</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="K70" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="90">
@@ -7625,16 +7674,16 @@
         <v>42025</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="345">
@@ -7663,10 +7712,10 @@
         <v>42026</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="L72" t="s">
         <v>29</v>
@@ -7698,16 +7747,16 @@
         <v>42026</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="75">
@@ -7736,16 +7785,16 @@
         <v>42025</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="30">
@@ -7774,16 +7823,16 @@
         <v>42026</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="30">
@@ -7812,16 +7861,16 @@
         <v>42026</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="75">
@@ -7850,16 +7899,16 @@
         <v>42026</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K77" t="s">
         <v>1359</v>
       </c>
-      <c r="K77" t="s">
-        <v>1361</v>
-      </c>
       <c r="L77" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30">
@@ -7888,16 +7937,16 @@
         <v>42026</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="K78" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7926,16 +7975,16 @@
         <v>42026</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="45">
@@ -7961,16 +8010,16 @@
         <v>42026</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30">
@@ -7999,16 +8048,16 @@
         <v>42026</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="45">
@@ -8034,16 +8083,16 @@
         <v>42026</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="45">
@@ -8072,16 +8121,16 @@
         <v>42026</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="K83" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="30">
@@ -8110,16 +8159,16 @@
         <v>42026</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="K84" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="30">
@@ -8148,16 +8197,16 @@
         <v>42026</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="105">
@@ -8186,13 +8235,13 @@
         <v>42030</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="K86" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
@@ -8224,16 +8273,16 @@
         <v>42030</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="K87" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="L87" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="135">
@@ -8262,16 +8311,16 @@
         <v>42030</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K88" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="L88" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="30">
@@ -8300,16 +8349,16 @@
         <v>42030</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="K89" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="L89" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="75">
@@ -8338,16 +8387,16 @@
         <v>42030</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30">
@@ -8376,16 +8425,16 @@
         <v>42030</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="75">
@@ -8411,16 +8460,16 @@
         <v>42030</v>
       </c>
       <c r="I92" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>1397</v>
-      </c>
       <c r="K92" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L92" s="5" t="s">
         <v>1394</v>
-      </c>
-      <c r="L92" s="5" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="90">
@@ -8449,16 +8498,16 @@
         <v>42030</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="K93" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="75">
@@ -8487,16 +8536,16 @@
         <v>42031</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K94" t="s">
         <v>1400</v>
       </c>
-      <c r="K94" t="s">
-        <v>1402</v>
-      </c>
       <c r="L94" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="75">
@@ -8525,16 +8574,16 @@
         <v>42031</v>
       </c>
       <c r="I95" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L95" s="5" t="s">
         <v>1404</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1405</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="60">
@@ -8563,16 +8612,16 @@
         <v>42031</v>
       </c>
       <c r="I96" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K96" t="s">
         <v>1407</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1409</v>
-      </c>
       <c r="L96" s="5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="60">
@@ -8601,16 +8650,16 @@
         <v>42032</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="K97" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="45">
@@ -8639,16 +8688,16 @@
         <v>42032</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="K98" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="L98" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="60">
@@ -8677,16 +8726,16 @@
         <v>42032</v>
       </c>
       <c r="I99" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K99" t="s">
         <v>1414</v>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="K99" t="s">
-        <v>1416</v>
-      </c>
       <c r="L99" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="120">
@@ -8715,16 +8764,16 @@
         <v>42032</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="K100" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="L100" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="75">
@@ -8753,16 +8802,16 @@
         <v>42017</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="K101" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L101" t="s">
         <v>1292</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="75">
@@ -8791,16 +8840,16 @@
         <v>42017</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="K102" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="L102" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="45">
@@ -8829,16 +8878,16 @@
         <v>42032</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="K103" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L103" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="60">
@@ -8867,16 +8916,16 @@
         <v>42032</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="K104" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="L104" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="90">
@@ -8905,16 +8954,16 @@
         <v>42032</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="K105" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="L105" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="45">
@@ -8943,16 +8992,16 @@
         <v>42033</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="K106" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="L106" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="30">
@@ -8981,16 +9030,16 @@
         <v>42033</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="K107" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="L107" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -9080,16 +9129,16 @@
         <v>42017</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="K110" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="L110" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45">
@@ -9118,16 +9167,16 @@
         <v>42025</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J111" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K111" t="s">
         <v>1341</v>
       </c>
-      <c r="K111" t="s">
-        <v>1343</v>
-      </c>
       <c r="L111" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="60">
@@ -9144,7 +9193,7 @@
         <v>438</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>439</v>
@@ -9153,16 +9202,16 @@
         <v>42025</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="90">
@@ -9191,16 +9240,16 @@
         <v>41660</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="30">
@@ -9229,16 +9278,16 @@
         <v>42033</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="30">
@@ -9267,16 +9316,16 @@
         <v>42033</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K115" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="120">
@@ -9305,16 +9354,16 @@
         <v>42033</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="K116" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="90">
@@ -9343,16 +9392,16 @@
         <v>42033</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K117" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -9634,16 +9683,16 @@
         <v>42025</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="K126" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L126" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="90">
@@ -9672,10 +9721,10 @@
         <v>42024</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="L127" t="s">
         <v>29</v>
@@ -9707,16 +9756,16 @@
         <v>42034</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J128" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="K128" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="L128" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="45">
@@ -9745,19 +9794,19 @@
         <v>42034</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="K129" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L129" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="M129" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30">
@@ -9786,16 +9835,16 @@
         <v>42037</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K130" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L130" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="45">
@@ -9824,16 +9873,16 @@
         <v>42037</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="K131" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="L131" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="105">
@@ -9859,16 +9908,16 @@
         <v>42037</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="K132" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L132" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="45">
@@ -9885,10 +9934,10 @@
         <v>540</v>
       </c>
       <c r="E133" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F133" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G133" t="s">
         <v>541</v>
@@ -9897,16 +9946,16 @@
         <v>42037</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="J133" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K133" t="s">
         <v>1448</v>
       </c>
-      <c r="K133" t="s">
-        <v>1450</v>
-      </c>
       <c r="L133" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="45">
@@ -9923,10 +9972,10 @@
         <v>543</v>
       </c>
       <c r="E134" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F134" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G134" t="s">
         <v>544</v>
@@ -9935,16 +9984,16 @@
         <v>42038</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="K134" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="L134" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="75">
@@ -9961,10 +10010,10 @@
         <v>546</v>
       </c>
       <c r="E135" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F135" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G135" t="s">
         <v>547</v>
@@ -9973,16 +10022,16 @@
         <v>42038</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="K135" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="L135" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="45">
@@ -9999,10 +10048,10 @@
         <v>549</v>
       </c>
       <c r="E136" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="F136" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G136" t="s">
         <v>550</v>
@@ -10011,16 +10060,16 @@
         <v>42038</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="K136" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="L136" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="45">
@@ -10037,10 +10086,10 @@
         <v>552</v>
       </c>
       <c r="E137" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F137" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G137" t="s">
         <v>553</v>
@@ -10049,16 +10098,16 @@
         <v>42038</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="K137" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="L137" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="75">
@@ -10075,10 +10124,10 @@
         <v>555</v>
       </c>
       <c r="E138" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="F138" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G138" t="s">
         <v>556</v>
@@ -10087,16 +10136,16 @@
         <v>42038</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="J138" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K138" t="s">
         <v>1484</v>
       </c>
-      <c r="K138" t="s">
-        <v>1486</v>
-      </c>
       <c r="L138" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="45">
@@ -10113,10 +10162,10 @@
         <v>558</v>
       </c>
       <c r="E139" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F139" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G139" t="s">
         <v>559</v>
@@ -10125,16 +10174,16 @@
         <v>42039</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="K139" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="L139" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="45">
@@ -10151,10 +10200,10 @@
         <v>561</v>
       </c>
       <c r="E140" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="F140" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G140" t="s">
         <v>562</v>
@@ -10163,16 +10212,16 @@
         <v>42039</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="K140" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="L140" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30">
@@ -10189,10 +10238,10 @@
         <v>564</v>
       </c>
       <c r="E141" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F141" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G141" t="s">
         <v>565</v>
@@ -10201,16 +10250,16 @@
         <v>42039</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="K141" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="L141" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="30">
@@ -10227,10 +10276,10 @@
         <v>567</v>
       </c>
       <c r="E142" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F142" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G142" t="s">
         <v>568</v>
@@ -10239,16 +10288,16 @@
         <v>42039</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J142" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K142" t="s">
         <v>1489</v>
       </c>
-      <c r="K142" t="s">
-        <v>1491</v>
-      </c>
       <c r="L142" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="30">
@@ -10265,10 +10314,10 @@
         <v>570</v>
       </c>
       <c r="E143" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F143" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G143" t="s">
         <v>571</v>
@@ -10277,16 +10326,16 @@
         <v>42039</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="K143" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="L143" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30">
@@ -10303,10 +10352,10 @@
         <v>573</v>
       </c>
       <c r="E144" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F144" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G144" t="s">
         <v>574</v>
@@ -10315,16 +10364,16 @@
         <v>42039</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="K144" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="L144" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="45">
@@ -10341,10 +10390,10 @@
         <v>576</v>
       </c>
       <c r="E145" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F145" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G145" t="s">
         <v>577</v>
@@ -10353,16 +10402,16 @@
         <v>42039</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="J145" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="K145" t="s">
         <v>1494</v>
       </c>
-      <c r="K145" t="s">
-        <v>1496</v>
-      </c>
       <c r="L145" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="75">
@@ -10388,16 +10437,16 @@
         <v>42039</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="J146" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K146" t="s">
         <v>1497</v>
       </c>
-      <c r="K146" t="s">
-        <v>1499</v>
-      </c>
       <c r="L146" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -10422,17 +10471,23 @@
       <c r="G147" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="H147" t="s">
-        <v>29</v>
+      <c r="H147" s="7">
+        <v>42039</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K147" t="s">
+        <v>1499</v>
       </c>
       <c r="L147" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="45">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -10454,17 +10509,23 @@
       <c r="G148" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="H148" t="s">
-        <v>29</v>
+      <c r="H148" s="7">
+        <v>42039</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K148" t="s">
+        <v>1501</v>
       </c>
       <c r="L148" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="45">
       <c r="A149" t="s">
         <v>23</v>
       </c>
@@ -10486,17 +10547,23 @@
       <c r="G149" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="H149" t="s">
-        <v>29</v>
+      <c r="H149" s="7">
+        <v>42039</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="K149" t="s">
+        <v>1503</v>
       </c>
       <c r="L149" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="105">
       <c r="A150" t="s">
         <v>23</v>
       </c>
@@ -10518,17 +10585,23 @@
       <c r="G150" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="H150" t="s">
-        <v>29</v>
+      <c r="H150" s="7">
+        <v>42039</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1505</v>
       </c>
       <c r="L150" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="60">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -10550,17 +10623,23 @@
       <c r="G151" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H151" t="s">
-        <v>29</v>
+      <c r="H151" s="7">
+        <v>42039</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1506</v>
       </c>
       <c r="L151" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="30">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -10582,17 +10661,23 @@
       <c r="G152" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="H152" t="s">
-        <v>29</v>
+      <c r="H152" s="7">
+        <v>42039</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>29</v>
+        <v>1356</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1230</v>
       </c>
       <c r="L152" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="30">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -10614,17 +10699,23 @@
       <c r="G153" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="H153" t="s">
-        <v>29</v>
+      <c r="H153" s="7">
+        <v>42039</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>29</v>
+        <v>1356</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K153" t="s">
+        <v>1230</v>
       </c>
       <c r="L153" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="60">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -10646,17 +10737,23 @@
       <c r="G154" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="H154" t="s">
-        <v>29</v>
+      <c r="H154" s="7">
+        <v>42039</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1509</v>
       </c>
       <c r="L154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="165">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -10678,17 +10775,23 @@
       <c r="G155" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="H155" t="s">
-        <v>29</v>
+      <c r="H155" s="7">
+        <v>42039</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1514</v>
       </c>
       <c r="L155" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="60">
       <c r="A156" t="s">
         <v>223</v>
       </c>
@@ -10701,20 +10804,26 @@
       <c r="D156" t="s">
         <v>628</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="G156" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="H156" t="s">
-        <v>29</v>
+      <c r="H156" s="7">
+        <v>42040</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>29</v>
+        <v>1511</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K156" t="s">
+        <v>1230</v>
       </c>
       <c r="L156" t="s">
-        <v>29</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -10722,16 +10831,16 @@
         <v>46</v>
       </c>
       <c r="B157" t="s">
+        <v>630</v>
+      </c>
+      <c r="D157" t="s">
         <v>631</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="G157" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="H157" t="s">
         <v>29</v>
@@ -10748,16 +10857,16 @@
         <v>46</v>
       </c>
       <c r="B158" t="s">
+        <v>634</v>
+      </c>
+      <c r="D158" t="s">
         <v>635</v>
       </c>
-      <c r="D158" t="s">
+      <c r="F158" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="G158" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="H158" t="s">
         <v>29</v>
@@ -10774,16 +10883,16 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D159" t="s">
+        <v>638</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="H159" t="s">
         <v>29</v>
@@ -10800,16 +10909,16 @@
         <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D160" t="s">
+        <v>641</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="G160" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>644</v>
       </c>
       <c r="H160" t="s">
         <v>29</v>
@@ -10826,16 +10935,16 @@
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D161" t="s">
+        <v>644</v>
+      </c>
+      <c r="F161" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="G161" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>647</v>
       </c>
       <c r="H161" t="s">
         <v>29</v>
@@ -10852,16 +10961,16 @@
         <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D162" t="s">
+        <v>647</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="G162" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="H162" t="s">
         <v>29</v>
@@ -10878,16 +10987,16 @@
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D163" t="s">
+        <v>650</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="G163" s="5" t="s">
         <v>652</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="H163" t="s">
         <v>29</v>
@@ -10904,16 +11013,16 @@
         <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D164" t="s">
+        <v>653</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="G164" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="H164" t="s">
         <v>29</v>
@@ -10930,16 +11039,16 @@
         <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D165" t="s">
+        <v>656</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="G165" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="H165" t="s">
         <v>29</v>
@@ -10956,16 +11065,16 @@
         <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D166" t="s">
+        <v>659</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="G166" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="H166" t="s">
         <v>29</v>
@@ -10982,16 +11091,16 @@
         <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D167" t="s">
+        <v>662</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="G167" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="H167" t="s">
         <v>29</v>
@@ -11008,16 +11117,16 @@
         <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D168" t="s">
+        <v>665</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="G168" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="H168" t="s">
         <v>29</v>
@@ -11034,16 +11143,16 @@
         <v>46</v>
       </c>
       <c r="B169" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D169" t="s">
+        <v>668</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="G169" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="H169" t="s">
         <v>29</v>
@@ -11060,16 +11169,16 @@
         <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D170" t="s">
+        <v>671</v>
+      </c>
+      <c r="F170" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="G170" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="H170" t="s">
         <v>29</v>
@@ -11086,16 +11195,16 @@
         <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D171" t="s">
+        <v>674</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="G171" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="H171" t="s">
         <v>29</v>
@@ -11112,16 +11221,16 @@
         <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D172" t="s">
+        <v>677</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="H172" t="s">
         <v>29</v>
@@ -11138,16 +11247,16 @@
         <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D173" t="s">
+        <v>680</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>682</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>683</v>
       </c>
       <c r="H173" t="s">
         <v>29</v>
@@ -11164,16 +11273,16 @@
         <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D174" t="s">
+        <v>683</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="G174" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="H174" t="s">
         <v>29</v>
@@ -11190,16 +11299,16 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
+        <v>686</v>
+      </c>
+      <c r="D175" t="s">
         <v>687</v>
       </c>
-      <c r="D175" t="s">
+      <c r="F175" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="G175" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="G175" s="5" t="s">
-        <v>690</v>
       </c>
       <c r="H175" t="s">
         <v>29</v>
@@ -11216,16 +11325,16 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D176" t="s">
+        <v>690</v>
+      </c>
+      <c r="F176" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="G176" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="H176" t="s">
         <v>29</v>
@@ -11242,16 +11351,16 @@
         <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D177" t="s">
+        <v>693</v>
+      </c>
+      <c r="F177" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="G177" s="5" t="s">
         <v>695</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>696</v>
       </c>
       <c r="H177" t="s">
         <v>29</v>
@@ -11268,16 +11377,16 @@
         <v>46</v>
       </c>
       <c r="B178" t="s">
+        <v>696</v>
+      </c>
+      <c r="D178" t="s">
         <v>697</v>
       </c>
-      <c r="D178" t="s">
+      <c r="F178" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="G178" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="H178" t="s">
         <v>29</v>
@@ -11294,16 +11403,16 @@
         <v>46</v>
       </c>
       <c r="B179" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D179" t="s">
+        <v>700</v>
+      </c>
+      <c r="F179" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="G179" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>703</v>
       </c>
       <c r="H179" t="s">
         <v>29</v>
@@ -11320,16 +11429,16 @@
         <v>46</v>
       </c>
       <c r="B180" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D180" t="s">
+        <v>703</v>
+      </c>
+      <c r="F180" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="G180" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>706</v>
       </c>
       <c r="H180" t="s">
         <v>29</v>
@@ -11346,16 +11455,16 @@
         <v>46</v>
       </c>
       <c r="B181" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D181" t="s">
+        <v>706</v>
+      </c>
+      <c r="F181" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="G181" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="H181" t="s">
         <v>29</v>
@@ -11372,16 +11481,16 @@
         <v>46</v>
       </c>
       <c r="B182" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D182" t="s">
+        <v>709</v>
+      </c>
+      <c r="F182" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="G182" s="5" t="s">
         <v>711</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>712</v>
       </c>
       <c r="H182" t="s">
         <v>29</v>
@@ -11398,16 +11507,16 @@
         <v>46</v>
       </c>
       <c r="B183" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D183" t="s">
+        <v>712</v>
+      </c>
+      <c r="F183" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="G183" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="H183" t="s">
         <v>29</v>
@@ -11427,13 +11536,13 @@
         <v>5</v>
       </c>
       <c r="D184" t="s">
+        <v>715</v>
+      </c>
+      <c r="F184" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="G184" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="H184" t="s">
         <v>29</v>
@@ -11453,13 +11562,13 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
+        <v>718</v>
+      </c>
+      <c r="F185" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="G185" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>721</v>
       </c>
       <c r="H185" t="s">
         <v>29</v>
@@ -11479,13 +11588,13 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
+        <v>721</v>
+      </c>
+      <c r="F186" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="G186" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="H186" t="s">
         <v>29</v>
@@ -11505,13 +11614,13 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
+        <v>724</v>
+      </c>
+      <c r="F187" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="H187" t="s">
         <v>29</v>
@@ -11531,13 +11640,13 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
+        <v>727</v>
+      </c>
+      <c r="F188" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="G188" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="H188" t="s">
         <v>29</v>
@@ -11551,25 +11660,25 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
+        <v>730</v>
+      </c>
+      <c r="B189" t="s">
         <v>731</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>732</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>733</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>734</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="G189" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="H189" t="s">
         <v>29</v>
@@ -11589,13 +11698,13 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
+        <v>737</v>
+      </c>
+      <c r="F190" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="G190" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>740</v>
       </c>
       <c r="H190" t="s">
         <v>29</v>
@@ -11615,13 +11724,13 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
+        <v>740</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="G191" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>743</v>
       </c>
       <c r="H191" t="s">
         <v>29</v>
@@ -11641,19 +11750,19 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
+        <v>743</v>
+      </c>
+      <c r="D192" t="s">
         <v>744</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>745</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="G192" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="H192" t="s">
         <v>29</v>
@@ -11673,19 +11782,19 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
+        <v>748</v>
+      </c>
+      <c r="D193" t="s">
         <v>749</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>750</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>753</v>
       </c>
       <c r="H193" t="s">
         <v>29</v>
@@ -11705,13 +11814,13 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
+        <v>753</v>
+      </c>
+      <c r="F194" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="G194" s="5" t="s">
         <v>755</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>756</v>
       </c>
       <c r="H194" t="s">
         <v>29</v>
@@ -11731,13 +11840,13 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
+        <v>756</v>
+      </c>
+      <c r="F195" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="G195" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>759</v>
       </c>
       <c r="H195" t="s">
         <v>29</v>
@@ -11757,13 +11866,13 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
+        <v>759</v>
+      </c>
+      <c r="F196" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="H196" t="s">
         <v>29</v>
@@ -11783,16 +11892,16 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
+        <v>762</v>
+      </c>
+      <c r="D197" t="s">
         <v>763</v>
       </c>
-      <c r="D197" t="s">
+      <c r="F197" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="H197" t="s">
         <v>29</v>
@@ -11812,16 +11921,16 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
+        <v>766</v>
+      </c>
+      <c r="D198" t="s">
         <v>767</v>
       </c>
-      <c r="D198" t="s">
+      <c r="F198" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>770</v>
       </c>
       <c r="H198" t="s">
         <v>29</v>
@@ -11841,25 +11950,25 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
+        <v>770</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>773</v>
       </c>
       <c r="H199" s="7">
         <v>42020</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="K199" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="L199" t="s">
         <v>29</v>
@@ -11873,25 +11982,25 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G200" s="5" t="s">
         <v>1316</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>1318</v>
       </c>
       <c r="H200" s="7">
         <v>42020</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="K200" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="L200" t="s">
         <v>29</v>
@@ -11899,25 +12008,25 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
+        <v>773</v>
+      </c>
+      <c r="B201" t="s">
+        <v>731</v>
+      </c>
+      <c r="C201" t="s">
         <v>774</v>
       </c>
-      <c r="B201" t="s">
-        <v>732</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>775</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
+        <v>734</v>
+      </c>
+      <c r="F201" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="E201" t="s">
-        <v>735</v>
-      </c>
-      <c r="F201" s="5" t="s">
+      <c r="G201" s="5" t="s">
         <v>777</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>778</v>
       </c>
       <c r="H201" t="s">
         <v>29</v>
@@ -11931,25 +12040,25 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B202" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C202" t="s">
+        <v>778</v>
+      </c>
+      <c r="D202" t="s">
         <v>779</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
+        <v>734</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="E202" t="s">
-        <v>735</v>
-      </c>
-      <c r="F202" s="5" t="s">
+      <c r="G202" s="5" t="s">
         <v>781</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>782</v>
       </c>
       <c r="H202" t="s">
         <v>29</v>
@@ -11963,25 +12072,25 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B203" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C203" t="s">
+        <v>782</v>
+      </c>
+      <c r="D203" t="s">
         <v>783</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
+        <v>734</v>
+      </c>
+      <c r="F203" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E203" t="s">
-        <v>735</v>
-      </c>
-      <c r="F203" s="5" t="s">
+      <c r="G203" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>786</v>
       </c>
       <c r="H203" t="s">
         <v>29</v>
@@ -12001,13 +12110,13 @@
         <v>5</v>
       </c>
       <c r="D204" t="s">
+        <v>786</v>
+      </c>
+      <c r="F204" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="G204" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="H204" t="s">
         <v>29</v>
@@ -12021,25 +12130,25 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B205" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C205" t="s">
+        <v>789</v>
+      </c>
+      <c r="D205" t="s">
         <v>790</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
+        <v>734</v>
+      </c>
+      <c r="F205" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="E205" t="s">
-        <v>735</v>
-      </c>
-      <c r="F205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="H205" t="s">
         <v>29</v>
@@ -12053,25 +12162,25 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
+        <v>730</v>
+      </c>
+      <c r="B206" t="s">
         <v>731</v>
       </c>
-      <c r="B206" t="s">
-        <v>732</v>
-      </c>
       <c r="C206" t="s">
+        <v>793</v>
+      </c>
+      <c r="D206" t="s">
         <v>794</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
+        <v>734</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="E206" t="s">
-        <v>735</v>
-      </c>
-      <c r="F206" s="5" t="s">
+      <c r="G206" s="5" t="s">
         <v>796</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>797</v>
       </c>
       <c r="H206" t="s">
         <v>29</v>
@@ -12091,13 +12200,13 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
+        <v>797</v>
+      </c>
+      <c r="F207" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="G207" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>800</v>
       </c>
       <c r="H207" t="s">
         <v>29</v>
@@ -12117,13 +12226,13 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
+        <v>800</v>
+      </c>
+      <c r="F208" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="G208" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>803</v>
       </c>
       <c r="H208" t="s">
         <v>29</v>
@@ -12137,25 +12246,25 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B209" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C209" t="s">
+        <v>803</v>
+      </c>
+      <c r="D209" t="s">
         <v>804</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
+        <v>734</v>
+      </c>
+      <c r="F209" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E209" t="s">
-        <v>735</v>
-      </c>
-      <c r="F209" s="5" t="s">
+      <c r="G209" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>807</v>
       </c>
       <c r="H209" t="s">
         <v>29</v>
@@ -12175,16 +12284,16 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
+        <v>807</v>
+      </c>
+      <c r="D210" t="s">
         <v>808</v>
       </c>
-      <c r="D210" t="s">
+      <c r="F210" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="G210" s="5" t="s">
         <v>810</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>811</v>
       </c>
       <c r="H210" t="s">
         <v>29</v>
@@ -12204,16 +12313,16 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
+        <v>811</v>
+      </c>
+      <c r="D211" t="s">
         <v>812</v>
       </c>
-      <c r="D211" t="s">
+      <c r="F211" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="G211" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="H211" t="s">
         <v>29</v>
@@ -12233,13 +12342,13 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
+        <v>815</v>
+      </c>
+      <c r="F212" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="G212" s="5" t="s">
         <v>817</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>818</v>
       </c>
       <c r="H212" t="s">
         <v>29</v>
@@ -12259,13 +12368,13 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
+        <v>818</v>
+      </c>
+      <c r="F213" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="G213" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="H213" t="s">
         <v>29</v>
@@ -12285,13 +12394,13 @@
         <v>5</v>
       </c>
       <c r="D214" t="s">
+        <v>821</v>
+      </c>
+      <c r="F214" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="G214" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="H214" t="s">
         <v>29</v>
@@ -12311,16 +12420,16 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
+        <v>824</v>
+      </c>
+      <c r="D215" t="s">
         <v>825</v>
       </c>
-      <c r="D215" t="s">
+      <c r="F215" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="G215" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>828</v>
       </c>
       <c r="H215" t="s">
         <v>29</v>
@@ -12340,13 +12449,13 @@
         <v>5</v>
       </c>
       <c r="D216" t="s">
+        <v>828</v>
+      </c>
+      <c r="F216" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="G216" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>831</v>
       </c>
       <c r="H216" t="s">
         <v>29</v>
@@ -12366,13 +12475,13 @@
         <v>5</v>
       </c>
       <c r="D217" t="s">
+        <v>831</v>
+      </c>
+      <c r="F217" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="G217" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>834</v>
       </c>
       <c r="H217" t="s">
         <v>29</v>
@@ -12389,28 +12498,28 @@
         <v>46</v>
       </c>
       <c r="B218" t="s">
+        <v>834</v>
+      </c>
+      <c r="D218" t="s">
         <v>835</v>
       </c>
-      <c r="D218" t="s">
+      <c r="F218" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="G218" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>838</v>
       </c>
       <c r="H218" s="7">
         <v>42037</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K218" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L218" t="s">
         <v>29</v>
@@ -12421,28 +12530,28 @@
         <v>46</v>
       </c>
       <c r="B219" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D219" t="s">
+        <v>838</v>
+      </c>
+      <c r="F219" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="F219" s="5" t="s">
+      <c r="G219" s="5" t="s">
         <v>840</v>
-      </c>
-      <c r="G219" s="5" t="s">
-        <v>841</v>
       </c>
       <c r="H219" s="7">
         <v>42037</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K219" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L219" t="s">
         <v>29</v>
@@ -12453,28 +12562,28 @@
         <v>46</v>
       </c>
       <c r="B220" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D220" t="s">
+        <v>841</v>
+      </c>
+      <c r="F220" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="G220" s="5" t="s">
         <v>843</v>
-      </c>
-      <c r="G220" s="5" t="s">
-        <v>844</v>
       </c>
       <c r="H220" s="7">
         <v>42037</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K220" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L220" t="s">
         <v>29</v>
@@ -12485,28 +12594,28 @@
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D221" t="s">
+        <v>844</v>
+      </c>
+      <c r="F221" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="G221" s="5" t="s">
         <v>846</v>
-      </c>
-      <c r="G221" s="5" t="s">
-        <v>847</v>
       </c>
       <c r="H221" s="7">
         <v>42037</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K221" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L221" t="s">
         <v>29</v>
@@ -12517,28 +12626,28 @@
         <v>46</v>
       </c>
       <c r="B222" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D222" t="s">
+        <v>847</v>
+      </c>
+      <c r="F222" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="G222" s="5" t="s">
         <v>849</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>850</v>
       </c>
       <c r="H222" s="7">
         <v>42037</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K222" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L222" t="s">
         <v>29</v>
@@ -12549,28 +12658,28 @@
         <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D223" t="s">
+        <v>850</v>
+      </c>
+      <c r="F223" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="G223" s="5" t="s">
         <v>852</v>
-      </c>
-      <c r="G223" s="5" t="s">
-        <v>853</v>
       </c>
       <c r="H223" s="7">
         <v>42037</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K223" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L223" t="s">
         <v>29</v>
@@ -12581,28 +12690,28 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D224" t="s">
+        <v>853</v>
+      </c>
+      <c r="F224" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="G224" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="G224" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="H224" s="7">
         <v>42037</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K224" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L224" t="s">
         <v>29</v>
@@ -12613,28 +12722,28 @@
         <v>46</v>
       </c>
       <c r="B225" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D225" t="s">
+        <v>856</v>
+      </c>
+      <c r="F225" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="F225" s="5" t="s">
+      <c r="G225" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="H225" s="7">
         <v>42037</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K225" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L225" t="s">
         <v>29</v>
@@ -12645,28 +12754,28 @@
         <v>46</v>
       </c>
       <c r="B226" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D226" t="s">
+        <v>859</v>
+      </c>
+      <c r="F226" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="G226" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="H226" s="7">
         <v>42037</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K226" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L226" t="s">
         <v>29</v>
@@ -12677,28 +12786,28 @@
         <v>46</v>
       </c>
       <c r="B227" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D227" t="s">
+        <v>862</v>
+      </c>
+      <c r="F227" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="G227" s="5" t="s">
         <v>864</v>
-      </c>
-      <c r="G227" s="5" t="s">
-        <v>865</v>
       </c>
       <c r="H227" s="7">
         <v>42037</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K227" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L227" t="s">
         <v>29</v>
@@ -12709,28 +12818,28 @@
         <v>46</v>
       </c>
       <c r="B228" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D228" t="s">
+        <v>865</v>
+      </c>
+      <c r="F228" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="F228" s="5" t="s">
+      <c r="G228" s="5" t="s">
         <v>867</v>
-      </c>
-      <c r="G228" s="5" t="s">
-        <v>868</v>
       </c>
       <c r="H228" s="7">
         <v>42037</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K228" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L228" t="s">
         <v>29</v>
@@ -12741,28 +12850,28 @@
         <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D229" t="s">
+        <v>868</v>
+      </c>
+      <c r="F229" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="F229" s="5" t="s">
+      <c r="G229" s="5" t="s">
         <v>870</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>871</v>
       </c>
       <c r="H229" s="7">
         <v>42037</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K229" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L229" t="s">
         <v>29</v>
@@ -12773,28 +12882,28 @@
         <v>46</v>
       </c>
       <c r="B230" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D230" t="s">
+        <v>871</v>
+      </c>
+      <c r="F230" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="G230" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>874</v>
       </c>
       <c r="H230" s="7">
         <v>42037</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K230" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L230" t="s">
         <v>29</v>
@@ -12805,28 +12914,28 @@
         <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D231" t="s">
+        <v>874</v>
+      </c>
+      <c r="F231" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="F231" s="5" t="s">
+      <c r="G231" s="5" t="s">
         <v>876</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>877</v>
       </c>
       <c r="H231" s="7">
         <v>42037</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K231" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L231" t="s">
         <v>29</v>
@@ -12837,28 +12946,28 @@
         <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D232" t="s">
+        <v>877</v>
+      </c>
+      <c r="F232" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="G232" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="G232" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="H232" s="7">
         <v>42037</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K232" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L232" t="s">
         <v>29</v>
@@ -12869,28 +12978,28 @@
         <v>46</v>
       </c>
       <c r="B233" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D233" t="s">
+        <v>880</v>
+      </c>
+      <c r="F233" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="G233" s="5" t="s">
         <v>882</v>
-      </c>
-      <c r="G233" s="5" t="s">
-        <v>883</v>
       </c>
       <c r="H233" s="7">
         <v>42037</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K233" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L233" t="s">
         <v>29</v>
@@ -12901,28 +13010,28 @@
         <v>46</v>
       </c>
       <c r="B234" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D234" t="s">
+        <v>883</v>
+      </c>
+      <c r="F234" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="G234" s="5" t="s">
         <v>885</v>
-      </c>
-      <c r="G234" s="5" t="s">
-        <v>886</v>
       </c>
       <c r="H234" s="7">
         <v>42037</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K234" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L234" t="s">
         <v>29</v>
@@ -12933,28 +13042,28 @@
         <v>46</v>
       </c>
       <c r="B235" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D235" t="s">
+        <v>886</v>
+      </c>
+      <c r="F235" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="G235" s="5" t="s">
         <v>888</v>
-      </c>
-      <c r="G235" s="5" t="s">
-        <v>889</v>
       </c>
       <c r="H235" s="7">
         <v>42037</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K235" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L235" t="s">
         <v>29</v>
@@ -12965,28 +13074,28 @@
         <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D236" t="s">
+        <v>889</v>
+      </c>
+      <c r="F236" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="G236" s="5" t="s">
         <v>891</v>
-      </c>
-      <c r="G236" s="5" t="s">
-        <v>892</v>
       </c>
       <c r="H236" s="7">
         <v>42037</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="K236" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="L236" t="s">
         <v>29</v>
@@ -13000,13 +13109,13 @@
         <v>5</v>
       </c>
       <c r="D237" t="s">
+        <v>892</v>
+      </c>
+      <c r="F237" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="G237" s="5" t="s">
         <v>894</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>895</v>
       </c>
       <c r="H237" t="s">
         <v>29</v>
@@ -13026,13 +13135,13 @@
         <v>5</v>
       </c>
       <c r="D238" t="s">
+        <v>895</v>
+      </c>
+      <c r="F238" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="G238" s="5" t="s">
         <v>897</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>898</v>
       </c>
       <c r="H238" t="s">
         <v>29</v>
@@ -13052,16 +13161,16 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
+        <v>898</v>
+      </c>
+      <c r="D239" t="s">
         <v>899</v>
       </c>
-      <c r="D239" t="s">
+      <c r="F239" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="G239" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>902</v>
       </c>
       <c r="H239" t="s">
         <v>29</v>
@@ -13081,13 +13190,13 @@
         <v>5</v>
       </c>
       <c r="D240" t="s">
+        <v>902</v>
+      </c>
+      <c r="F240" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="F240" s="5" t="s">
+      <c r="G240" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>905</v>
       </c>
       <c r="H240" t="s">
         <v>29</v>
@@ -13107,16 +13216,16 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
+        <v>905</v>
+      </c>
+      <c r="D241" t="s">
         <v>906</v>
       </c>
-      <c r="D241" t="s">
+      <c r="F241" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="G241" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>909</v>
       </c>
       <c r="H241" t="s">
         <v>29</v>
@@ -13136,16 +13245,16 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
+        <v>909</v>
+      </c>
+      <c r="D242" t="s">
         <v>910</v>
       </c>
-      <c r="D242" t="s">
+      <c r="F242" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="F242" s="5" t="s">
+      <c r="G242" s="5" t="s">
         <v>912</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>913</v>
       </c>
       <c r="H242" t="s">
         <v>29</v>
@@ -13165,16 +13274,16 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
+        <v>913</v>
+      </c>
+      <c r="D243" t="s">
         <v>914</v>
       </c>
-      <c r="D243" t="s">
+      <c r="F243" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="G243" s="5" t="s">
         <v>916</v>
-      </c>
-      <c r="G243" s="5" t="s">
-        <v>917</v>
       </c>
       <c r="H243" t="s">
         <v>29</v>
@@ -13194,16 +13303,16 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
+        <v>917</v>
+      </c>
+      <c r="D244" t="s">
         <v>918</v>
       </c>
-      <c r="D244" t="s">
+      <c r="F244" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="F244" s="5" t="s">
+      <c r="G244" s="5" t="s">
         <v>920</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>921</v>
       </c>
       <c r="H244" t="s">
         <v>29</v>
@@ -13223,16 +13332,16 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
+        <v>921</v>
+      </c>
+      <c r="D245" t="s">
         <v>922</v>
       </c>
-      <c r="D245" t="s">
+      <c r="F245" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="F245" s="5" t="s">
+      <c r="G245" s="5" t="s">
         <v>924</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>925</v>
       </c>
       <c r="H245" t="s">
         <v>29</v>
@@ -13252,13 +13361,13 @@
         <v>5</v>
       </c>
       <c r="D246" t="s">
+        <v>925</v>
+      </c>
+      <c r="F246" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="F246" s="5" t="s">
+      <c r="G246" s="5" t="s">
         <v>927</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>928</v>
       </c>
       <c r="H246" t="s">
         <v>29</v>
@@ -13278,16 +13387,16 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
+        <v>928</v>
+      </c>
+      <c r="D247" t="s">
         <v>929</v>
       </c>
-      <c r="D247" t="s">
+      <c r="F247" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="F247" s="5" t="s">
+      <c r="G247" s="5" t="s">
         <v>931</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>932</v>
       </c>
       <c r="H247" t="s">
         <v>29</v>
@@ -13307,13 +13416,13 @@
         <v>5</v>
       </c>
       <c r="D248" t="s">
+        <v>932</v>
+      </c>
+      <c r="F248" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="F248" s="5" t="s">
+      <c r="G248" s="5" t="s">
         <v>934</v>
-      </c>
-      <c r="G248" s="5" t="s">
-        <v>935</v>
       </c>
       <c r="H248" t="s">
         <v>29</v>
@@ -13333,16 +13442,16 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
+        <v>935</v>
+      </c>
+      <c r="D249" t="s">
         <v>936</v>
       </c>
-      <c r="D249" t="s">
+      <c r="F249" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="F249" s="5" t="s">
+      <c r="G249" s="5" t="s">
         <v>938</v>
-      </c>
-      <c r="G249" s="5" t="s">
-        <v>939</v>
       </c>
       <c r="H249" t="s">
         <v>29</v>
@@ -13362,16 +13471,16 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
+        <v>939</v>
+      </c>
+      <c r="D250" t="s">
         <v>940</v>
       </c>
-      <c r="D250" t="s">
+      <c r="F250" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="F250" s="5" t="s">
+      <c r="G250" s="5" t="s">
         <v>942</v>
-      </c>
-      <c r="G250" s="5" t="s">
-        <v>943</v>
       </c>
       <c r="H250" t="s">
         <v>29</v>
@@ -13391,16 +13500,16 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
+        <v>943</v>
+      </c>
+      <c r="D251" t="s">
         <v>944</v>
       </c>
-      <c r="D251" t="s">
+      <c r="F251" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="F251" s="5" t="s">
+      <c r="G251" s="5" t="s">
         <v>946</v>
-      </c>
-      <c r="G251" s="5" t="s">
-        <v>947</v>
       </c>
       <c r="H251" t="s">
         <v>29</v>
@@ -13420,16 +13529,16 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
+        <v>947</v>
+      </c>
+      <c r="D252" t="s">
         <v>948</v>
       </c>
-      <c r="D252" t="s">
+      <c r="F252" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="G252" s="5" t="s">
         <v>950</v>
-      </c>
-      <c r="G252" s="5" t="s">
-        <v>951</v>
       </c>
       <c r="H252" t="s">
         <v>29</v>
@@ -13449,16 +13558,16 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
+        <v>951</v>
+      </c>
+      <c r="D253" t="s">
         <v>952</v>
       </c>
-      <c r="D253" t="s">
+      <c r="F253" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="G253" s="5" t="s">
         <v>954</v>
-      </c>
-      <c r="G253" s="5" t="s">
-        <v>955</v>
       </c>
       <c r="H253" t="s">
         <v>29</v>
@@ -13478,16 +13587,16 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
+        <v>955</v>
+      </c>
+      <c r="D254" t="s">
         <v>956</v>
       </c>
-      <c r="D254" t="s">
+      <c r="F254" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="F254" s="5" t="s">
+      <c r="G254" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="G254" s="5" t="s">
-        <v>959</v>
       </c>
       <c r="H254" t="s">
         <v>29</v>
@@ -13507,16 +13616,16 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
+        <v>959</v>
+      </c>
+      <c r="D255" t="s">
         <v>960</v>
       </c>
-      <c r="D255" t="s">
+      <c r="F255" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="F255" s="5" t="s">
+      <c r="G255" s="5" t="s">
         <v>962</v>
-      </c>
-      <c r="G255" s="5" t="s">
-        <v>963</v>
       </c>
       <c r="H255" t="s">
         <v>29</v>
@@ -13536,16 +13645,16 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
+        <v>963</v>
+      </c>
+      <c r="D256" t="s">
         <v>964</v>
       </c>
-      <c r="D256" t="s">
+      <c r="F256" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F256" s="5" t="s">
+      <c r="G256" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="H256" t="s">
         <v>29</v>
@@ -13565,16 +13674,16 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
+        <v>967</v>
+      </c>
+      <c r="D257" t="s">
         <v>968</v>
       </c>
-      <c r="D257" t="s">
+      <c r="F257" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="F257" s="5" t="s">
+      <c r="G257" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="G257" s="5" t="s">
-        <v>971</v>
       </c>
       <c r="H257" t="s">
         <v>29</v>
@@ -13594,16 +13703,16 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
+        <v>971</v>
+      </c>
+      <c r="D258" t="s">
         <v>972</v>
       </c>
-      <c r="D258" t="s">
+      <c r="F258" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="F258" s="5" t="s">
+      <c r="G258" s="5" t="s">
         <v>974</v>
-      </c>
-      <c r="G258" s="5" t="s">
-        <v>975</v>
       </c>
       <c r="H258" t="s">
         <v>29</v>
@@ -13623,16 +13732,16 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
+        <v>975</v>
+      </c>
+      <c r="D259" t="s">
         <v>976</v>
       </c>
-      <c r="D259" t="s">
+      <c r="F259" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="F259" s="5" t="s">
+      <c r="G259" s="5" t="s">
         <v>978</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>979</v>
       </c>
       <c r="H259" t="s">
         <v>29</v>
@@ -13652,16 +13761,16 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
+        <v>979</v>
+      </c>
+      <c r="D260" t="s">
         <v>980</v>
       </c>
-      <c r="D260" t="s">
+      <c r="F260" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="F260" s="5" t="s">
+      <c r="G260" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="G260" s="5" t="s">
-        <v>983</v>
       </c>
       <c r="H260" t="s">
         <v>29</v>
@@ -13681,16 +13790,16 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
+        <v>983</v>
+      </c>
+      <c r="D261" t="s">
         <v>984</v>
       </c>
-      <c r="D261" t="s">
+      <c r="F261" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="F261" s="5" t="s">
+      <c r="G261" s="5" t="s">
         <v>986</v>
-      </c>
-      <c r="G261" s="5" t="s">
-        <v>987</v>
       </c>
       <c r="H261" t="s">
         <v>29</v>
@@ -13710,16 +13819,16 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
+        <v>987</v>
+      </c>
+      <c r="D262" t="s">
         <v>988</v>
       </c>
-      <c r="D262" t="s">
+      <c r="F262" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="F262" s="5" t="s">
+      <c r="G262" s="5" t="s">
         <v>990</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>991</v>
       </c>
       <c r="H262" t="s">
         <v>29</v>
@@ -13739,16 +13848,16 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
+        <v>991</v>
+      </c>
+      <c r="D263" t="s">
         <v>992</v>
       </c>
-      <c r="D263" t="s">
+      <c r="F263" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="F263" s="5" t="s">
+      <c r="G263" s="5" t="s">
         <v>994</v>
-      </c>
-      <c r="G263" s="5" t="s">
-        <v>995</v>
       </c>
       <c r="H263" t="s">
         <v>29</v>
@@ -13768,16 +13877,16 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
+        <v>995</v>
+      </c>
+      <c r="D264" t="s">
         <v>996</v>
       </c>
-      <c r="D264" t="s">
+      <c r="F264" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="F264" s="5" t="s">
+      <c r="G264" s="5" t="s">
         <v>998</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>999</v>
       </c>
       <c r="H264" t="s">
         <v>29</v>
@@ -13791,25 +13900,25 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B265" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C265" t="s">
+        <v>999</v>
+      </c>
+      <c r="D265" t="s">
         <v>1000</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
+        <v>734</v>
+      </c>
+      <c r="F265" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="E265" t="s">
-        <v>735</v>
-      </c>
-      <c r="F265" s="5" t="s">
+      <c r="G265" s="5" t="s">
         <v>1002</v>
-      </c>
-      <c r="G265" s="5" t="s">
-        <v>1003</v>
       </c>
       <c r="H265" t="s">
         <v>29</v>
@@ -13823,25 +13932,25 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B266" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C266" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D266" t="s">
         <v>1004</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
+        <v>734</v>
+      </c>
+      <c r="F266" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="E266" t="s">
-        <v>735</v>
-      </c>
-      <c r="F266" s="5" t="s">
+      <c r="G266" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="G266" s="5" t="s">
-        <v>1007</v>
       </c>
       <c r="H266" t="s">
         <v>29</v>
@@ -13855,25 +13964,25 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B267" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C267" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D267" t="s">
         <v>1008</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
+        <v>734</v>
+      </c>
+      <c r="F267" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="E267" t="s">
-        <v>735</v>
-      </c>
-      <c r="F267" s="5" t="s">
+      <c r="G267" s="5" t="s">
         <v>1010</v>
-      </c>
-      <c r="G267" s="5" t="s">
-        <v>1011</v>
       </c>
       <c r="H267" t="s">
         <v>29</v>
@@ -13887,25 +13996,25 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B268" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C268" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D268" t="s">
         <v>1012</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
+        <v>734</v>
+      </c>
+      <c r="F268" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="E268" t="s">
-        <v>735</v>
-      </c>
-      <c r="F268" s="5" t="s">
+      <c r="G268" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="G268" s="5" t="s">
-        <v>1015</v>
       </c>
       <c r="H268" t="s">
         <v>29</v>
@@ -13919,25 +14028,25 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B269" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C269" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D269" t="s">
         <v>1016</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
+        <v>734</v>
+      </c>
+      <c r="F269" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="E269" t="s">
-        <v>735</v>
-      </c>
-      <c r="F269" s="5" t="s">
+      <c r="G269" s="5" t="s">
         <v>1018</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>1019</v>
       </c>
       <c r="H269" t="s">
         <v>29</v>
@@ -13951,25 +14060,25 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B270" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C270" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D270" t="s">
         <v>1020</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
+        <v>734</v>
+      </c>
+      <c r="F270" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="E270" t="s">
-        <v>735</v>
-      </c>
-      <c r="F270" s="5" t="s">
+      <c r="G270" s="5" t="s">
         <v>1022</v>
-      </c>
-      <c r="G270" s="5" t="s">
-        <v>1023</v>
       </c>
       <c r="H270" t="s">
         <v>29</v>
@@ -13983,25 +14092,25 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B271" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C271" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D271" t="s">
         <v>1024</v>
       </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
+        <v>734</v>
+      </c>
+      <c r="F271" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="E271" t="s">
-        <v>735</v>
-      </c>
-      <c r="F271" s="5" t="s">
+      <c r="G271" s="5" t="s">
         <v>1026</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>1027</v>
       </c>
       <c r="H271" t="s">
         <v>29</v>
@@ -14015,25 +14124,25 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B272" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C272" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D272" t="s">
         <v>1028</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
+        <v>734</v>
+      </c>
+      <c r="F272" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="E272" t="s">
-        <v>735</v>
-      </c>
-      <c r="F272" s="5" t="s">
+      <c r="G272" s="5" t="s">
         <v>1030</v>
-      </c>
-      <c r="G272" s="5" t="s">
-        <v>1031</v>
       </c>
       <c r="H272" t="s">
         <v>29</v>
@@ -14047,25 +14156,25 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B273" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C273" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D273" t="s">
         <v>1032</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
+        <v>734</v>
+      </c>
+      <c r="F273" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="E273" t="s">
-        <v>735</v>
-      </c>
-      <c r="F273" s="5" t="s">
+      <c r="G273" s="5" t="s">
         <v>1034</v>
-      </c>
-      <c r="G273" s="5" t="s">
-        <v>1035</v>
       </c>
       <c r="H273" t="s">
         <v>29</v>
@@ -14079,25 +14188,25 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B274" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C274" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D274" t="s">
         <v>1036</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
+        <v>734</v>
+      </c>
+      <c r="F274" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="E274" t="s">
-        <v>735</v>
-      </c>
-      <c r="F274" s="5" t="s">
+      <c r="G274" s="5" t="s">
         <v>1038</v>
-      </c>
-      <c r="G274" s="5" t="s">
-        <v>1039</v>
       </c>
       <c r="H274" t="s">
         <v>29</v>
@@ -14111,25 +14220,25 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B275" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C275" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D275" t="s">
         <v>1040</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
+        <v>734</v>
+      </c>
+      <c r="F275" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="E275" t="s">
-        <v>735</v>
-      </c>
-      <c r="F275" s="5" t="s">
+      <c r="G275" s="5" t="s">
         <v>1042</v>
-      </c>
-      <c r="G275" s="5" t="s">
-        <v>1043</v>
       </c>
       <c r="H275" t="s">
         <v>29</v>
@@ -14143,25 +14252,25 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B276" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C276" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D276" t="s">
         <v>1044</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
+        <v>734</v>
+      </c>
+      <c r="F276" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="E276" t="s">
-        <v>735</v>
-      </c>
-      <c r="F276" s="5" t="s">
+      <c r="G276" s="5" t="s">
         <v>1046</v>
-      </c>
-      <c r="G276" s="5" t="s">
-        <v>1047</v>
       </c>
       <c r="H276" t="s">
         <v>29</v>
@@ -14181,16 +14290,16 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D277" t="s">
         <v>1048</v>
       </c>
-      <c r="D277" t="s">
+      <c r="F277" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="F277" s="5" t="s">
+      <c r="G277" s="5" t="s">
         <v>1050</v>
-      </c>
-      <c r="G277" s="5" t="s">
-        <v>1051</v>
       </c>
       <c r="H277" t="s">
         <v>29</v>
@@ -14210,16 +14319,16 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D278" t="s">
         <v>1052</v>
       </c>
-      <c r="D278" t="s">
+      <c r="F278" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="F278" s="5" t="s">
+      <c r="G278" s="5" t="s">
         <v>1054</v>
-      </c>
-      <c r="G278" s="5" t="s">
-        <v>1055</v>
       </c>
       <c r="H278" t="s">
         <v>29</v>
@@ -14239,16 +14348,16 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D279" t="s">
         <v>1056</v>
       </c>
-      <c r="D279" t="s">
+      <c r="F279" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="F279" s="5" t="s">
+      <c r="G279" s="5" t="s">
         <v>1058</v>
-      </c>
-      <c r="G279" s="5" t="s">
-        <v>1059</v>
       </c>
       <c r="H279" t="s">
         <v>29</v>
@@ -14268,16 +14377,16 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D280" t="s">
         <v>1060</v>
       </c>
-      <c r="D280" t="s">
+      <c r="F280" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="F280" s="5" t="s">
+      <c r="G280" s="5" t="s">
         <v>1062</v>
-      </c>
-      <c r="G280" s="5" t="s">
-        <v>1063</v>
       </c>
       <c r="H280" t="s">
         <v>29</v>
@@ -14297,16 +14406,16 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D281" t="s">
         <v>1064</v>
       </c>
-      <c r="D281" t="s">
+      <c r="F281" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="F281" s="5" t="s">
+      <c r="G281" s="5" t="s">
         <v>1066</v>
-      </c>
-      <c r="G281" s="5" t="s">
-        <v>1067</v>
       </c>
       <c r="H281" t="s">
         <v>29</v>
@@ -14326,16 +14435,16 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D282" t="s">
         <v>1068</v>
       </c>
-      <c r="D282" t="s">
+      <c r="F282" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="F282" s="5" t="s">
+      <c r="G282" s="5" t="s">
         <v>1070</v>
-      </c>
-      <c r="G282" s="5" t="s">
-        <v>1071</v>
       </c>
       <c r="H282" t="s">
         <v>29</v>
@@ -14355,16 +14464,16 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D283" t="s">
         <v>1072</v>
       </c>
-      <c r="D283" t="s">
+      <c r="F283" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="F283" s="5" t="s">
+      <c r="G283" s="5" t="s">
         <v>1074</v>
-      </c>
-      <c r="G283" s="5" t="s">
-        <v>1075</v>
       </c>
       <c r="H283" t="s">
         <v>29</v>
@@ -14384,16 +14493,16 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D284" t="s">
         <v>1076</v>
       </c>
-      <c r="D284" t="s">
+      <c r="F284" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="F284" s="5" t="s">
+      <c r="G284" s="5" t="s">
         <v>1078</v>
-      </c>
-      <c r="G284" s="5" t="s">
-        <v>1079</v>
       </c>
       <c r="H284" t="s">
         <v>29</v>
@@ -14413,16 +14522,16 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D285" t="s">
         <v>1080</v>
       </c>
-      <c r="D285" t="s">
+      <c r="F285" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="F285" s="5" t="s">
+      <c r="G285" s="5" t="s">
         <v>1082</v>
-      </c>
-      <c r="G285" s="5" t="s">
-        <v>1083</v>
       </c>
       <c r="H285" t="s">
         <v>29</v>
@@ -14442,16 +14551,16 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D286" t="s">
         <v>1084</v>
       </c>
-      <c r="D286" t="s">
+      <c r="F286" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="F286" s="5" t="s">
+      <c r="G286" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="G286" s="5" t="s">
-        <v>1087</v>
       </c>
       <c r="H286" t="s">
         <v>29</v>
@@ -14471,16 +14580,16 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D287" t="s">
         <v>1088</v>
       </c>
-      <c r="D287" t="s">
+      <c r="F287" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="F287" s="5" t="s">
+      <c r="G287" s="5" t="s">
         <v>1090</v>
-      </c>
-      <c r="G287" s="5" t="s">
-        <v>1091</v>
       </c>
       <c r="H287" t="s">
         <v>29</v>
@@ -14500,16 +14609,16 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D288" t="s">
         <v>1092</v>
       </c>
-      <c r="D288" t="s">
+      <c r="F288" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="F288" s="5" t="s">
+      <c r="G288" s="5" t="s">
         <v>1094</v>
-      </c>
-      <c r="G288" s="5" t="s">
-        <v>1095</v>
       </c>
       <c r="H288" t="s">
         <v>29</v>
@@ -14529,16 +14638,16 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D289" t="s">
         <v>1096</v>
       </c>
-      <c r="D289" t="s">
+      <c r="F289" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="F289" s="5" t="s">
+      <c r="G289" s="5" t="s">
         <v>1098</v>
-      </c>
-      <c r="G289" s="5" t="s">
-        <v>1099</v>
       </c>
       <c r="H289" t="s">
         <v>29</v>
@@ -14552,25 +14661,25 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B290" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C290" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D290" t="s">
         <v>1100</v>
       </c>
-      <c r="D290" t="s">
+      <c r="E290" t="s">
+        <v>734</v>
+      </c>
+      <c r="F290" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="E290" t="s">
-        <v>735</v>
-      </c>
-      <c r="F290" s="5" t="s">
+      <c r="G290" s="5" t="s">
         <v>1102</v>
-      </c>
-      <c r="G290" s="5" t="s">
-        <v>1103</v>
       </c>
       <c r="H290" t="s">
         <v>29</v>
@@ -14590,16 +14699,16 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D291" t="s">
         <v>1104</v>
       </c>
-      <c r="D291" t="s">
+      <c r="F291" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="F291" s="5" t="s">
+      <c r="G291" s="5" t="s">
         <v>1106</v>
-      </c>
-      <c r="G291" s="5" t="s">
-        <v>1107</v>
       </c>
       <c r="H291" t="s">
         <v>29</v>
@@ -14619,13 +14728,13 @@
         <v>5</v>
       </c>
       <c r="D292" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F292" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="F292" s="5" t="s">
+      <c r="G292" s="5" t="s">
         <v>1109</v>
-      </c>
-      <c r="G292" s="5" t="s">
-        <v>1110</v>
       </c>
       <c r="H292" t="s">
         <v>29</v>
@@ -14645,16 +14754,16 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D293" t="s">
         <v>1111</v>
       </c>
-      <c r="D293" t="s">
+      <c r="F293" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="F293" s="5" t="s">
+      <c r="G293" s="5" t="s">
         <v>1113</v>
-      </c>
-      <c r="G293" s="5" t="s">
-        <v>1114</v>
       </c>
       <c r="H293" t="s">
         <v>29</v>
@@ -14674,16 +14783,16 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D294" t="s">
         <v>1115</v>
       </c>
-      <c r="D294" t="s">
+      <c r="F294" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="F294" s="5" t="s">
+      <c r="G294" s="5" t="s">
         <v>1117</v>
-      </c>
-      <c r="G294" s="5" t="s">
-        <v>1118</v>
       </c>
       <c r="H294" t="s">
         <v>29</v>
@@ -14703,16 +14812,16 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D295" t="s">
         <v>1119</v>
       </c>
-      <c r="D295" t="s">
+      <c r="F295" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="F295" s="5" t="s">
+      <c r="G295" s="5" t="s">
         <v>1121</v>
-      </c>
-      <c r="G295" s="5" t="s">
-        <v>1122</v>
       </c>
       <c r="H295" t="s">
         <v>29</v>
@@ -14732,16 +14841,16 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D296" t="s">
         <v>1123</v>
       </c>
-      <c r="D296" t="s">
+      <c r="F296" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="F296" s="5" t="s">
+      <c r="G296" s="5" t="s">
         <v>1125</v>
-      </c>
-      <c r="G296" s="5" t="s">
-        <v>1126</v>
       </c>
       <c r="H296" t="s">
         <v>29</v>
@@ -14761,16 +14870,16 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D297" t="s">
         <v>1127</v>
       </c>
-      <c r="D297" t="s">
+      <c r="F297" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="F297" s="5" t="s">
+      <c r="G297" s="5" t="s">
         <v>1129</v>
-      </c>
-      <c r="G297" s="5" t="s">
-        <v>1130</v>
       </c>
       <c r="H297" t="s">
         <v>29</v>
@@ -14790,16 +14899,16 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D298" t="s">
         <v>1131</v>
       </c>
-      <c r="D298" t="s">
+      <c r="F298" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="F298" s="5" t="s">
+      <c r="G298" s="5" t="s">
         <v>1133</v>
-      </c>
-      <c r="G298" s="5" t="s">
-        <v>1134</v>
       </c>
       <c r="H298" t="s">
         <v>29</v>
@@ -14819,13 +14928,13 @@
         <v>5</v>
       </c>
       <c r="D299" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F299" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="G299" s="5" t="s">
         <v>1136</v>
-      </c>
-      <c r="G299" s="5" t="s">
-        <v>1137</v>
       </c>
       <c r="H299" t="s">
         <v>29</v>
@@ -14845,16 +14954,16 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D300" t="s">
         <v>1138</v>
       </c>
-      <c r="D300" t="s">
+      <c r="F300" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="F300" s="5" t="s">
+      <c r="G300" s="5" t="s">
         <v>1140</v>
-      </c>
-      <c r="G300" s="5" t="s">
-        <v>1141</v>
       </c>
       <c r="H300" t="s">
         <v>29</v>
@@ -14874,16 +14983,16 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D301" t="s">
         <v>1142</v>
       </c>
-      <c r="D301" t="s">
+      <c r="F301" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="F301" s="5" t="s">
+      <c r="G301" s="5" t="s">
         <v>1144</v>
-      </c>
-      <c r="G301" s="5" t="s">
-        <v>1145</v>
       </c>
       <c r="H301" t="s">
         <v>29</v>
@@ -14903,16 +15012,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D302" t="s">
         <v>1146</v>
       </c>
-      <c r="D302" t="s">
+      <c r="F302" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="F302" s="5" t="s">
+      <c r="G302" s="5" t="s">
         <v>1148</v>
-      </c>
-      <c r="G302" s="5" t="s">
-        <v>1149</v>
       </c>
       <c r="H302" t="s">
         <v>29</v>
@@ -14932,16 +15041,16 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D303" t="s">
         <v>1150</v>
       </c>
-      <c r="D303" t="s">
+      <c r="F303" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="F303" s="5" t="s">
+      <c r="G303" s="5" t="s">
         <v>1152</v>
-      </c>
-      <c r="G303" s="5" t="s">
-        <v>1153</v>
       </c>
       <c r="H303" t="s">
         <v>29</v>
@@ -14955,25 +15064,25 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B304" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C304" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D304" t="s">
         <v>1154</v>
       </c>
-      <c r="D304" t="s">
+      <c r="E304" t="s">
+        <v>734</v>
+      </c>
+      <c r="F304" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="E304" t="s">
-        <v>735</v>
-      </c>
-      <c r="F304" s="5" t="s">
+      <c r="G304" s="5" t="s">
         <v>1156</v>
-      </c>
-      <c r="G304" s="5" t="s">
-        <v>1157</v>
       </c>
       <c r="H304" t="s">
         <v>29</v>
@@ -14987,25 +15096,25 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" t="s">
+        <v>730</v>
+      </c>
+      <c r="B305" t="s">
         <v>731</v>
       </c>
-      <c r="B305" t="s">
-        <v>732</v>
-      </c>
       <c r="C305" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D305" t="s">
         <v>1158</v>
       </c>
-      <c r="D305" t="s">
+      <c r="E305" t="s">
+        <v>734</v>
+      </c>
+      <c r="F305" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="E305" t="s">
-        <v>735</v>
-      </c>
-      <c r="F305" s="5" t="s">
+      <c r="G305" s="5" t="s">
         <v>1160</v>
-      </c>
-      <c r="G305" s="5" t="s">
-        <v>1161</v>
       </c>
       <c r="H305" t="s">
         <v>29</v>
@@ -15025,16 +15134,16 @@
         <v>9</v>
       </c>
       <c r="C306" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D306" t="s">
         <v>1162</v>
       </c>
-      <c r="D306" t="s">
+      <c r="F306" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="F306" s="5" t="s">
+      <c r="G306" s="5" t="s">
         <v>1164</v>
-      </c>
-      <c r="G306" s="5" t="s">
-        <v>1165</v>
       </c>
       <c r="H306" t="s">
         <v>29</v>
@@ -15054,13 +15163,13 @@
         <v>5</v>
       </c>
       <c r="D307" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F307" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="F307" s="5" t="s">
+      <c r="G307" s="5" t="s">
         <v>1167</v>
-      </c>
-      <c r="G307" s="5" t="s">
-        <v>1168</v>
       </c>
       <c r="H307" t="s">
         <v>29</v>
@@ -15080,16 +15189,16 @@
         <v>9</v>
       </c>
       <c r="C308" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D308" t="s">
         <v>1169</v>
       </c>
-      <c r="D308" t="s">
+      <c r="F308" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="F308" s="5" t="s">
+      <c r="G308" s="5" t="s">
         <v>1171</v>
-      </c>
-      <c r="G308" s="5" t="s">
-        <v>1172</v>
       </c>
       <c r="H308" t="s">
         <v>29</v>
@@ -15103,25 +15212,25 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" t="s">
+        <v>730</v>
+      </c>
+      <c r="B309" t="s">
         <v>731</v>
       </c>
-      <c r="B309" t="s">
-        <v>732</v>
-      </c>
       <c r="C309" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D309" t="s">
         <v>1173</v>
       </c>
-      <c r="D309" t="s">
+      <c r="E309" t="s">
+        <v>734</v>
+      </c>
+      <c r="F309" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="E309" t="s">
-        <v>735</v>
-      </c>
-      <c r="F309" s="5" t="s">
+      <c r="G309" s="5" t="s">
         <v>1175</v>
-      </c>
-      <c r="G309" s="5" t="s">
-        <v>1176</v>
       </c>
       <c r="H309" t="s">
         <v>29</v>
@@ -15141,16 +15250,16 @@
         <v>9</v>
       </c>
       <c r="C310" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D310" t="s">
         <v>1177</v>
       </c>
-      <c r="D310" t="s">
+      <c r="F310" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="F310" s="5" t="s">
+      <c r="G310" s="5" t="s">
         <v>1179</v>
-      </c>
-      <c r="G310" s="5" t="s">
-        <v>1180</v>
       </c>
       <c r="H310" t="s">
         <v>29</v>
@@ -15170,16 +15279,16 @@
         <v>9</v>
       </c>
       <c r="C311" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D311" t="s">
         <v>1181</v>
       </c>
-      <c r="D311" t="s">
+      <c r="F311" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="F311" s="5" t="s">
+      <c r="G311" s="5" t="s">
         <v>1183</v>
-      </c>
-      <c r="G311" s="5" t="s">
-        <v>1184</v>
       </c>
       <c r="H311" t="s">
         <v>29</v>
@@ -15199,16 +15308,16 @@
         <v>9</v>
       </c>
       <c r="C312" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D312" t="s">
         <v>1185</v>
       </c>
-      <c r="D312" t="s">
+      <c r="F312" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="F312" s="5" t="s">
+      <c r="G312" s="5" t="s">
         <v>1187</v>
-      </c>
-      <c r="G312" s="5" t="s">
-        <v>1188</v>
       </c>
       <c r="H312" t="s">
         <v>29</v>
@@ -15228,16 +15337,16 @@
         <v>9</v>
       </c>
       <c r="C313" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D313" t="s">
         <v>1189</v>
       </c>
-      <c r="D313" t="s">
+      <c r="F313" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="F313" s="5" t="s">
+      <c r="G313" s="5" t="s">
         <v>1191</v>
-      </c>
-      <c r="G313" s="5" t="s">
-        <v>1192</v>
       </c>
       <c r="H313" t="s">
         <v>29</v>
@@ -15257,16 +15366,16 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D314" t="s">
         <v>1193</v>
       </c>
-      <c r="D314" t="s">
+      <c r="F314" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="F314" s="5" t="s">
+      <c r="G314" s="5" t="s">
         <v>1195</v>
-      </c>
-      <c r="G314" s="5" t="s">
-        <v>1196</v>
       </c>
       <c r="H314" t="s">
         <v>29</v>
@@ -15286,16 +15395,16 @@
         <v>9</v>
       </c>
       <c r="C315" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D315" t="s">
         <v>1197</v>
       </c>
-      <c r="D315" t="s">
+      <c r="F315" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="F315" s="5" t="s">
+      <c r="G315" s="5" t="s">
         <v>1199</v>
-      </c>
-      <c r="G315" s="5" t="s">
-        <v>1200</v>
       </c>
       <c r="H315" t="s">
         <v>29</v>
@@ -15315,13 +15424,13 @@
         <v>5</v>
       </c>
       <c r="D316" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F316" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="F316" s="5" t="s">
+      <c r="G316" s="5" t="s">
         <v>1202</v>
-      </c>
-      <c r="G316" s="5" t="s">
-        <v>1203</v>
       </c>
       <c r="H316" t="s">
         <v>29</v>
@@ -15341,16 +15450,16 @@
         <v>9</v>
       </c>
       <c r="C317" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D317" t="s">
         <v>1204</v>
       </c>
-      <c r="D317" t="s">
+      <c r="F317" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="F317" s="5" t="s">
+      <c r="G317" s="5" t="s">
         <v>1206</v>
-      </c>
-      <c r="G317" s="5" t="s">
-        <v>1207</v>
       </c>
       <c r="H317" t="s">
         <v>29</v>
@@ -15370,13 +15479,13 @@
         <v>5</v>
       </c>
       <c r="D318" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F318" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="F318" s="5" t="s">
+      <c r="G318" s="5" t="s">
         <v>1209</v>
-      </c>
-      <c r="G318" s="5" t="s">
-        <v>1210</v>
       </c>
       <c r="H318" t="s">
         <v>29</v>
@@ -15390,25 +15499,25 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" t="s">
+        <v>730</v>
+      </c>
+      <c r="B319" t="s">
         <v>731</v>
       </c>
-      <c r="B319" t="s">
-        <v>732</v>
-      </c>
       <c r="C319" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D319" t="s">
         <v>1211</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
+        <v>734</v>
+      </c>
+      <c r="F319" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="E319" t="s">
-        <v>735</v>
-      </c>
-      <c r="F319" s="5" t="s">
+      <c r="G319" s="5" t="s">
         <v>1213</v>
-      </c>
-      <c r="G319" s="5" t="s">
-        <v>1214</v>
       </c>
       <c r="H319" t="s">
         <v>29</v>
@@ -15422,7 +15531,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B320">
         <v>305</v>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="105" windowWidth="33390" windowHeight="14655"/>
+    <workbookView xWindow="105" yWindow="180" windowWidth="32775" windowHeight="14955"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1586">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -4628,6 +4628,243 @@
   </si>
   <si>
     <t>coeus-impl/src/main/java/org/kuali/kra/timeandmoney/web/struts/action/TimeAndMoneyAction.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/Award.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/AwardAdvancedSearch.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/AwardDocument.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/DevelopmentProposal.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/InstitutionalProposal.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/InstitutionalProposalAdvancedSearch.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/InstitutionalProposalCostShare.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/InstitutionalProposalUnrecoveredFandA.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/KcPerson.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/NegotiationActivity.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/NegotiationDocument.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/NonOrganizationalRolodex.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/Organization.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/PersonDocumentEmploymentInfo.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/PessimisticLock.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/ProposalDevelopmentDocument.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/ProposalLog.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/Rolodex.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/Sponsor.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/SponsorSpecial.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/TimeAndMoneyDocument.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/UhAwardExtension.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/UhPersonDelegate.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/Unit.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/UnitAdministrator.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/docs/UhPersonDelegateMaintenanceDocument.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/datadictionary/docs/UnitAdministratorMaintenanceDocument.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/repository-uh.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/UHCustomAwardSpringBeans.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/UHCustomInstitutionalProposalSpringBeans.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/UHCustomProposalDevelopmentSpringBeans.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/UhSpringBeans.xml</t>
+  </si>
+  <si>
+    <t>KC-154 Add New Date Fields within the Awards Module
+KC-829 Modify Award Lookup Results</t>
+  </si>
+  <si>
+    <t>Keep-Spring Bean Overlay These all need to be tested because there is no merge making it difficult to inspect</t>
+  </si>
+  <si>
+    <t>KC-367: Add an advanced award search that does not filter out saved awards and previous versions.
+KC-829 Modify Award Lookup result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-335 Initiator is the only one allowed to submit documents
+KC-503 Award Routing to members of ORS Compliance based on Custom Data field
+</t>
+  </si>
+  <si>
+    <t>KC-466 Fix make Sponsor Deadline Date required when you save
+KC-598 - Can no longer search for proposal by person full name
+KC-605 .... add time zone to sponsor deadline time field
+KC-792 S2S Opportunity Id validation pattern is incorrect</t>
+  </si>
+  <si>
+    <t>KC-605 .... add time zone to sponsor deadline time field</t>
+  </si>
+  <si>
+    <t>KC-367: Make advanced search for institutional proposal which doesn't filter versions.  Also changed InstitutionalProposalLookupableHelperServiceImpl maven override to an extension.
+KC-367: Rename sequence number fields to version number.  (Why did we do this...has always confused me and I thought it was a Kualiism...turns out we didn't thie very early on.</t>
+  </si>
+  <si>
+    <t>KC-800 Add Questionnaire to capture Unrecovered F and A information (More changes needed becaues this modification caused IP to fail on submit to sponsor)</t>
+  </si>
+  <si>
+    <t>KC-800 Add Questionnaire to capture Unrecovered F and A information
+    More changes needed becaues this modification caused IP to fail on submit to sponsor</t>
+  </si>
+  <si>
+    <t>KC-527 Key Person Search displays fields which don't work for search (Due to Profiler limitations) NOTE: Profiler is gone but leaving these fields out since nobody ever missed them)</t>
+  </si>
+  <si>
+    <t>KC-817 Change Negotiation Activity Description to be non-required
+KC-841 Sort Negotiation activity types by function</t>
+  </si>
+  <si>
+    <t>KC-246: Change rolodex and non-organizational sponsor code validation to AnyCharacterValidationPattern.</t>
+  </si>
+  <si>
+    <t>KC-326 Fix for locating a specific performance site is very difficult
+KC-530-SEARCH only display one textbox for org lookup (Solr Search)</t>
+  </si>
+  <si>
+    <t>KC-487 make base salary non-required field</t>
+  </si>
+  <si>
+    <t>KC-152: Rename Pessimistic Lock to Lock on accross all tabs and in the lookup and inquiry screens.
+KC-152: Change lock wording to the correct wording (Document Lock - was just Lock).</t>
+  </si>
+  <si>
+    <t>KC-201: Overrid Proposal Development's businessRulesClass with UH class which makes "Project Summary" abstract required.
+KC-263 - extend proposal document authorizer with class that returns false for canDisapprove to hide the disapprove button.
+KC-632 OTTED routing not working(Could be removed but doesn't hurt)
+KC-679 New Routing for 5.1.1</t>
+  </si>
+  <si>
+    <t>KC-605 add time zone to sponsor deadline time field</t>
+  </si>
+  <si>
+    <t>KC-530 Lookup screens are too difficult for users (Solr)</t>
+  </si>
+  <si>
+    <t>KC-568 Sponsor Search not using UH custom search after 5.1 upgrade</t>
+  </si>
+  <si>
+    <t>KC-154 Add New Date Fields within the Awards Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-679 New routing for 5.1.1 </t>
+  </si>
+  <si>
+    <t>KC-530 adding unit search (Solr)
+KC-534 Improve the order of data returned from a unit search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-154 Add New Date Fields within the Awards Module
+KC-367 Add an advanced award search that does not filter out saved awards and previous versions.
+KC-679 New routing for 5.1.1 </t>
+  </si>
+  <si>
+    <t>KC51 modified UH custom datadictionary and spring beans to use new KC5.X override techniques per tech collab</t>
+  </si>
+  <si>
+    <t>KC-306: Don't automatically set performance site from lead unit. Make Performance Site Locations section clearer.
+KC-203: Remove Key Personnel filter from search.
+KC-367: Add an advanced award search that does not filter out saved awards and previous versions.
+KC-326 Fix for locating a specific performance site is very difficult
+KC-679 New routing 5.1.1 (UhPersonDelegationMaintenanceDocument support)
+KC-800 and KC-801 Add Questionnaire to capture Unrecovered F and A information</t>
+  </si>
+  <si>
+    <t>Removed-Log4j properties copy needed for overlay only</t>
+  </si>
+  <si>
+    <t>cacerts file</t>
+  </si>
+  <si>
+    <t>Removed-Needed For Overlay only</t>
+  </si>
+  <si>
+    <t>custom overlay files</t>
+  </si>
+  <si>
+    <t>KC-467 fix to remove references to MIT from all messages</t>
+  </si>
+  <si>
+    <t>KC-869 Awards opened from award notice emails randomly failing
+Had to move this file to new location so UHSpringBeansOverride probably needs to me modified to point to this file</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/edu/hawaii/UHKEWOverrideSpringBeans.xml</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/org/kuali/kra/printing/stylesheet/QuestionnaireReport.xsl</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/org/kuali/kra/printing/stylesheet/printCertification.xsl</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/META-INF/cacerts.ips.keystore</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/UhApplicationResources.properties</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/resources/uh-bootstrap-springbeans.xml</t>
+  </si>
+  <si>
+    <t>Uh Application resources</t>
+  </si>
+  <si>
+    <t>Uh Spring Beans Bootstrap</t>
   </si>
 </sst>
 </file>
@@ -5482,10 +5719,10 @@
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="G156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="F189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -5539,14 +5776,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="H6" t="s">
         <v>1220</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5562,14 +5799,14 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>1.3839285714285714</v>
+        <v>1.7410714285714286</v>
       </c>
       <c r="H7" t="s">
         <v>1221</v>
       </c>
       <c r="I7" s="3">
         <f>COUNTIF(I13:I400,"Keep*")</f>
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5585,14 +5822,14 @@
       </c>
       <c r="F8" s="5">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>1363</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Removed*")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5608,14 +5845,14 @@
       </c>
       <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>9.8214285714285712E-2</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="H9" t="s">
         <v>1350</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5631,7 +5868,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -10826,7 +11063,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" ht="60">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -10842,17 +11079,23 @@
       <c r="G157" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="H157" t="s">
-        <v>29</v>
+      <c r="H157" s="7">
+        <v>42041</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K157" t="s">
+        <v>1515</v>
       </c>
       <c r="L157" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="90">
       <c r="A158" t="s">
         <v>46</v>
       </c>
@@ -10868,17 +11111,23 @@
       <c r="G158" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="H158" t="s">
-        <v>29</v>
+      <c r="H158" s="7">
+        <v>42041</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K158" t="s">
+        <v>1516</v>
       </c>
       <c r="L158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="90">
       <c r="A159" t="s">
         <v>46</v>
       </c>
@@ -10894,17 +11143,23 @@
       <c r="G159" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="H159" t="s">
-        <v>29</v>
+      <c r="H159" s="7">
+        <v>42041</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1517</v>
       </c>
       <c r="L159" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="135">
       <c r="A160" t="s">
         <v>46</v>
       </c>
@@ -10920,17 +11175,23 @@
       <c r="G160" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="H160" t="s">
-        <v>29</v>
+      <c r="H160" s="7">
+        <v>42041</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1518</v>
       </c>
       <c r="L160" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="60">
       <c r="A161" t="s">
         <v>46</v>
       </c>
@@ -10946,17 +11207,23 @@
       <c r="G161" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="H161" t="s">
-        <v>29</v>
+      <c r="H161" s="7">
+        <v>42041</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1540</v>
       </c>
       <c r="L161" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="60">
       <c r="A162" t="s">
         <v>46</v>
       </c>
@@ -10972,17 +11239,23 @@
       <c r="G162" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="H162" t="s">
-        <v>29</v>
+      <c r="H162" s="7">
+        <v>42041</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K162" t="s">
+        <v>1541</v>
       </c>
       <c r="L162" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="60">
       <c r="A163" t="s">
         <v>46</v>
       </c>
@@ -10998,17 +11271,23 @@
       <c r="G163" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="H163" t="s">
-        <v>29</v>
+      <c r="H163" s="7">
+        <v>42041</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1519</v>
       </c>
       <c r="L163" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="210">
       <c r="A164" t="s">
         <v>46</v>
       </c>
@@ -11024,17 +11303,23 @@
       <c r="G164" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="H164" t="s">
-        <v>29</v>
+      <c r="H164" s="7">
+        <v>42041</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1520</v>
       </c>
       <c r="L164" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="90">
       <c r="A165" t="s">
         <v>46</v>
       </c>
@@ -11050,17 +11335,23 @@
       <c r="G165" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="H165" t="s">
-        <v>29</v>
+      <c r="H165" s="7">
+        <v>42041</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1521</v>
       </c>
       <c r="L165" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="90">
       <c r="A166" t="s">
         <v>46</v>
       </c>
@@ -11076,17 +11367,23 @@
       <c r="G166" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="H166" t="s">
-        <v>29</v>
+      <c r="H166" s="7">
+        <v>42041</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K166" t="s">
+        <v>1522</v>
       </c>
       <c r="L166" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="90">
       <c r="A167" t="s">
         <v>46</v>
       </c>
@@ -11102,17 +11399,23 @@
       <c r="G167" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="H167" t="s">
-        <v>29</v>
+      <c r="H167" s="7">
+        <v>42041</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K167" t="s">
+        <v>1523</v>
       </c>
       <c r="L167" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="75">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -11128,17 +11431,23 @@
       <c r="G168" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="H168" t="s">
-        <v>29</v>
+      <c r="H168" s="7">
+        <v>42041</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K168" t="s">
+        <v>1524</v>
       </c>
       <c r="L168" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="60">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -11154,17 +11463,23 @@
       <c r="G169" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="H169" t="s">
-        <v>29</v>
+      <c r="H169" s="7">
+        <v>42041</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K169" t="s">
+        <v>1525</v>
       </c>
       <c r="L169" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="60">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -11180,17 +11495,23 @@
       <c r="G170" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="H170" t="s">
-        <v>29</v>
+      <c r="H170" s="7">
+        <v>42041</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K170" t="s">
+        <v>1526</v>
       </c>
       <c r="L170" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="75">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -11206,17 +11527,23 @@
       <c r="G171" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="H171" t="s">
-        <v>29</v>
+      <c r="H171" s="7">
+        <v>42041</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K171" t="s">
+        <v>1527</v>
       </c>
       <c r="L171" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="60">
       <c r="A172" t="s">
         <v>46</v>
       </c>
@@ -11232,17 +11559,23 @@
       <c r="G172" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="H172" t="s">
-        <v>29</v>
+      <c r="H172" s="7">
+        <v>42041</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1528</v>
       </c>
       <c r="L172" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="90">
       <c r="A173" t="s">
         <v>46</v>
       </c>
@@ -11258,17 +11591,23 @@
       <c r="G173" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="H173" t="s">
-        <v>29</v>
+      <c r="H173" s="7">
+        <v>42041</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K173" t="s">
+        <v>1529</v>
       </c>
       <c r="L173" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="210">
       <c r="A174" t="s">
         <v>46</v>
       </c>
@@ -11284,17 +11623,23 @@
       <c r="G174" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="H174" t="s">
-        <v>29</v>
+      <c r="H174" s="7">
+        <v>42041</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1530</v>
       </c>
       <c r="L174" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="60">
       <c r="A175" t="s">
         <v>46</v>
       </c>
@@ -11310,17 +11655,23 @@
       <c r="G175" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="H175" t="s">
-        <v>29</v>
+      <c r="H175" s="7">
+        <v>42041</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1531</v>
       </c>
       <c r="L175" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="60">
       <c r="A176" t="s">
         <v>46</v>
       </c>
@@ -11336,17 +11687,23 @@
       <c r="G176" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="H176" t="s">
-        <v>29</v>
+      <c r="H176" s="7">
+        <v>42041</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K176" t="s">
+        <v>1532</v>
       </c>
       <c r="L176" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="60">
       <c r="A177" t="s">
         <v>46</v>
       </c>
@@ -11362,17 +11719,23 @@
       <c r="G177" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="H177" t="s">
-        <v>29</v>
+      <c r="H177" s="7">
+        <v>42041</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1533</v>
       </c>
       <c r="L177" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="60">
       <c r="A178" t="s">
         <v>46</v>
       </c>
@@ -11388,17 +11751,23 @@
       <c r="G178" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="H178" t="s">
-        <v>29</v>
+      <c r="H178" s="7">
+        <v>42041</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1534</v>
       </c>
       <c r="L178" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="60">
       <c r="A179" t="s">
         <v>46</v>
       </c>
@@ -11414,17 +11783,23 @@
       <c r="G179" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="H179" t="s">
-        <v>29</v>
+      <c r="H179" s="7">
+        <v>42041</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K179" t="s">
+        <v>1535</v>
       </c>
       <c r="L179" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="60">
       <c r="A180" t="s">
         <v>46</v>
       </c>
@@ -11440,17 +11815,23 @@
       <c r="G180" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="H180" t="s">
-        <v>29</v>
+      <c r="H180" s="7">
+        <v>42041</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K180" t="s">
+        <v>1536</v>
       </c>
       <c r="L180" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="60">
       <c r="A181" t="s">
         <v>46</v>
       </c>
@@ -11466,17 +11847,23 @@
       <c r="G181" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="H181" t="s">
-        <v>29</v>
+      <c r="H181" s="7">
+        <v>42041</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K181" t="s">
+        <v>1537</v>
       </c>
       <c r="L181" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="60">
       <c r="A182" t="s">
         <v>46</v>
       </c>
@@ -11492,17 +11879,23 @@
       <c r="G182" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="H182" t="s">
-        <v>29</v>
+      <c r="H182" s="7">
+        <v>42041</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K182" t="s">
+        <v>1538</v>
       </c>
       <c r="L182" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="60">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -11518,17 +11911,23 @@
       <c r="G183" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="H183" t="s">
-        <v>29</v>
+      <c r="H183" s="7">
+        <v>42041</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K183" t="s">
+        <v>1539</v>
       </c>
       <c r="L183" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="105">
       <c r="A184" t="s">
         <v>46</v>
       </c>
@@ -11544,17 +11943,23 @@
       <c r="G184" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="H184" t="s">
-        <v>29</v>
+      <c r="H184" s="7">
+        <v>42041</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K184" t="s">
+        <v>1542</v>
       </c>
       <c r="L184" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="60">
       <c r="A185" t="s">
         <v>46</v>
       </c>
@@ -11570,17 +11975,23 @@
       <c r="G185" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="H185" t="s">
-        <v>29</v>
+      <c r="H185" s="7">
+        <v>42041</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1543</v>
       </c>
       <c r="L185" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="60">
       <c r="A186" t="s">
         <v>46</v>
       </c>
@@ -11596,17 +12007,23 @@
       <c r="G186" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="H186" t="s">
-        <v>29</v>
+      <c r="H186" s="7">
+        <v>42041</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1544</v>
       </c>
       <c r="L186" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="60">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -11622,17 +12039,23 @@
       <c r="G187" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="H187" t="s">
-        <v>29</v>
+      <c r="H187" s="7">
+        <v>42041</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1545</v>
       </c>
       <c r="L187" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="270">
       <c r="A188" t="s">
         <v>46</v>
       </c>
@@ -11648,17 +12071,23 @@
       <c r="G188" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="H188" t="s">
-        <v>29</v>
+      <c r="H188" s="7">
+        <v>42041</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>29</v>
+        <v>1548</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1546</v>
       </c>
       <c r="L188" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="30">
       <c r="A189" t="s">
         <v>730</v>
       </c>
@@ -11680,14 +12109,20 @@
       <c r="G189" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="H189" t="s">
-        <v>29</v>
+      <c r="H189" s="7">
+        <v>42041</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>29</v>
+        <v>1572</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1230</v>
       </c>
       <c r="L189" t="s">
-        <v>29</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -11706,17 +12141,23 @@
       <c r="G190" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="H190" t="s">
-        <v>29</v>
+      <c r="H190" s="7">
+        <v>42041</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>29</v>
+        <v>1221</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K190" t="s">
+        <v>1581</v>
       </c>
       <c r="L190" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="30">
       <c r="A191" t="s">
         <v>46</v>
       </c>
@@ -11732,17 +12173,23 @@
       <c r="G191" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="H191" t="s">
-        <v>29</v>
+      <c r="H191" s="7">
+        <v>42041</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>29</v>
+        <v>1574</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K191" t="s">
+        <v>1230</v>
       </c>
       <c r="L191" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="30">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -11764,17 +12211,23 @@
       <c r="G192" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="H192" t="s">
-        <v>29</v>
+      <c r="H192" s="7">
+        <v>42041</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K192" t="s">
+        <v>1580</v>
       </c>
       <c r="L192" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="30">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -11796,17 +12249,23 @@
       <c r="G193" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="H193" t="s">
-        <v>29</v>
+      <c r="H193" s="7">
+        <v>42041</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>29</v>
+        <v>1220</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K193" t="s">
+        <v>1579</v>
       </c>
       <c r="L193" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="120">
       <c r="A194" t="s">
         <v>46</v>
       </c>
@@ -11822,14 +12281,20 @@
       <c r="G194" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="H194" t="s">
-        <v>29</v>
+      <c r="H194" s="7">
+        <v>42041</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>29</v>
+        <v>1350</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K194" t="s">
+        <v>1578</v>
       </c>
       <c r="L194" t="s">
-        <v>29</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -11848,11 +12313,17 @@
       <c r="G195" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="H195" t="s">
-        <v>29</v>
+      <c r="H195" s="7">
+        <v>42041</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>29</v>
+        <v>1221</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K195" t="s">
+        <v>1582</v>
       </c>
       <c r="L195" t="s">
         <v>29</v>
@@ -11874,11 +12345,17 @@
       <c r="G196" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="H196" t="s">
-        <v>29</v>
+      <c r="H196" s="7">
+        <v>42041</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>29</v>
+        <v>1221</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K196" t="s">
+        <v>1583</v>
       </c>
       <c r="L196" t="s">
         <v>29</v>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="510" windowWidth="35805" windowHeight="16110"/>
+    <workbookView xWindow="180" yWindow="180" windowWidth="35805" windowHeight="16110"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1730">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -5279,6 +5279,44 @@
   </si>
   <si>
     <t>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-5.1/web/src/main/webapp/portal.jsp /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/webapp/portal.jsp /cygdrive/c/Users/ronald/github/rice/rice-middleware/web/src/main/webapp/portal.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-679 New routing for 5.1.1 When multiple found display the qualified roll before the multiple message</t>
+  </si>
+  <si>
+    <t>Merged - Rice Overlayed in KC</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/kew/WEB-INF/jsp/routelog/ActionRequest.jsp</t>
+  </si>
+  <si>
+    <t>KC-680 Improve budget finalization 
+NOTE: I know they changed the interface so this fix should not work but the code was unmodifed.  I am guessing this is dead code and likley there will be others.   We need to test every feature to make sure they still w</t>
+  </si>
+  <si>
+    <t>Merged - NOTE: We can likely remove this change since we need to re-implement this change</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/css/kuali_overrides.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-??? Add uh look and feel
+KC-??? Make header smaller and left aligned
+KC-550 Message in top bar from param
+</t>
+  </si>
+  <si>
+    <t>KC-679 New routing for 5.1.1 Remove date/time and add route node name (Routing Group) for future actions only</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/kew/WEB-INF/jsp/routelog/RouteLog.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-487 Move to Standard Rice in preperation for KC5.0 merge. UH Rice not available in 2.0 version
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/kim/WEB-INF/jsp/identityManagementPersonDocument.jsp</t>
   </si>
 </sst>
 </file>
@@ -6133,10 +6171,10 @@
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="F262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C281" sqref="C281"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -6191,14 +6229,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
         <v>1133</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6214,7 +6252,7 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>1.9137931034482758</v>
+        <v>1.9568965517241379</v>
       </c>
       <c r="H7" t="s">
         <v>1134</v>
@@ -6283,7 +6321,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12741,7 +12779,7 @@
         <v>1495</v>
       </c>
       <c r="L195" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -12773,10 +12811,10 @@
         <v>1496</v>
       </c>
       <c r="L196" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="150">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -12798,13 +12836,20 @@
       <c r="G197" t="s">
         <v>764</v>
       </c>
-      <c r="H197" t="s">
-        <v>29</v>
-      </c>
-      <c r="I197"/>
-      <c r="J197"/>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="H197" s="7">
+        <v>42052</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="90">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -12826,11 +12871,21 @@
       <c r="G198" t="s">
         <v>767</v>
       </c>
-      <c r="H198" t="s">
-        <v>29</v>
-      </c>
-      <c r="I198"/>
-      <c r="J198"/>
+      <c r="H198" s="7">
+        <v>42052</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K198" t="s">
+        <v>1724</v>
+      </c>
+      <c r="L198" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="199" spans="1:12" ht="30">
       <c r="A199" t="s">
@@ -12861,7 +12916,7 @@
         <v>1230</v>
       </c>
       <c r="L199" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="45">
@@ -12893,10 +12948,10 @@
         <v>1230</v>
       </c>
       <c r="L200" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="60">
       <c r="A201" t="s">
         <v>771</v>
       </c>
@@ -12918,13 +12973,23 @@
       <c r="G201" t="s">
         <v>774</v>
       </c>
-      <c r="H201" t="s">
-        <v>29</v>
-      </c>
-      <c r="I201"/>
-      <c r="J201"/>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="H201" s="7">
+        <v>42052</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K201" t="s">
+        <v>1721</v>
+      </c>
+      <c r="L201" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="60">
       <c r="A202" t="s">
         <v>771</v>
       </c>
@@ -12946,13 +13011,23 @@
       <c r="G202" t="s">
         <v>777</v>
       </c>
-      <c r="H202" t="s">
-        <v>29</v>
-      </c>
-      <c r="I202"/>
-      <c r="J202"/>
-    </row>
-    <row r="203" spans="1:12">
+      <c r="H202" s="7">
+        <v>42052</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K202" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L202" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="60">
       <c r="A203" t="s">
         <v>771</v>
       </c>
@@ -12974,11 +13049,21 @@
       <c r="G203" t="s">
         <v>780</v>
       </c>
-      <c r="H203" t="s">
-        <v>29</v>
-      </c>
-      <c r="I203"/>
-      <c r="J203"/>
+      <c r="H203" s="7">
+        <v>42052</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="K203" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L203" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="1777">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -5317,6 +5317,162 @@
   </si>
   <si>
     <t>coeus-webapp/src/main/webapp/kim/WEB-INF/jsp/identityManagementPersonDocument.jsp</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/kr/static/images/uh_buttonsmall_cancel_document.gif</t>
+  </si>
+  <si>
+    <t>KC-337: For documents, change cancel button to say cancel document</t>
+  </si>
+  <si>
+    <t>KC-755 Remove Organization Lookup from Address Book
+KC-535 If SOLR is down search's result in incident report</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/kr/WEB-INF/jsp/KualiLookup.jsp</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/kr/WEB-INF/struts-config.xml</t>
+  </si>
+  <si>
+    <t>Another test file from Shaun Not needed</t>
+  </si>
+  <si>
+    <t>KC-531 Improve message when user doesn't have "KC USER" group current</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/PermissionDenied.jsp</t>
+  </si>
+  <si>
+    <t>KC-517 Add Help/Resources tab to myGRANT</t>
+  </si>
+  <si>
+    <t>Review-Help Tab can't exist in new design.  I think we can just put help on main page where they put the 6.0 release features list</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/scripts/kuali_application.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-328 When adding people to permissions tab Full Name, Unit # and Unit Name say "not found" for valid users
+KC-680 Improve budget finalization (Needs work)
+KC-480 PD - Abstracts and Attachments Tab (Abstracts section): Request for "Project Summary" to be default selection for field 
+</t>
+  </si>
+  <si>
+    <t>Review - I merged but may need to look at KC-680 code given new design
+I think there is better way to do KC-480 and it will likely be different in new design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-808 Text Area child questions don't clear when hidden and still save to DB</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/scripts/questionnaireAnswer.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-648 Incident Report when navigating to another tab before Proposal Summary tab finishes loading
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/scripts/uh_app.js</t>
+  </si>
+  <si>
+    <t>KC-??? Fix missing button</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/static/images/tinybutton-maint.gif</t>
+  </si>
+  <si>
+    <t>KC-821 Only allow one Negotiation per child award. (New Button)</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/static/images/tinybutton-negotiations.gif</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/static/images/tinybutton-openaward.gif</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/static/images/tinybutton-sendmemo.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-822 Add send notification button and a link to launch Award Memo Tool
+</t>
+  </si>
+  <si>
+    <t>KC-??? Add new return for changes button and reference it for proposal document actions</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/static/images/uh_buttonsmall_return.gif</t>
+  </si>
+  <si>
+    <t>KC-605 Add ability to enter timezone to Sponsor Deadline Time</t>
+  </si>
+  <si>
+    <t>KC-541 "Unit Search" Field does not get pre-populated with the Unit Number when initiating a Unit lookup from Person Edit Screen</t>
+  </si>
+  <si>
+    <t>KC-553 Lock down person edit page</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/kim/attributeLookup.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/kim/personContact.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/institutionalproposal/institutionalProposalSponsorAndProgramInformation.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-487 rbl only admins can add/change delegations code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A </t>
+  </si>
+  <si>
+    <t>Removed Why would we need this.  Person Maintenance is only available to admins</t>
+  </si>
+  <si>
+    <t>KC-487 rbl only admins can change the primary department code</t>
+  </si>
+  <si>
+    <t>KC-487 rbl only admins can edit role qualifiers</t>
+  </si>
+  <si>
+    <t>KC-487 rbl added code to allow suppression of close button on person identity management person screen</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/kr/htmlControlAttribute.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-492 Data entered into Custom Data text box is not viewable because text fields are too small</t>
+  </si>
+  <si>
+    <t>Review - Don't think we need this anymore.  New design may not have same issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-822 Add send notification button and a link to launch Award Memo Tool
+ KC-818 Default Agreement Type to "AWARD", then hide Anticipated Award Date, and Document Folder fields
+KC-831 Allow Negotiations to be linked with Saved documents
+KC-819 Display UH Assigned To field on the Negotiations Attributes Tab and Default negotiator
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/negotiation/negotiation.tag</t>
+  </si>
+  <si>
+    <t>KC-814 Default negotiations activities tab to open to make data entry easier
+KC-856 Hide entire activity if restricted and user can not view restricted</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/negotiation/negotiationActivities.tag</t>
+  </si>
+  <si>
+    <t>KC-871 Change negotiation activities back to closed
+KC-820 Modify Negotiation Description restricted/unrestricted
+KC-822 Add send notification button and a link to launch Award Memo Tool
+ KC-814 Set Start to Default to Today</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/negotiation/negotiationActivity.tag</t>
   </si>
 </sst>
 </file>
@@ -6171,17 +6327,17 @@
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="162.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
     <col min="4" max="4" width="67.140625" customWidth="1"/>
     <col min="6" max="7" width="31.140625" style="5"/>
     <col min="9" max="10" width="31.140625" style="3"/>
@@ -6229,14 +6385,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="H6" t="s">
         <v>1133</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6252,14 +6408,14 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>1.9568965517241379</v>
+        <v>2.2155172413793105</v>
       </c>
       <c r="H7" t="s">
         <v>1134</v>
       </c>
       <c r="I7" s="3">
         <f>COUNTIF(I13:I400,"Keep*")</f>
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6275,14 +6431,14 @@
       </c>
       <c r="F8" s="5">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>1276</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Remove*")</f>
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6298,14 +6454,14 @@
       </c>
       <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>0.1206896551724138</v>
+        <v>0.14655172413793102</v>
       </c>
       <c r="H9" t="s">
         <v>1263</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6321,7 +6477,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -13065,7 +13221,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" ht="45">
       <c r="A204" t="s">
         <v>46</v>
       </c>
@@ -13081,17 +13237,23 @@
       <c r="G204" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="H204" t="s">
-        <v>29</v>
+      <c r="H204" s="7">
+        <v>42052</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1730</v>
       </c>
       <c r="L204" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="60">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -13113,13 +13275,23 @@
       <c r="G205" t="s">
         <v>785</v>
       </c>
-      <c r="H205" t="s">
-        <v>29</v>
-      </c>
-      <c r="I205"/>
-      <c r="J205"/>
-    </row>
-    <row r="206" spans="1:12">
+      <c r="H205" s="7">
+        <v>42052</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1733</v>
+      </c>
+      <c r="L205" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="30">
       <c r="A206" t="s">
         <v>730</v>
       </c>
@@ -13141,17 +13313,23 @@
       <c r="G206" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="H206" t="s">
-        <v>29</v>
+      <c r="H206" s="7">
+        <v>42052</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>29</v>
+        <v>1133</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K206" t="s">
+        <v>1734</v>
       </c>
       <c r="L206" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="30">
       <c r="A207" t="s">
         <v>46</v>
       </c>
@@ -13167,17 +13345,23 @@
       <c r="G207" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="H207" t="s">
-        <v>29</v>
+      <c r="H207" s="7">
+        <v>42052</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>29</v>
+        <v>1276</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K207" t="s">
+        <v>1143</v>
       </c>
       <c r="L207" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="45">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -13193,17 +13377,23 @@
       <c r="G208" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="H208" t="s">
-        <v>29</v>
+      <c r="H208" s="7">
+        <v>42052</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K208" t="s">
+        <v>1737</v>
       </c>
       <c r="L208" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="75">
       <c r="A209" t="s">
         <v>771</v>
       </c>
@@ -13225,13 +13415,23 @@
       <c r="G209" t="s">
         <v>798</v>
       </c>
-      <c r="H209" t="s">
-        <v>29</v>
-      </c>
-      <c r="I209"/>
-      <c r="J209"/>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="H209" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K209" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L209" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="180">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -13253,11 +13453,21 @@
       <c r="G210" t="s">
         <v>801</v>
       </c>
-      <c r="H210" t="s">
-        <v>29</v>
-      </c>
-      <c r="I210"/>
-      <c r="J210"/>
+      <c r="H210" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K210" t="s">
+        <v>1740</v>
+      </c>
+      <c r="L210" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="211" spans="1:12">
       <c r="A211" t="s">
@@ -13281,13 +13491,23 @@
       <c r="G211" t="s">
         <v>804</v>
       </c>
-      <c r="H211" t="s">
-        <v>29</v>
-      </c>
-      <c r="I211"/>
-      <c r="J211"/>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="H211" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1744</v>
+      </c>
+      <c r="L211" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="75">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -13303,14 +13523,20 @@
       <c r="G212" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="H212" t="s">
-        <v>29</v>
+      <c r="H212" s="7">
+        <v>42054</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K212" t="s">
+        <v>1746</v>
       </c>
       <c r="L212" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -13329,17 +13555,23 @@
       <c r="G213" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="H213" t="s">
-        <v>29</v>
+      <c r="H213" s="7">
+        <v>42054</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1748</v>
       </c>
       <c r="L213" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="45">
       <c r="A214" t="s">
         <v>46</v>
       </c>
@@ -13355,17 +13587,23 @@
       <c r="G214" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="H214" t="s">
-        <v>29</v>
+      <c r="H214" s="7">
+        <v>42054</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K214" t="s">
+        <v>1750</v>
       </c>
       <c r="L214" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="45">
       <c r="A215" t="s">
         <v>30</v>
       </c>
@@ -13387,13 +13625,23 @@
       <c r="G215" t="s">
         <v>816</v>
       </c>
-      <c r="H215" t="s">
-        <v>29</v>
-      </c>
-      <c r="I215"/>
-      <c r="J215"/>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="H215" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K215" t="s">
+        <v>1751</v>
+      </c>
+      <c r="L215" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="60">
       <c r="A216" t="s">
         <v>46</v>
       </c>
@@ -13409,17 +13657,23 @@
       <c r="G216" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="H216" t="s">
-        <v>29</v>
+      <c r="H216" s="7">
+        <v>42054</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K216" t="s">
+        <v>1752</v>
       </c>
       <c r="L216" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="45">
       <c r="A217" t="s">
         <v>46</v>
       </c>
@@ -13435,14 +13689,20 @@
       <c r="G217" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="H217" t="s">
-        <v>29</v>
+      <c r="H217" s="7">
+        <v>42054</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1755</v>
       </c>
       <c r="L217" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -13474,7 +13734,7 @@
         <v>1358</v>
       </c>
       <c r="L218" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -13506,7 +13766,7 @@
         <v>1358</v>
       </c>
       <c r="L219" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -13538,7 +13798,7 @@
         <v>1358</v>
       </c>
       <c r="L220" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -13570,7 +13830,7 @@
         <v>1358</v>
       </c>
       <c r="L221" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -13602,7 +13862,7 @@
         <v>1358</v>
       </c>
       <c r="L222" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -13634,7 +13894,7 @@
         <v>1358</v>
       </c>
       <c r="L223" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -13666,7 +13926,7 @@
         <v>1358</v>
       </c>
       <c r="L224" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -13698,7 +13958,7 @@
         <v>1358</v>
       </c>
       <c r="L225" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -13730,7 +13990,7 @@
         <v>1358</v>
       </c>
       <c r="L226" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -13762,7 +14022,7 @@
         <v>1358</v>
       </c>
       <c r="L227" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -13794,7 +14054,7 @@
         <v>1358</v>
       </c>
       <c r="L228" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -13826,7 +14086,7 @@
         <v>1358</v>
       </c>
       <c r="L229" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -13858,7 +14118,7 @@
         <v>1358</v>
       </c>
       <c r="L230" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -13890,7 +14150,7 @@
         <v>1358</v>
       </c>
       <c r="L231" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -13922,7 +14182,7 @@
         <v>1358</v>
       </c>
       <c r="L232" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -13954,7 +14214,7 @@
         <v>1358</v>
       </c>
       <c r="L233" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -13986,7 +14246,7 @@
         <v>1358</v>
       </c>
       <c r="L234" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -14018,7 +14278,7 @@
         <v>1358</v>
       </c>
       <c r="L235" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -14050,7 +14310,7 @@
         <v>1358</v>
       </c>
       <c r="L236" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -14082,7 +14342,7 @@
         <v>1500</v>
       </c>
       <c r="L237" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -14114,7 +14374,7 @@
         <v>1501</v>
       </c>
       <c r="L238" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="60">
@@ -14152,7 +14412,7 @@
         <v>1506</v>
       </c>
       <c r="L239" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="30">
@@ -15049,7 +15309,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" ht="45">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -15071,16 +15331,23 @@
       <c r="G264" t="s">
         <v>964</v>
       </c>
-      <c r="H264" t="s">
-        <v>29</v>
-      </c>
-      <c r="I264"/>
-      <c r="J264"/>
+      <c r="H264" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K264" t="s">
+        <v>1761</v>
+      </c>
       <c r="L264" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="75">
       <c r="A265" t="s">
         <v>771</v>
       </c>
@@ -15102,11 +15369,21 @@
       <c r="G265" t="s">
         <v>967</v>
       </c>
-      <c r="H265" t="s">
-        <v>29</v>
-      </c>
-      <c r="I265"/>
-      <c r="J265"/>
+      <c r="H265" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K265" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L265" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="266" spans="1:12">
       <c r="A266" t="s">
@@ -15130,13 +15407,23 @@
       <c r="G266" t="s">
         <v>970</v>
       </c>
-      <c r="H266" t="s">
-        <v>29</v>
-      </c>
-      <c r="I266"/>
-      <c r="J266"/>
-    </row>
-    <row r="267" spans="1:12">
+      <c r="H266" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K266" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L266" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="45">
       <c r="A267" t="s">
         <v>771</v>
       </c>
@@ -15158,13 +15445,23 @@
       <c r="G267" t="s">
         <v>973</v>
       </c>
-      <c r="H267" t="s">
-        <v>29</v>
-      </c>
-      <c r="I267"/>
-      <c r="J267"/>
-    </row>
-    <row r="268" spans="1:12">
+      <c r="H267" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K267" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L267" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="45">
       <c r="A268" t="s">
         <v>771</v>
       </c>
@@ -15186,13 +15483,23 @@
       <c r="G268" t="s">
         <v>976</v>
       </c>
-      <c r="H268" t="s">
-        <v>29</v>
-      </c>
-      <c r="I268"/>
-      <c r="J268"/>
-    </row>
-    <row r="269" spans="1:12">
+      <c r="H268" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K268" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L268" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="45">
       <c r="A269" t="s">
         <v>771</v>
       </c>
@@ -15214,13 +15521,23 @@
       <c r="G269" t="s">
         <v>979</v>
       </c>
-      <c r="H269" t="s">
-        <v>29</v>
-      </c>
-      <c r="I269"/>
-      <c r="J269"/>
-    </row>
-    <row r="270" spans="1:12">
+      <c r="H269" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K269" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L269" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="45">
       <c r="A270" t="s">
         <v>771</v>
       </c>
@@ -15242,13 +15559,23 @@
       <c r="G270" t="s">
         <v>982</v>
       </c>
-      <c r="H270" t="s">
-        <v>29</v>
-      </c>
-      <c r="I270"/>
-      <c r="J270"/>
-    </row>
-    <row r="271" spans="1:12">
+      <c r="H270" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K270" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L270" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="45">
       <c r="A271" t="s">
         <v>771</v>
       </c>
@@ -15270,13 +15597,23 @@
       <c r="G271" t="s">
         <v>985</v>
       </c>
-      <c r="H271" t="s">
-        <v>29</v>
-      </c>
-      <c r="I271"/>
-      <c r="J271"/>
-    </row>
-    <row r="272" spans="1:12">
+      <c r="H271" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K271" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L271" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="45">
       <c r="A272" t="s">
         <v>771</v>
       </c>
@@ -15298,13 +15635,23 @@
       <c r="G272" t="s">
         <v>988</v>
       </c>
-      <c r="H272" t="s">
-        <v>29</v>
-      </c>
-      <c r="I272"/>
-      <c r="J272"/>
-    </row>
-    <row r="273" spans="1:12">
+      <c r="H272" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K272" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L272" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="45">
       <c r="A273" t="s">
         <v>771</v>
       </c>
@@ -15326,13 +15673,23 @@
       <c r="G273" t="s">
         <v>991</v>
       </c>
-      <c r="H273" t="s">
-        <v>29</v>
-      </c>
-      <c r="I273"/>
-      <c r="J273"/>
-    </row>
-    <row r="274" spans="1:12">
+      <c r="H273" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J273" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K273" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L273" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="45">
       <c r="A274" t="s">
         <v>771</v>
       </c>
@@ -15354,11 +15711,21 @@
       <c r="G274" t="s">
         <v>994</v>
       </c>
-      <c r="H274" t="s">
-        <v>29</v>
-      </c>
-      <c r="I274"/>
-      <c r="J274"/>
+      <c r="H274" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J274" t="s">
+        <v>1767</v>
+      </c>
+      <c r="K274" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L274" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="275" spans="1:12">
       <c r="A275" t="s">
@@ -15382,13 +15749,20 @@
       <c r="G275" t="s">
         <v>997</v>
       </c>
-      <c r="H275" t="s">
-        <v>29</v>
-      </c>
-      <c r="I275"/>
-      <c r="J275"/>
-    </row>
-    <row r="276" spans="1:12">
+      <c r="H275" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J275" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K275" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="75">
       <c r="A276" t="s">
         <v>771</v>
       </c>
@@ -15410,13 +15784,23 @@
       <c r="G276" t="s">
         <v>1000</v>
       </c>
-      <c r="H276" t="s">
-        <v>29</v>
-      </c>
-      <c r="I276"/>
-      <c r="J276"/>
-    </row>
-    <row r="277" spans="1:12">
+      <c r="H276" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K276" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L276" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="210">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -15438,16 +15822,23 @@
       <c r="G277" t="s">
         <v>1003</v>
       </c>
-      <c r="H277" t="s">
-        <v>29</v>
-      </c>
-      <c r="I277"/>
-      <c r="J277"/>
+      <c r="H277" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K277" t="s">
+        <v>1772</v>
+      </c>
       <c r="L277" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="90">
       <c r="A278" t="s">
         <v>23</v>
       </c>
@@ -15469,16 +15860,23 @@
       <c r="G278" t="s">
         <v>1006</v>
       </c>
-      <c r="H278" t="s">
-        <v>29</v>
-      </c>
-      <c r="I278"/>
-      <c r="J278"/>
+      <c r="H278" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K278" t="s">
+        <v>1774</v>
+      </c>
       <c r="L278" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="150">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -15500,13 +15898,20 @@
       <c r="G279" t="s">
         <v>1009</v>
       </c>
-      <c r="H279" t="s">
-        <v>29</v>
-      </c>
-      <c r="I279"/>
-      <c r="J279"/>
+      <c r="H279" s="7">
+        <v>42054</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K279" t="s">
+        <v>1776</v>
+      </c>
       <c r="L279" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -15531,11 +15936,18 @@
       <c r="G280" t="s">
         <v>1012</v>
       </c>
-      <c r="H280" t="s">
+      <c r="H280" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I280"/>
-      <c r="J280"/>
+      <c r="I280" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J280" t="s">
+        <v>29</v>
+      </c>
+      <c r="K280" t="s">
+        <v>29</v>
+      </c>
       <c r="L280" t="s">
         <v>29</v>
       </c>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1867">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -5443,9 +5443,6 @@
     <t>coeus-webapp/src/main/webapp/WEB-INF/tags/kr/htmlControlAttribute.tag</t>
   </si>
   <si>
-    <t xml:space="preserve"> KC-492 Data entered into Custom Data text box is not viewable because text fields are too small</t>
-  </si>
-  <si>
     <t>Review - Don't think we need this anymore.  New design may not have same issue.</t>
   </si>
   <si>
@@ -5473,6 +5470,304 @@
   </si>
   <si>
     <t>coeus-webapp/src/main/webapp/WEB-INF/tags/negotiation/negotiationActivity.tag</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/webapp/WEB-INF/jsp/award/AwardCustomData.jsp</t>
+  </si>
+  <si>
+    <t>p4fix.sh  /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src/main/webapp/WEB-INF/jsp/award/AwardCustomData.jsp  /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src/main/webapp/WEB-INF/jsp/award/AwardCustomData.jsp /cygdrive/c/Users/ronald/github/UhKc/coeus-webapp/src/main/webapp/WEB-INF/jsp/award/AwardCustomData.jsp /cygdrive/c/Users/ronald/github/UhKc/coeus-webapp/src/main/webapp/WEB-INF/jsp/award/AwardCustomData.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-908 Make Award Custom Data tabs default to opened
+</t>
+  </si>
+  <si>
+    <t>Both New and Cust Modifed</t>
+  </si>
+  <si>
+    <t>Modifed after Merge Started (Production changes while merging)</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/printReports.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-676 standardize error message location
+KC-505 Require Certification Questions for all KeyPersons if they are employees only
+ KC-794 Key Person Certification Questions show up for non-employees
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/person.tag</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/core/ProposalDevelopmentForm.java</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/jsp/award/AwardCustomData.jsp</t>
+  </si>
+  <si>
+    <t>KC-911 Remove the custom data tab in PD if there are no custom data fields active</t>
+  </si>
+  <si>
+    <t>Copied code in by hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-201 No Scope of Work Field in Proposal Development
+KC-515 Improve Project Summary validation
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalDevelopmentAbstracts.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-676 standardize error location </t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalDevelopmentAttachments.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-654 Primary Performance Site difficult to understand how to add Changed Default to open to make it easier to see performance site requirement
+KC-306 - Rename section and don't automatically populate automatically
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalDevelopmentOrganizationAndLocation.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-805 Change PD Questions Tab to default all questionnaires as shown
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalDevelopmentQuestionnaireAnswers.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-658 Improve PD required field placement 
+KC-605 Add ability to enter timezone to Sponsor Deadline Time
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalDevelopmentRequiredFields.tag</t>
+  </si>
+  <si>
+    <t>Merged-Difficult merge with a lot of hand hacking to make it look right.  May have issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-658 Improve PD required field placement
+KC-676 Standardize error/warning location on page
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalDevelopmentSponsorProgramInformation.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-654 Primary Performance Site difficult to understand how to add
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalSite.tag</t>
+  </si>
+  <si>
+    <t>KC-805 Change PD Questions Tab to default all questionnaires as shown
+KC-319 added link to UH Export Controls Policy for Export Control Question #15</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/proposaldevelopment/proposalYnq.tag</t>
+  </si>
+  <si>
+    <t>KC-152: Wording Change (Document Lock)</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/administration/configuration.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-367: Add a link to search for awards including old versions
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/centralAdminPostAward.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/helplinks.tag</t>
+  </si>
+  <si>
+    <t>KC-510 Add HTML support to Message of the Day</t>
+  </si>
+  <si>
+    <t>Keep … Needs Review - Help tags….will this work in new design</t>
+  </si>
+  <si>
+    <t>Removed (We don't use built in Message of the Day anymore</t>
+  </si>
+  <si>
+    <t>KC-612 Declutter the menu screens</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/researcherAwards.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/researcherPersonnel.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-675 Have "All my proposals" run when selected 
+KC-612 Declutter the menu screens
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/researcherProposals.tag</t>
+  </si>
+  <si>
+    <t>KC-152: Wording Change (Document Lock)
+KC-612 Declutter the menu screens</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/researcherQuicklinks.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-545 Adding ORS Help Line Info Page
+KC-679 New routing 5.1.1 (Support Links)
+KC-901 Add ability for help desk to run the uhims process on deman
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/systemAdminSystem.tag</t>
+  </si>
+  <si>
+    <t>KC-814 ... removing central admin tab links to "add negotiation" and "all my negotiations"</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/UHcentralAdminPreAward.tag</t>
+  </si>
+  <si>
+    <t>KC-737 Remove menu items from Researcher and Unit Tab</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/unitPostAward.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/unitPreAward.tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-737 Remove menu items from Researcher and Unit Tab
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-152: Wording Change (Document Lock)
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/unitQuicklinks.tag</t>
+  </si>
+  <si>
+    <t>KC-267 Unit and Central Admin tabs have access to the "Rules" Lookup. Here you can disable rules which are used for routing, etc.</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/channel/unitWorkflow.tag</t>
+  </si>
+  <si>
+    <t>KC-550 Message in top bar from param</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/immutableBar.tag</t>
+  </si>
+  <si>
+    <t>KC-517 Add Help/Resources Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merged - Needs Review (Note looks like Help Tab will exist in old portal now….We need to move to new) </t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/portalBody.tag</t>
+  </si>
+  <si>
+    <t>KC-367 Make the advanced search show only on the central admin tab</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/portalCentralAdminBody.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/portalHelpBody.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/portalResearcherBody.tag</t>
+  </si>
+  <si>
+    <t>KC-517 Add Help Tab</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/portalTabs.tag</t>
+  </si>
+  <si>
+    <t>KC-649 Proposal Summary tab loads very slowly when opening enroute proposal</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/rice-portal/portalUnitBody.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/summary/proposalDevelopmentBudgetRates.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/summary/proposalDevelopmentBudgetSummary.tag</t>
+  </si>
+  <si>
+    <t>KC-580 BEGIN rbl added fix to get custom data values to display on Proposal Summary Tab of PD</t>
+  </si>
+  <si>
+    <t>Removed Same code in KC 60 version</t>
+  </si>
+  <si>
+    <t>KC-890 Certification questions showing as incomplete in Proposal Summary when completed</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/summary/proposalDevelopmentKeyPersonnel.tag</t>
+  </si>
+  <si>
+    <t>Removed - Same code fix in KC 60 version</t>
+  </si>
+  <si>
+    <t>KC 5.1 Proposal Development-Proposal Summary Tab: Cost Share amount and Unrecovered F&amp;A not from correct budget version</t>
+  </si>
+  <si>
+    <t>KC-731 YNQ missing from Proposal Development Summary Tab</t>
+  </si>
+  <si>
+    <t>Removed from KC6.0 and we don't use YNQ questions in PD anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-656 Parent Award Totals display incorrectly after T&amp;M transaction is added
+</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/timeandmoney/awardHierarchyTimeAndMoney.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/tags/uh/principalHasRole.tag</t>
+  </si>
+  <si>
+    <t>coeus-webapp/src/main/webapp/WEB-INF/web.xml</t>
+  </si>
+  <si>
+    <t>web.xml controls struts etc</t>
+  </si>
+  <si>
+    <t>KC-735 Add warning for Sponsor Deadline Time not entered</t>
+  </si>
+  <si>
+    <t>Review - code merged had to be commented out since it is no longer valid code.  We need to determine correct code and fix</t>
+  </si>
+  <si>
+    <t>KC-456 When an Internal Attachement is deleted when the user clicks save an error is displayed that filename is required</t>
+  </si>
+  <si>
+    <t>Review - Method changed no longer exists.  Perhaps this issue doesn't exist anymore need to test.</t>
+  </si>
+  <si>
+    <t>KC-859 KRMS Rule SponsorGroup doesn't allow sponsor to be listed in two groups.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/sponsor/ProposalDevelopmentSponsorProgramInformationAuditRule.java</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/krms/PropDevJavaFunctionKrmsTermServiceImpl.java</t>
   </si>
 </sst>
 </file>
@@ -5969,7 +6264,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -5989,6 +6284,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6324,13 +6620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M320"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F280" sqref="F280"/>
+      <selection pane="bottomRight" activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -6385,14 +6681,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
         <v>1133</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6408,14 +6704,14 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>2.2155172413793105</v>
+        <v>2.603448275862069</v>
       </c>
       <c r="H7" t="s">
         <v>1134</v>
       </c>
       <c r="I7" s="3">
         <f>COUNTIF(I13:I400,"Keep*")</f>
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6431,14 +6727,14 @@
       </c>
       <c r="F8" s="5">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>1276</v>
       </c>
       <c r="I8" s="3">
         <f>COUNTIF(I13:I400,"Remove*")</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6454,14 +6750,14 @@
       </c>
       <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>0.14655172413793102</v>
+        <v>0.16379310344827586</v>
       </c>
       <c r="H9" t="s">
         <v>1263</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6477,7 +6773,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -10250,7 +10546,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" ht="60">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -10272,14 +10568,23 @@
       <c r="G118" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="H118" t="s">
-        <v>29</v>
-      </c>
-      <c r="L118" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="H118" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1865</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="75">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -10301,17 +10606,23 @@
       <c r="G119" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="H119" t="s">
-        <v>29</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L119" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="H119" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="45">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -10333,14 +10644,20 @@
       <c r="G120" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="H120" t="s">
-        <v>29</v>
+      <c r="H120" s="7">
+        <v>42055</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L120" t="s">
-        <v>29</v>
+        <v>1133</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -15727,7 +16044,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" ht="75">
       <c r="A275" t="s">
         <v>771</v>
       </c>
@@ -15755,8 +16072,8 @@
       <c r="I275" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="J275" t="s">
-        <v>1769</v>
+      <c r="J275" s="3" t="s">
+        <v>1681</v>
       </c>
       <c r="K275" t="s">
         <v>1768</v>
@@ -15788,7 +16105,7 @@
         <v>42054</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J276" s="3" t="s">
         <v>1745</v>
@@ -15829,10 +16146,10 @@
         <v>1133</v>
       </c>
       <c r="J277" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="K277" t="s">
         <v>1771</v>
-      </c>
-      <c r="K277" t="s">
-        <v>1772</v>
       </c>
       <c r="L277" t="s">
         <v>1143</v>
@@ -15867,10 +16184,10 @@
         <v>1133</v>
       </c>
       <c r="J278" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K278" t="s">
         <v>1773</v>
-      </c>
-      <c r="K278" t="s">
-        <v>1774</v>
       </c>
       <c r="L278" t="s">
         <v>1143</v>
@@ -15905,16 +16222,16 @@
         <v>1133</v>
       </c>
       <c r="J279" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K279" t="s">
         <v>1775</v>
       </c>
-      <c r="K279" t="s">
-        <v>1776</v>
-      </c>
       <c r="L279" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" ht="45">
       <c r="A280" t="s">
         <v>23</v>
       </c>
@@ -15936,23 +16253,23 @@
       <c r="G280" t="s">
         <v>1012</v>
       </c>
-      <c r="H280" s="7" t="s">
-        <v>29</v>
+      <c r="H280" s="7">
+        <v>42055</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J280" t="s">
-        <v>29</v>
+        <v>1133</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>1673</v>
       </c>
       <c r="K280" t="s">
-        <v>29</v>
+        <v>1781</v>
       </c>
       <c r="L280" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="135">
       <c r="A281" t="s">
         <v>23</v>
       </c>
@@ -15974,16 +16291,23 @@
       <c r="G281" t="s">
         <v>1015</v>
       </c>
-      <c r="H281" t="s">
-        <v>29</v>
-      </c>
-      <c r="I281"/>
-      <c r="J281"/>
+      <c r="H281" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K281" t="s">
+        <v>1783</v>
+      </c>
       <c r="L281" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="75">
       <c r="A282" t="s">
         <v>23</v>
       </c>
@@ -16005,13 +16329,20 @@
       <c r="G282" t="s">
         <v>1018</v>
       </c>
-      <c r="H282" t="s">
-        <v>29</v>
-      </c>
-      <c r="I282"/>
-      <c r="J282"/>
+      <c r="H282" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K282" t="s">
+        <v>1789</v>
+      </c>
       <c r="L282" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -16036,16 +16367,23 @@
       <c r="G283" t="s">
         <v>1021</v>
       </c>
-      <c r="H283" t="s">
-        <v>29</v>
-      </c>
-      <c r="I283"/>
-      <c r="J283"/>
+      <c r="H283" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J283" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K283" t="s">
+        <v>1791</v>
+      </c>
       <c r="L283" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="135">
       <c r="A284" t="s">
         <v>23</v>
       </c>
@@ -16067,16 +16405,23 @@
       <c r="G284" t="s">
         <v>1024</v>
       </c>
-      <c r="H284" t="s">
-        <v>29</v>
-      </c>
-      <c r="I284"/>
-      <c r="J284"/>
+      <c r="H284" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K284" t="s">
+        <v>1793</v>
+      </c>
       <c r="L284" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="60">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -16098,16 +16443,23 @@
       <c r="G285" t="s">
         <v>1027</v>
       </c>
-      <c r="H285" t="s">
-        <v>29</v>
-      </c>
-      <c r="I285"/>
-      <c r="J285"/>
+      <c r="H285" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K285" t="s">
+        <v>1795</v>
+      </c>
       <c r="L285" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="90">
       <c r="A286" t="s">
         <v>23</v>
       </c>
@@ -16129,16 +16481,23 @@
       <c r="G286" t="s">
         <v>1030</v>
       </c>
-      <c r="H286" t="s">
-        <v>29</v>
-      </c>
-      <c r="I286"/>
-      <c r="J286"/>
+      <c r="H286" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K286" t="s">
+        <v>1797</v>
+      </c>
       <c r="L286" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="75">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -16160,16 +16519,23 @@
       <c r="G287" t="s">
         <v>1033</v>
       </c>
-      <c r="H287" t="s">
-        <v>29</v>
-      </c>
-      <c r="I287"/>
-      <c r="J287"/>
+      <c r="H287" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K287" t="s">
+        <v>1800</v>
+      </c>
       <c r="L287" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="60">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -16191,16 +16557,23 @@
       <c r="G288" t="s">
         <v>1036</v>
       </c>
-      <c r="H288" t="s">
-        <v>29</v>
-      </c>
-      <c r="I288"/>
-      <c r="J288"/>
+      <c r="H288" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K288" t="s">
+        <v>1802</v>
+      </c>
       <c r="L288" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="90">
       <c r="A289" t="s">
         <v>23</v>
       </c>
@@ -16222,16 +16595,23 @@
       <c r="G289" t="s">
         <v>1039</v>
       </c>
-      <c r="H289" t="s">
-        <v>29</v>
-      </c>
-      <c r="I289"/>
-      <c r="J289"/>
+      <c r="H289" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K289" t="s">
+        <v>1804</v>
+      </c>
       <c r="L289" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="30">
       <c r="A290" t="s">
         <v>771</v>
       </c>
@@ -16253,13 +16633,23 @@
       <c r="G290" t="s">
         <v>1042</v>
       </c>
-      <c r="H290" t="s">
-        <v>29</v>
-      </c>
-      <c r="I290"/>
-      <c r="J290"/>
-    </row>
-    <row r="291" spans="1:12">
+      <c r="H290" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K290" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L290" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="45">
       <c r="A291" t="s">
         <v>23</v>
       </c>
@@ -16281,16 +16671,23 @@
       <c r="G291" t="s">
         <v>1045</v>
       </c>
-      <c r="H291" t="s">
-        <v>29</v>
-      </c>
-      <c r="I291"/>
-      <c r="J291"/>
+      <c r="H291" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K291" t="s">
+        <v>1808</v>
+      </c>
       <c r="L291" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="45">
       <c r="A292" t="s">
         <v>46</v>
       </c>
@@ -16306,17 +16703,23 @@
       <c r="G292" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="H292" t="s">
-        <v>29</v>
+      <c r="H292" s="7">
+        <v>42055</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>29</v>
+        <v>1811</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K292" t="s">
+        <v>1809</v>
       </c>
       <c r="L292" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="30">
       <c r="A293" t="s">
         <v>23</v>
       </c>
@@ -16338,13 +16741,20 @@
       <c r="G293" t="s">
         <v>1051</v>
       </c>
-      <c r="H293" t="s">
-        <v>29</v>
-      </c>
-      <c r="I293"/>
-      <c r="J293"/>
+      <c r="H293" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J293" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K293" t="s">
+        <v>1143</v>
+      </c>
       <c r="L293" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -16369,13 +16779,20 @@
       <c r="G294" t="s">
         <v>1054</v>
       </c>
-      <c r="H294" t="s">
-        <v>29</v>
-      </c>
-      <c r="I294"/>
-      <c r="J294"/>
+      <c r="H294" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J294" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K294" t="s">
+        <v>1814</v>
+      </c>
       <c r="L294" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -16400,16 +16817,23 @@
       <c r="G295" t="s">
         <v>1057</v>
       </c>
-      <c r="H295" t="s">
-        <v>29</v>
-      </c>
-      <c r="I295"/>
-      <c r="J295"/>
+      <c r="H295" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J295" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K295" t="s">
+        <v>1815</v>
+      </c>
       <c r="L295" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="75">
       <c r="A296" t="s">
         <v>23</v>
       </c>
@@ -16431,16 +16855,23 @@
       <c r="G296" t="s">
         <v>1060</v>
       </c>
-      <c r="H296" t="s">
-        <v>29</v>
-      </c>
-      <c r="I296"/>
-      <c r="J296"/>
+      <c r="H296" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K296" t="s">
+        <v>1817</v>
+      </c>
       <c r="L296" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="60">
       <c r="A297" t="s">
         <v>23</v>
       </c>
@@ -16462,16 +16893,23 @@
       <c r="G297" t="s">
         <v>1063</v>
       </c>
-      <c r="H297" t="s">
-        <v>29</v>
-      </c>
-      <c r="I297"/>
-      <c r="J297"/>
+      <c r="H297" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K297" t="s">
+        <v>1819</v>
+      </c>
       <c r="L297" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="120">
       <c r="A298" t="s">
         <v>23</v>
       </c>
@@ -16493,16 +16931,23 @@
       <c r="G298" t="s">
         <v>1066</v>
       </c>
-      <c r="H298" t="s">
-        <v>29</v>
-      </c>
-      <c r="I298"/>
-      <c r="J298"/>
+      <c r="H298" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="K298" t="s">
+        <v>1821</v>
+      </c>
       <c r="L298" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="60">
       <c r="A299" t="s">
         <v>46</v>
       </c>
@@ -16518,17 +16963,23 @@
       <c r="G299" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="H299" t="s">
-        <v>29</v>
+      <c r="H299" s="7">
+        <v>42055</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K299" t="s">
+        <v>1823</v>
       </c>
       <c r="L299" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="30">
       <c r="A300" t="s">
         <v>23</v>
       </c>
@@ -16550,16 +17001,23 @@
       <c r="G300" t="s">
         <v>1072</v>
       </c>
-      <c r="H300" t="s">
-        <v>29</v>
-      </c>
-      <c r="I300"/>
-      <c r="J300"/>
+      <c r="H300" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K300" t="s">
+        <v>1825</v>
+      </c>
       <c r="L300" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="45">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -16581,16 +17039,23 @@
       <c r="G301" t="s">
         <v>1075</v>
       </c>
-      <c r="H301" t="s">
-        <v>29</v>
-      </c>
-      <c r="I301"/>
-      <c r="J301"/>
+      <c r="H301" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="K301" t="s">
+        <v>1826</v>
+      </c>
       <c r="L301" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="45">
       <c r="A302" t="s">
         <v>23</v>
       </c>
@@ -16612,16 +17077,23 @@
       <c r="G302" t="s">
         <v>1078</v>
       </c>
-      <c r="H302" t="s">
-        <v>29</v>
-      </c>
-      <c r="I302"/>
-      <c r="J302"/>
+      <c r="H302" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K302" t="s">
+        <v>1829</v>
+      </c>
       <c r="L302" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="75">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -16643,16 +17115,23 @@
       <c r="G303" t="s">
         <v>1081</v>
       </c>
-      <c r="H303" t="s">
-        <v>29</v>
-      </c>
-      <c r="I303"/>
-      <c r="J303"/>
+      <c r="H303" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="K303" t="s">
+        <v>1831</v>
+      </c>
       <c r="L303" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="30">
       <c r="A304" t="s">
         <v>771</v>
       </c>
@@ -16674,13 +17153,23 @@
       <c r="G304" t="s">
         <v>1084</v>
       </c>
-      <c r="H304" t="s">
-        <v>29</v>
-      </c>
-      <c r="I304"/>
-      <c r="J304"/>
-    </row>
-    <row r="305" spans="1:12">
+      <c r="H304" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K304" t="s">
+        <v>1833</v>
+      </c>
+      <c r="L304" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="60">
       <c r="A305" t="s">
         <v>23</v>
       </c>
@@ -16702,16 +17191,23 @@
       <c r="G305" t="s">
         <v>1086</v>
       </c>
-      <c r="H305" t="s">
-        <v>29</v>
-      </c>
-      <c r="I305"/>
-      <c r="J305"/>
+      <c r="H305" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="K305" t="s">
+        <v>1836</v>
+      </c>
       <c r="L305" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="45">
       <c r="A306" t="s">
         <v>23</v>
       </c>
@@ -16733,16 +17229,23 @@
       <c r="G306" t="s">
         <v>1089</v>
       </c>
-      <c r="H306" t="s">
-        <v>29</v>
-      </c>
-      <c r="I306"/>
-      <c r="J306"/>
+      <c r="H306" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J306" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K306" t="s">
+        <v>1838</v>
+      </c>
       <c r="L306" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="30">
       <c r="A307" t="s">
         <v>46</v>
       </c>
@@ -16758,17 +17261,23 @@
       <c r="G307" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="H307" t="s">
-        <v>29</v>
+      <c r="H307" s="7">
+        <v>42055</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>29</v>
+        <v>1133</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K307" t="s">
+        <v>1839</v>
       </c>
       <c r="L307" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="30">
       <c r="A308" t="s">
         <v>23</v>
       </c>
@@ -16790,13 +17299,20 @@
       <c r="G308" t="s">
         <v>1095</v>
       </c>
-      <c r="H308" t="s">
-        <v>29</v>
-      </c>
-      <c r="I308"/>
-      <c r="J308"/>
+      <c r="H308" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K308" t="s">
+        <v>1840</v>
+      </c>
       <c r="L308" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -16821,16 +17337,23 @@
       <c r="G309" t="s">
         <v>1097</v>
       </c>
-      <c r="H309" t="s">
-        <v>29</v>
-      </c>
-      <c r="I309"/>
-      <c r="J309"/>
+      <c r="H309" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="K309" t="s">
+        <v>1842</v>
+      </c>
       <c r="L309" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="30">
       <c r="A310" t="s">
         <v>23</v>
       </c>
@@ -16852,16 +17375,23 @@
       <c r="G310" t="s">
         <v>1100</v>
       </c>
-      <c r="H310" t="s">
-        <v>29</v>
-      </c>
-      <c r="I310"/>
-      <c r="J310"/>
+      <c r="H310" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K310" t="s">
+        <v>1844</v>
+      </c>
       <c r="L310" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="45">
       <c r="A311" t="s">
         <v>23</v>
       </c>
@@ -16883,16 +17413,23 @@
       <c r="G311" t="s">
         <v>1103</v>
       </c>
-      <c r="H311" t="s">
-        <v>29</v>
-      </c>
-      <c r="I311"/>
-      <c r="J311"/>
+      <c r="H311" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K311" t="s">
+        <v>1845</v>
+      </c>
       <c r="L311" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="45">
       <c r="A312" t="s">
         <v>23</v>
       </c>
@@ -16914,16 +17451,23 @@
       <c r="G312" t="s">
         <v>1106</v>
       </c>
-      <c r="H312" t="s">
-        <v>29</v>
-      </c>
-      <c r="I312"/>
-      <c r="J312"/>
+      <c r="H312" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K312" t="s">
+        <v>1846</v>
+      </c>
       <c r="L312" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="45">
       <c r="A313" t="s">
         <v>23</v>
       </c>
@@ -16945,16 +17489,23 @@
       <c r="G313" t="s">
         <v>1109</v>
       </c>
-      <c r="H313" t="s">
-        <v>29</v>
-      </c>
-      <c r="I313"/>
-      <c r="J313"/>
+      <c r="H313" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K313" t="s">
+        <v>1143</v>
+      </c>
       <c r="L313" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="60">
       <c r="A314" t="s">
         <v>23</v>
       </c>
@@ -16976,16 +17527,23 @@
       <c r="G314" t="s">
         <v>1112</v>
       </c>
-      <c r="H314" t="s">
-        <v>29</v>
-      </c>
-      <c r="I314"/>
-      <c r="J314"/>
+      <c r="H314" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K314" t="s">
+        <v>1850</v>
+      </c>
       <c r="L314" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="75">
       <c r="A315" t="s">
         <v>23</v>
       </c>
@@ -17007,16 +17565,23 @@
       <c r="G315" t="s">
         <v>1115</v>
       </c>
-      <c r="H315" t="s">
-        <v>29</v>
-      </c>
-      <c r="I315"/>
-      <c r="J315"/>
+      <c r="H315" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="K315" t="s">
+        <v>1143</v>
+      </c>
       <c r="L315" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="45">
       <c r="A316" t="s">
         <v>46</v>
       </c>
@@ -17032,17 +17597,23 @@
       <c r="G316" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="H316" t="s">
-        <v>29</v>
+      <c r="H316" s="7">
+        <v>42055</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>29</v>
+        <v>1854</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K316" t="s">
+        <v>1143</v>
       </c>
       <c r="L316" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="60">
       <c r="A317" t="s">
         <v>23</v>
       </c>
@@ -17064,16 +17635,23 @@
       <c r="G317" t="s">
         <v>1121</v>
       </c>
-      <c r="H317" t="s">
-        <v>29</v>
-      </c>
-      <c r="I317"/>
-      <c r="J317"/>
+      <c r="H317" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1856</v>
+      </c>
       <c r="L317" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="60">
       <c r="A318" t="s">
         <v>46</v>
       </c>
@@ -17089,14 +17667,20 @@
       <c r="G318" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="H318" t="s">
-        <v>29</v>
+      <c r="H318" s="7">
+        <v>42055</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>29</v>
+        <v>1134</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K318" t="s">
+        <v>1857</v>
       </c>
       <c r="L318" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -17121,13 +17705,20 @@
       <c r="G319" t="s">
         <v>1126</v>
       </c>
-      <c r="H319" t="s">
-        <v>29</v>
-      </c>
-      <c r="I319"/>
-      <c r="J319"/>
+      <c r="H319" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K319" t="s">
+        <v>1858</v>
+      </c>
       <c r="L319" t="s">
-        <v>29</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -17136,6 +17727,72 @@
       </c>
       <c r="B320">
         <v>305</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
+      <c r="A322" s="11" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="45">
+      <c r="A323" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E323" t="s">
+        <v>29</v>
+      </c>
+      <c r="F323" s="8" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H323" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K323" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L323" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="45">
+      <c r="A324" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H324" s="7">
+        <v>42055</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="K324" t="s">
+        <v>1784</v>
+      </c>
+      <c r="L324" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1878">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -5768,6 +5768,50 @@
   </si>
   <si>
     <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/krms/PropDevJavaFunctionKrmsTermServiceImpl.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-625 Copy Proposal is not honoring the Lead Unit Selected
+KC-641 Not all questions are copying when copy proposal is set to include questions
+KC-466 BEGIN - sponsor deadline date and sponsor deadline type were made required fields on save so they need to be copied too
+KC-865 BEGIN inactive ynq questions should not be copied during copy proposal process
+</t>
+  </si>
+  <si>
+    <t>Merged- Needs more Review- Code we modifed has been removed.  We should test to see if this issue still exists.
+KC-625 (Code removed-test)
+KC-641 (Code removed-test)
+KC-865 (Code removed-test)</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/copy/ProposalCopyServiceImpl.java</t>
+  </si>
+  <si>
+    <t>KC-778 Change Attachment Notifications so they are sent to ORS only.</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/abstrct/ProposalDevelopmentAbstractsAttachmentsAction.java</t>
+  </si>
+  <si>
+    <t>KC-573 KC 5.1 submission of development proposal throws incident report
+KC-855 Add feature to Questionnaire for smart answers
+KC-785 Many of the "print" buttons on the Proposal Summary tab don't work and generate incident reports.  Solution taken from KC 5.2 code so this should not be needed after next upgrade</t>
+  </si>
+  <si>
+    <t>Review - Merged - KC-855 merge was not lining up in p4merge so I had to hand merge this code. (Also had to modify the code because they changed method return types)  NEEDS TESTING
+KC-785 removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KC-793 Correct wording for validation warnings exist message in PD and Award
+KC-666 BEGIN Remove question about seeing future approvals</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/action/ProposalDevelopmentActionsAction.java</t>
+  </si>
+  <si>
+    <t>KC-579 : KC 5.1 Proposal: REJECT from the "approver view" (or proposal summary screen) nothing happens - must go to proposal actions to complete</t>
+  </si>
+  <si>
+    <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/approve/ProposalDevelopmentApproverViewAction.java</t>
   </si>
 </sst>
 </file>
@@ -6623,10 +6667,10 @@
   <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="E123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H125" sqref="H125"/>
+      <selection pane="bottomRight" activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -6681,14 +6725,14 @@
       </c>
       <c r="F6" s="5">
         <f>COUNTA(I13:I400)-COUNTIF(I13:I400," ")</f>
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H6" t="s">
         <v>1133</v>
       </c>
       <c r="I6" s="3">
         <f>COUNTIF(I13:I400,"Merged*")</f>
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6704,7 +6748,7 @@
       </c>
       <c r="F7" s="5">
         <f>F6/C10</f>
-        <v>2.603448275862069</v>
+        <v>2.646551724137931</v>
       </c>
       <c r="H7" t="s">
         <v>1134</v>
@@ -6727,7 +6771,7 @@
       </c>
       <c r="F8" s="5">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>1276</v>
@@ -6750,14 +6794,14 @@
       </c>
       <c r="F9" s="5">
         <f>F8/C10</f>
-        <v>0.16379310344827586</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="H9" t="s">
         <v>1263</v>
       </c>
       <c r="I9" s="3">
         <f>COUNTIF(I13:I400,"REVIEW*")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6773,7 +6817,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(I6:I9)</f>
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -10660,7 +10704,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" ht="240">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -10682,17 +10726,23 @@
       <c r="G121" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="H121" t="s">
-        <v>29</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L121" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="H121" s="7">
+        <v>42058</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>1868</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="45">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -10714,17 +10764,23 @@
       <c r="G122" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="H122" t="s">
-        <v>29</v>
+      <c r="H122" s="7">
+        <v>42058</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L122" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>1133</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>1870</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1871</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="180">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -10746,17 +10802,23 @@
       <c r="G123" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="H123" t="s">
-        <v>29</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L123" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="H123" s="7">
+        <v>42058</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1875</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="75">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -10778,17 +10840,23 @@
       <c r="G124" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="H124" t="s">
-        <v>29</v>
+      <c r="H124" s="7">
+        <v>42058</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L124" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>1133</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1875</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="75">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -10804,20 +10872,26 @@
       <c r="E125" t="s">
         <v>502</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" t="s">
         <v>503</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G125" t="s">
         <v>504</v>
       </c>
-      <c r="H125" t="s">
-        <v>29</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>29</v>
+      <c r="H125">
+        <v>42058</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1877</v>
       </c>
       <c r="L125" t="s">
-        <v>29</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="105">

--- a/Upgrade6.0.xlsx
+++ b/Upgrade6.0.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="180" windowWidth="35805" windowHeight="16110"/>
+    <workbookView xWindow="180" yWindow="225" windowWidth="32220" windowHeight="16065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade6.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Change Made Directly to UH_KC" sheetId="2" r:id="rId2"/>
+    <sheet name="Rice Changes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="2021">
   <si>
     <t>Processing diffs for the following: /cygdrive/c/Users/ronald/bin/rrgUpgrade60.sh -c /cygdrive/c/Users/ronald/uh-kc-customizations-5.1/src -o /cygdrive/c/Users/ronald/uh-kc-5.1/kc_project/src -r /cygdrive/c/Users/ronald/uh-kc-rice-5.1 -n /cygdrive/c/Users/ronald/github/UhKc/ -a /cygdrive/c/Users/ronald/github/uh-kc-api/coeus-api-all</t>
   </si>
@@ -5813,12 +5815,451 @@
   <si>
     <t>coeus-impl/src/main/java/org/kuali/coeus/propdev/impl/approve/ProposalDevelopmentApproverViewAction.java</t>
   </si>
+  <si>
+    <t>kc_project/pom.xml</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/java/org/kuali/kra/bo/Rolodex.java</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/java/org/kuali/kra/bo/RolodexMaintainableImpl.java</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/java/org/kuali/kra/budget/nonpersonnel/BudgetLineItemBase.java</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/java/org/kuali/kra/budget/summary/BudgetSummaryServiceImpl.java</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/java/org/kuali/kra/questionnaire/answer/QuestionnaireAnswerServiceImpl.java</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/java/org/kuali/kra/web/struts/action/KraHoldingPageAction.java</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/resources/org/kuali/kra/datadictionary/Rolodex.xml</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/resources/org/kuali/kra/datadictionary/docs/RolodexMaintenanceDocument.xml</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/resources/org/kuali/kra/datadictionary/docs/SponsorSpecialMaintenanceDocument.xml</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/resources/repository.xml</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/WEB-INF/tags/questionnaire/questionnaireAnswersBody.tag</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/WEB-INF/tags/uh/leaveApplication.tag</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/WEB-INF/tags/uh/userHasRole.tag</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/WEB-INF/tags/uh/userIsAdmin.tag</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/WEB-INF/tags/uh/userLacksRole.tag</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/WEB-INF/tags/uh/userNotAdmin.tag</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/WEB-INF/tags/uh/workflowEnabledApps.tag</t>
+  </si>
+  <si>
+    <t>kc_project/src/main/webapp/scripts/questionnaireAnswer.js</t>
+  </si>
+  <si>
+    <t>File Altered</t>
+  </si>
+  <si>
+    <t>git command</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Diff Command</t>
+  </si>
+  <si>
+    <t>Modify rice version to UH version (we will need to do this later)
+exclude KualiLookup.jsp added
+KC-755 Remove Organization Lookup from Address Book (May no longer be needed.   We need to test Address Book entry to see if it requires organization. (Skiped)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Not Merged</t>
+  </si>
+  <si>
+    <t>KC-755 Remove Organization Lookup already in KC6.0</t>
+  </si>
+  <si>
+    <t>Not Merged change in KC6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC-??? added patch from kuali.org released 4/19/2012 to prevent server crash when Get All Budget Periods is issued. </t>
+  </si>
+  <si>
+    <t>KC-803 Nested questions don't display correctly after save (Patch from KC 5.2.1)</t>
+  </si>
+  <si>
+    <t>KC-723 ... Pulling in 5.2 change to fix document close holding page issue</t>
+  </si>
+  <si>
+    <t>KC-563 ... Modifed fix to match Kuali fix KRACOEUS-6452</t>
+  </si>
+  <si>
+    <t>Not Merged file no longer exists and change wasn't needed</t>
+  </si>
+  <si>
+    <t>Leave Files don't belong in KC (added by Shaun in 2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of changed generated using </t>
+  </si>
+  <si>
+    <t>git diff --name-status master..community-releases   | cut -d$'\t'  -f2</t>
+  </si>
+  <si>
+    <t>d112314</t>
+  </si>
+  <si>
+    <t>Apply KC-742 Delegation lookups not working for Delegatee/Delegator during edit/add</t>
+  </si>
+  <si>
+    <t>19c64a9</t>
+  </si>
+  <si>
+    <t>Apply KC-715 Make document id the default focus on document search</t>
+  </si>
+  <si>
+    <t>c0f55ad</t>
+  </si>
+  <si>
+    <t>Apply KC-663 remove ad hoc action Request "Complete" options</t>
+  </si>
+  <si>
+    <t>66be3ec</t>
+  </si>
+  <si>
+    <t>Apply KC-652 fix for initiator receives incident report after attempting to recall proposal created in 3.x</t>
+  </si>
+  <si>
+    <t>2ab3ece</t>
+  </si>
+  <si>
+    <t>Apply KC-584 fix to use UH email reroute enhancement</t>
+  </si>
+  <si>
+    <t>b627c48</t>
+  </si>
+  <si>
+    <t>Apply fix Proposal Project Titles now visible to all via doc search</t>
+  </si>
+  <si>
+    <t>41daacf</t>
+  </si>
+  <si>
+    <t>Apply UH mod add UH number label for prncplId and remove search fields from Person Lookup</t>
+  </si>
+  <si>
+    <t>e9514c6</t>
+  </si>
+  <si>
+    <t>Apply uh mod to check for null (removed several from 8fa0e6309cd13e4e2369b1c691f92ea902b1a70d) which seemed unneccessary</t>
+  </si>
+  <si>
+    <t>9745b0d</t>
+  </si>
+  <si>
+    <t>Apply KC-427 When adding a delegation, the role of all other previously added delegations switches to the most recently added</t>
+  </si>
+  <si>
+    <t>4c8e613</t>
+  </si>
+  <si>
+    <t>Apply UH mod for KC-435 unable to open some attachments in IP docs</t>
+  </si>
+  <si>
+    <t>6d25de8</t>
+  </si>
+  <si>
+    <t>UH Constant changes (changed SYSTEM_USER from "kr" to "krsys"</t>
+  </si>
+  <si>
+    <t>36c66d3</t>
+  </si>
+  <si>
+    <t>Apply UH Mod change campus code length to 10 chars</t>
+  </si>
+  <si>
+    <t>bc4dbc9</t>
+  </si>
+  <si>
+    <t>Apply UH mod added new uh-config-defaults.xml which configures daily/weekly email crons</t>
+  </si>
+  <si>
+    <t>b9d6f53</t>
+  </si>
+  <si>
+    <t>Apply UH Mode for Logout action</t>
+  </si>
+  <si>
+    <t>99f020c</t>
+  </si>
+  <si>
+    <t>Apply KC-433, KC-623,KC-631,KC-618 Not Applying (KC-634, KC-638)</t>
+  </si>
+  <si>
+    <t>06eb8b8</t>
+  </si>
+  <si>
+    <t>change kr to krsys since kr is a real UH user name</t>
+  </si>
+  <si>
+    <t>477dd63</t>
+  </si>
+  <si>
+    <t>Apply UH performance improvement based on similar mod found in KULRICE-4070</t>
+  </si>
+  <si>
+    <t>6cec561</t>
+  </si>
+  <si>
+    <t>override email and encryption services with UH implementations</t>
+  </si>
+  <si>
+    <t>Commit SHA</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>GitK Command</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>db/impex/master/src/main/resources/KRIM_PRNCPL_T.xml</t>
+  </si>
+  <si>
+    <t>db/impex/server/bootstrap/src/main/resources/KRIM_PRNCPL_T.xml</t>
+  </si>
+  <si>
+    <t>db/impex/server/demo/src/main/resources/KRIM_PRNCPL_T.xml</t>
+  </si>
+  <si>
+    <t>rice-framework/krad-app-framework/src/main/java/org/kuali/rice/krad/util/KRADConstants.java</t>
+  </si>
+  <si>
+    <t>rice-framework/krad-service-impl/src/main/java/org/kuali/rice/krad/service/impl/AttachmentServiceImpl.java</t>
+  </si>
+  <si>
+    <t>rice-framework/krad-web-framework/src/main/resources/org/kuali/rice/krad/config/UHKRADOverrideSpringBeans.xml</t>
+  </si>
+  <si>
+    <t>rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/mo/common/active/InactivatableFromToUtils.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/util/xml/XmlHelper.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/encryption/AesEncryptor.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/encryption/UHEncryptionServiceImpl.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/mail/UHKualiExceptionIncidentServiceImpl.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/mail/UHStyleableEmailContentServiceImpl.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/struts/LogoutAction.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kcb/quartz/MessageProcessingJob.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/DocumentSearchCriteriaProcessorKEWAdapter.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/xml/XMLSearchableAttributeContent.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kew/doctype/service/impl/DocumentActionsPermissionBase.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kew/mail/service/impl/ActionListEmailServiceImpl.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kim/bo/ui/KimDocumentBoActivatableToFromEditableBase.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementKimDocument.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementPersonDocument.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementRoleDocument.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kim/service/impl/UiDocumentServiceImpl.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/java/org/kuali/rice/kim/web/struts/action/IdentityManagementPersonDocumentAction.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/resources/META-INF/uh-config-defaults.xml</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/KewEmbeddedSpringBeans.xml.orig</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/UHKEWOverrideSpringBeans.xml</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/resources/org/kuali/rice/kew/impl/document/search/DocumentSearchCriteriaBo.xml</t>
+  </si>
+  <si>
+    <t>rice-middleware/impl/src/main/resources/org/kuali/rice/kim/bo/datadictionary/PersonDocumentAffiliation.xml</t>
+  </si>
+  <si>
+    <t>rice-middleware/kew/api/src/main/java/org/kuali/rice/kew/api/KewApiConstants.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/kim/kim-impl/src/main/groovy/org/kuali/rice/kim/impl/common/active/ActiveFromToBo.groovy</t>
+  </si>
+  <si>
+    <t>rice-middleware/kim/kim-impl/src/main/resources/org/kuali/rice/kim/impl/identity/PersonImpl.xml</t>
+  </si>
+  <si>
+    <t>rice-middleware/kns/src/main/java/org/kuali/rice/kns/util/FieldUtils.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/kns/src/main/java/org/kuali/rice/kns/web/struts/action/KualiDocumentActionBase.java</t>
+  </si>
+  <si>
+    <t>rice-middleware/location/web/src/main/resources/org/kuali/rice/location/web/campus/Campus.xml</t>
+  </si>
+  <si>
+    <t>rice-middleware/web/src/main/webapp/WEB-INF/struts-config.xml</t>
+  </si>
+  <si>
+    <t>git list files</t>
+  </si>
+  <si>
+    <t>Found Count</t>
+  </si>
+  <si>
+    <t>Files Modified</t>
+  </si>
+  <si>
+    <t>Merge command</t>
+  </si>
+  <si>
+    <t>Base Rice Directory</t>
+  </si>
+  <si>
+    <t>UH Mod Directory</t>
+  </si>
+  <si>
+    <t>Rice 2.5.2 Directory</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/</t>
+  </si>
+  <si>
+    <t>/cygdrive/c/Users/ronald/github/rice/</t>
+  </si>
+  <si>
+    <t>Action Taken</t>
+  </si>
+  <si>
+    <t>Removed- Junk file merged by accident….it's a merge orig file</t>
+  </si>
+  <si>
+    <t>Removed-Don't need this (acts on uh.bundled.rice property which we never set) must be something for profiler/travel/etc</t>
+  </si>
+  <si>
+    <t>Removed-another UH rice feature we are not using.  It sends exception emails to a list.  KC does then when the user asks and we never enabled this feature so dropping</t>
+  </si>
+  <si>
+    <t>Copied-Not sure if we use this….we should test and remove if not needed.</t>
+  </si>
+  <si>
+    <t>Copied but edited to remove the exception service</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>^
+^</t>
+  </si>
+  <si>
+    <t>^
+^
+^</t>
+  </si>
+  <si>
+    <t>Removed-Override to email which I don't think we use.</t>
+  </si>
+  <si>
+    <t>Removed KC 6.0 same code</t>
+  </si>
+  <si>
+    <t>Merged-Not really needed but can't hurt</t>
+  </si>
+  <si>
+    <t>Removed - Only change was a comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERGED-KC-623 When a role is added with an effective date in the future, the role does not show in the profile until the effective date.
+</t>
+  </si>
+  <si>
+    <t>Manually Merged - ActiveFromToBo.java (no longer groovy)</t>
+  </si>
+  <si>
+    <t>Not needed anymore titles no longer contain private data</t>
+  </si>
+  <si>
+    <t>We should test if this works now and if we like it.  My testing in Test Drive shows that it doesn't fail but it says user not authorized which makes it useless at this point.  So we should make this change.</t>
+  </si>
+  <si>
+    <t>Review-Not sure if logout is needed anymore since KC supports CAS now</t>
+  </si>
+  <si>
+    <t>merged KC-618</t>
+  </si>
+  <si>
+    <t>Not needed (cron setup for daily and weekly emails which we don’t use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merged
+KC-433 Show inactive delegations members so we can edit ???? Should we keep ?
+KC-631 Person Documents stuck enroute trying to edit if delegation exists.
+KC-618 fix incident report when adding delegations
+KC-623 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5954,8 +6395,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6147,6 +6594,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -6308,7 +6761,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -6329,6 +6782,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6666,8 +7131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="E123" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="E195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
       <selection pane="bottomRight" activeCell="M125" sqref="M125"/>
@@ -17873,4 +18338,1553 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="123.140625" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75">
+      <c r="A3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B3" s="12" t="str">
+        <f>CONCATENATE("gitk ",A3)</f>
+        <v>gitk kc_project/pom.xml</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("git difftool master..community-releases ",A3)</f>
+        <v>git difftool master..community-releases kc_project/pom.xml</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B4" s="12" t="str">
+        <f t="shared" ref="B4:B21" si="0">CONCATENATE("gitk ",A4)</f>
+        <v>gitk kc_project/src/main/java/org/kuali/kra/bo/Rolodex.java</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C21" si="1">CONCATENATE("git difftool master..community-releases ",A4)</f>
+        <v>git difftool master..community-releases kc_project/src/main/java/org/kuali/kra/bo/Rolodex.java</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/java/org/kuali/kra/bo/RolodexMaintainableImpl.java</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/java/org/kuali/kra/bo/RolodexMaintainableImpl.java</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/java/org/kuali/kra/budget/nonpersonnel/BudgetLineItemBase.java</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/java/org/kuali/kra/budget/nonpersonnel/BudgetLineItemBase.java</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/java/org/kuali/kra/budget/summary/BudgetSummaryServiceImpl.java</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/java/org/kuali/kra/budget/summary/BudgetSummaryServiceImpl.java</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/java/org/kuali/kra/questionnaire/answer/QuestionnaireAnswerServiceImpl.java</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/java/org/kuali/kra/questionnaire/answer/QuestionnaireAnswerServiceImpl.java</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/java/org/kuali/kra/web/struts/action/KraHoldingPageAction.java</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/java/org/kuali/kra/web/struts/action/KraHoldingPageAction.java</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/resources/org/kuali/kra/datadictionary/Rolodex.xml</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/resources/org/kuali/kra/datadictionary/Rolodex.xml</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/resources/org/kuali/kra/datadictionary/docs/RolodexMaintenanceDocument.xml</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/resources/org/kuali/kra/datadictionary/docs/RolodexMaintenanceDocument.xml</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/resources/org/kuali/kra/datadictionary/docs/SponsorSpecialMaintenanceDocument.xml</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/resources/org/kuali/kra/datadictionary/docs/SponsorSpecialMaintenanceDocument.xml</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/resources/repository.xml</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/resources/repository.xml</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/WEB-INF/tags/questionnaire/questionnaireAnswersBody.tag</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/WEB-INF/tags/questionnaire/questionnaireAnswersBody.tag</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/WEB-INF/tags/uh/leaveApplication.tag</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/WEB-INF/tags/uh/leaveApplication.tag</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/WEB-INF/tags/uh/userHasRole.tag</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/WEB-INF/tags/uh/userHasRole.tag</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/WEB-INF/tags/uh/userIsAdmin.tag</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/WEB-INF/tags/uh/userIsAdmin.tag</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/WEB-INF/tags/uh/userLacksRole.tag</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/WEB-INF/tags/uh/userLacksRole.tag</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/WEB-INF/tags/uh/userNotAdmin.tag</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/WEB-INF/tags/uh/userNotAdmin.tag</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/WEB-INF/tags/uh/workflowEnabledApps.tag</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/WEB-INF/tags/uh/workflowEnabledApps.tag</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>gitk kc_project/src/main/webapp/scripts/questionnaireAnswer.js</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>git difftool master..community-releases kc_project/src/main/webapp/scripts/questionnaireAnswer.js</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="118" customWidth="1"/>
+    <col min="5" max="5" width="60.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="7" max="7" width="73.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1">
+      <c r="A5" s="14" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE("gitk ",A6)</f>
+        <v>gitk d112314</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C13" si="0">CONCATENATE("git show --pretty=""format:"" --name-only ",A6)</f>
+        <v>git show --pretty="format:" --name-only d112314</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D6," ",$B$2, D6, " ", $B$3,D6," ",$B$3,D6)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/kns/src/main/java/org/kuali/rice/kns/util/FieldUtils.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/kns/src/main/java/org/kuali/rice/kns/util/FieldUtils.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/kns/src/main/java/org/kuali/rice/kns/util/FieldUtils.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/kns/src/main/java/org/kuali/rice/kns/util/FieldUtils.java</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B33" si="1">CONCATENATE("gitk ",A7)</f>
+        <v>gitk 19c64a9</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>git show --pretty="format:" --name-only 19c64a9</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G7" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D7," ",$B$2, D7, " ", $B$3,D7," ",$B$3,D7)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/DocumentSearchCriteriaProcessorKEWAdapter.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/DocumentSearchCriteriaProcessorKEWAdapter.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/DocumentSearchCriteriaProcessorKEWAdapter.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/DocumentSearchCriteriaProcessorKEWAdapter.java</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk c0f55ad</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>git show --pretty="format:" --name-only c0f55ad</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D8," ",$B$2, D8, " ", $B$3,D8," ",$B$3,D8)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/kns/src/main/java/org/kuali/rice/kns/web/struts/action/KualiDocumentActionBase.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/kns/src/main/java/org/kuali/rice/kns/web/struts/action/KualiDocumentActionBase.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/kns/src/main/java/org/kuali/rice/kns/web/struts/action/KualiDocumentActionBase.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/kns/src/main/java/org/kuali/rice/kns/web/struts/action/KualiDocumentActionBase.java</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 66be3ec</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>git show --pretty="format:" --name-only 66be3ec</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D9," ",$B$2, D9, " ", $B$3,D9," ",$B$3,D9)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kew/doctype/service/impl/DocumentActionsPermissionBase.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kew/doctype/service/impl/DocumentActionsPermissionBase.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/doctype/service/impl/DocumentActionsPermissionBase.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/doctype/service/impl/DocumentActionsPermissionBase.java</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 2ab3ece</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>git show --pretty="format:" --name-only 2ab3ece</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D10," ",$B$2, D10, " ", $B$3,D10," ",$B$3,D10)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kew/mail/service/impl/ActionListEmailServiceImpl.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kew/mail/service/impl/ActionListEmailServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/mail/service/impl/ActionListEmailServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/mail/service/impl/ActionListEmailServiceImpl.java</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk b627c48</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>git show --pretty="format:" --name-only b627c48</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D11," ",$B$2, D11, " ", $B$3,D11," ",$B$3,D11)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/impl/document/search/DocumentSearchCriteriaBo.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/impl/document/search/DocumentSearchCriteriaBo.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/impl/document/search/DocumentSearchCriteriaBo.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/impl/document/search/DocumentSearchCriteriaBo.xml</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 41daacf</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>git show --pretty="format:" --name-only 41daacf</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D12," ",$B$2, D12, " ", $B$3,D12," ",$B$3,D12)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/kim/kim-impl/src/main/resources/org/kuali/rice/kim/impl/identity/PersonImpl.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/kim/kim-impl/src/main/resources/org/kuali/rice/kim/impl/identity/PersonImpl.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/kim/kim-impl/src/main/resources/org/kuali/rice/kim/impl/identity/PersonImpl.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/kim/kim-impl/src/main/resources/org/kuali/rice/kim/impl/identity/PersonImpl.xml</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk e9514c6</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>git show --pretty="format:" --name-only e9514c6</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G13" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D13," ",$B$2, D13, " ", $B$3,D13," ",$B$3,D13)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kcb/quartz/MessageProcessingJob.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kcb/quartz/MessageProcessingJob.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kcb/quartz/MessageProcessingJob.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kcb/quartz/MessageProcessingJob.java</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 9745b0d</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE("git show --pretty=""format:"" --name-only ",A14)</f>
+        <v>git show --pretty="format:" --name-only 9745b0d</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G14" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D14," ",$B$2, D14, " ", $B$3,D14," ",$B$3,D14)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementKimDocument.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementKimDocument.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementKimDocument.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementKimDocument.java</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="16" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D15," ",$B$2, D15, " ", $B$3,D15," ",$B$3,D15)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementRoleDocument.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementRoleDocument.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementRoleDocument.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementRoleDocument.java</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 4c8e613</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ref="C16:C33" si="2">CONCATENATE("git show --pretty=""format:"" --name-only ",A16)</f>
+        <v>git show --pretty="format:" --name-only 4c8e613</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D16," ",$B$2, D16, " ", $B$3,D16," ",$B$3,D16)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-framework/krad-service-impl/src/main/java/org/kuali/rice/krad/service/impl/AttachmentServiceImpl.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-framework/krad-service-impl/src/main/java/org/kuali/rice/krad/service/impl/AttachmentServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-framework/krad-service-impl/src/main/java/org/kuali/rice/krad/service/impl/AttachmentServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-framework/krad-service-impl/src/main/java/org/kuali/rice/krad/service/impl/AttachmentServiceImpl.java</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 6d25de8</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>git show --pretty="format:" --name-only 6d25de8</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G17" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D17," ",$B$2, D17, " ", $B$3,D17," ",$B$3,D17)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-framework/krad-app-framework/src/main/java/org/kuali/rice/krad/util/KRADConstants.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-framework/krad-app-framework/src/main/java/org/kuali/rice/krad/util/KRADConstants.java /cygdrive/c/Users/ronald/github/rice/rice-framework/krad-app-framework/src/main/java/org/kuali/rice/krad/util/KRADConstants.java /cygdrive/c/Users/ronald/github/rice/rice-framework/krad-app-framework/src/main/java/org/kuali/rice/krad/util/KRADConstants.java</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" s="16" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D18," ",$B$2, D18, " ", $B$3,D18," ",$B$3,D18)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/kew/api/src/main/java/org/kuali/rice/kew/api/KewApiConstants.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/kew/api/src/main/java/org/kuali/rice/kew/api/KewApiConstants.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/kew/api/src/main/java/org/kuali/rice/kew/api/KewApiConstants.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/kew/api/src/main/java/org/kuali/rice/kew/api/KewApiConstants.java</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 36c66d3</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>git show --pretty="format:" --name-only 36c66d3</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D19," ",$B$2, D19, " ", $B$3,D19," ",$B$3,D19)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/resources/org/kuali/rice/kim/bo/datadictionary/PersonDocumentAffiliation.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/resources/org/kuali/rice/kim/bo/datadictionary/PersonDocumentAffiliation.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/org/kuali/rice/kim/bo/datadictionary/PersonDocumentAffiliation.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/org/kuali/rice/kim/bo/datadictionary/PersonDocumentAffiliation.xml</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="D20" s="9" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G20" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D20," ",$B$2, D20, " ", $B$3,D20," ",$B$3,D20)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/location/web/src/main/resources/org/kuali/rice/location/web/campus/Campus.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/location/web/src/main/resources/org/kuali/rice/location/web/campus/Campus.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/location/web/src/main/resources/org/kuali/rice/location/web/campus/Campus.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/location/web/src/main/resources/org/kuali/rice/location/web/campus/Campus.xml</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk bc4dbc9</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>git show --pretty="format:" --name-only bc4dbc9</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G21" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D21," ",$B$2, D21, " ", $B$3,D21," ",$B$3,D21)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/resources/META-INF/uh-config-defaults.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/resources/META-INF/uh-config-defaults.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/META-INF/uh-config-defaults.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/META-INF/uh-config-defaults.xml</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 99f020c</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>git show --pretty="format:" --name-only 99f020c</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G22" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D22," ",$B$2, D22, " ", $B$3,D22," ",$B$3,D22)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/mo/common/active/InactivatableFromToUtils.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/mo/common/active/InactivatableFromToUtils.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/mo/common/active/InactivatableFromToUtils.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/mo/common/active/InactivatableFromToUtils.java</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="16" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G23" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D23," ",$B$2, D23, " ", $B$3,D23," ",$B$3,D23)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kim/bo/ui/KimDocumentBoActivatableToFromEditableBase.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kim/bo/ui/KimDocumentBoActivatableToFromEditableBase.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/bo/ui/KimDocumentBoActivatableToFromEditableBase.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/bo/ui/KimDocumentBoActivatableToFromEditableBase.java</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="16" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G24" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D24," ",$B$2, D24, " ", $B$3,D24," ",$B$3,D24)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementPersonDocument.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementPersonDocument.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementPersonDocument.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/document/IdentityManagementPersonDocument.java</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" s="16" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D25," ",$B$2, D25, " ", $B$3,D25," ",$B$3,D25)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kim/service/impl/UiDocumentServiceImpl.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kim/service/impl/UiDocumentServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/service/impl/UiDocumentServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/service/impl/UiDocumentServiceImpl.java</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60">
+      <c r="D26" s="16" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G26" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D26," ",$B$2, D26, " ", $B$3,D26," ",$B$3,D26)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kim/web/struts/action/IdentityManagementPersonDocumentAction.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kim/web/struts/action/IdentityManagementPersonDocumentAction.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/web/struts/action/IdentityManagementPersonDocumentAction.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kim/web/struts/action/IdentityManagementPersonDocumentAction.java</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" s="16" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G27" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D27," ",$B$2, D27, " ", $B$3,D27," ",$B$3,D27)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/kim/kim-impl/src/main/groovy/org/kuali/rice/kim/impl/common/active/ActiveFromToBo.groovy /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/kim/kim-impl/src/main/groovy/org/kuali/rice/kim/impl/common/active/ActiveFromToBo.groovy /cygdrive/c/Users/ronald/github/rice/rice-middleware/kim/kim-impl/src/main/groovy/org/kuali/rice/kim/impl/common/active/ActiveFromToBo.groovy /cygdrive/c/Users/ronald/github/rice/rice-middleware/kim/kim-impl/src/main/groovy/org/kuali/rice/kim/impl/common/active/ActiveFromToBo.groovy</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 06eb8b8</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v>git show --pretty="format:" --name-only 06eb8b8</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G28" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D28," ",$B$2, D28, " ", $B$3,D28," ",$B$3,D28)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/db/impex/master/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/db/impex/master/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/github/rice/db/impex/master/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/github/rice/db/impex/master/src/main/resources/KRIM_PRNCPL_T.xml</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="9" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D29," ",$B$2, D29, " ", $B$3,D29," ",$B$3,D29)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/db/impex/server/bootstrap/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/db/impex/server/bootstrap/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/github/rice/db/impex/server/bootstrap/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/github/rice/db/impex/server/bootstrap/src/main/resources/KRIM_PRNCPL_T.xml</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="9" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D30," ",$B$2, D30, " ", $B$3,D30," ",$B$3,D30)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/db/impex/server/demo/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/db/impex/server/demo/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/github/rice/db/impex/server/demo/src/main/resources/KRIM_PRNCPL_T.xml /cygdrive/c/Users/ronald/github/rice/db/impex/server/demo/src/main/resources/KRIM_PRNCPL_T.xml</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 477dd63</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>git show --pretty="format:" --name-only 477dd63</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D31," ",$B$2, D31, " ", $B$3,D31," ",$B$3,D31)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/util/xml/XmlHelper.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/util/xml/XmlHelper.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/util/xml/XmlHelper.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/core/api/src/main/java/org/kuali/rice/core/api/util/xml/XmlHelper.java</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="D32" s="16" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G32" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D32," ",$B$2, D32, " ", $B$3,D32," ",$B$3,D32)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/xml/XMLSearchableAttributeContent.java /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/xml/XMLSearchableAttributeContent.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/xml/XMLSearchableAttributeContent.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/org/kuali/rice/kew/docsearch/xml/XMLSearchableAttributeContent.java</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>gitk 6cec561</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>git show --pretty="format:" --name-only 6cec561</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f>CONCATENATE("cp ",$B$2,D33," ",$B$3,D33)</f>
+        <v>cp /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-framework/krad-web-framework/src/main/resources/org/kuali/rice/krad/config/UHKRADOverrideSpringBeans.xml /cygdrive/c/Users/ronald/github/rice/rice-framework/krad-web-framework/src/main/resources/org/kuali/rice/krad/config/UHKRADOverrideSpringBeans.xml</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="D34" s="9" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f>CONCATENATE("cp ",$B$2,D34," ",$B$3,D34)</f>
+        <v>cp /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/encryption/AesEncryptor.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/encryption/AesEncryptor.java</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30">
+      <c r="D35" s="9" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G35" s="15" t="str">
+        <f>CONCATENATE("cp ",$B$2,D35," ",$B$3,D35)</f>
+        <v>cp /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/encryption/UHEncryptionServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/encryption/UHEncryptionServiceImpl.java</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="D36" s="9" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G36" s="15" t="str">
+        <f>CONCATENATE("cp ",$B$2,D36," ",$B$3,D36)</f>
+        <v>cp /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/mail/UHKualiExceptionIncidentServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/mail/UHKualiExceptionIncidentServiceImpl.java</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="D37" s="9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G37" s="15" t="str">
+        <f>CONCATENATE("cp ",$B$2,D37," ",$B$3,D37)</f>
+        <v>cp /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/mail/UHStyleableEmailContentServiceImpl.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/mail/UHStyleableEmailContentServiceImpl.java</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="D38" s="9" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G38" s="15" t="str">
+        <f>CONCATENATE("cp ",$B$2,D38," ",$B$3,D38)</f>
+        <v>cp /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/struts/LogoutAction.java /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/java/edu/hawaii/its/kuali/struts/LogoutAction.java</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B39" t="str">
+        <f>CONCATENATE("gitk ",A39)</f>
+        <v>gitk b9d6f53</v>
+      </c>
+      <c r="C39" t="str">
+        <f>CONCATENATE("git show --pretty=""format:"" --name-only ",A39)</f>
+        <v>git show --pretty="format:" --name-only b9d6f53</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G39" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D39," ",$B$2, D39, " ", $B$3,D39," ",$B$3,D39)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/web/src/main/webapp/WEB-INF/struts-config.xml /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/web/src/main/webapp/WEB-INF/struts-config.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/web/src/main/webapp/WEB-INF/struts-config.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/web/src/main/webapp/WEB-INF/struts-config.xml</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="D40" s="9" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G40" s="15" t="str">
+        <f>CONCATENATE("p4fix.sh ", $B$1, D40," ",$B$2, D40, " ", $B$3,D40," ",$B$3,D40)</f>
+        <v>p4fix.sh /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5.community/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/KewEmbeddedSpringBeans.xml.orig /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/KewEmbeddedSpringBeans.xml.orig /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/KewEmbeddedSpringBeans.xml.orig /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/KewEmbeddedSpringBeans.xml.orig</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="D41" s="9" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G41" s="15" t="str">
+        <f>CONCATENATE("cp ",$B$2,D41," ",$B$3,D41)</f>
+        <v>cp /cygdrive/c/Users/ronald/uh-kc-rice-2.3.5/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/UHKEWOverrideSpringBeans.xml /cygdrive/c/Users/ronald/github/rice/rice-middleware/impl/src/main/resources/org/kuali/rice/kew/config/UHKEWOverrideSpringBeans.xml</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B45,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B46,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B47,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B48,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B49,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B50,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B51,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B52,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B53,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B54,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B55,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B56,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B57,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B58,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B59,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B60,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B61,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B62,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B63,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B64,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B65,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B66,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B67,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B68,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B69,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B70,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B71,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B72,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B73,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B74,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B75,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B76,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B77,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B78,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B79,"*"))</f>
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f>COUNTIF($D$6:$D$33,CONCATENATE("*",B80,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>